--- a/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
@@ -1285,7 +1285,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1369,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1659,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -2658,10 +2658,10 @@
         <v>41</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
@@ -3146,7 +3146,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3459,10 +3459,10 @@
         <v>3.75</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -3471,7 +3471,7 @@
         <v>7</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>7.5</v>
@@ -3495,16 +3495,16 @@
         <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>151</v>
@@ -3713,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4136,10 +4136,10 @@
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
@@ -4583,10 +4583,10 @@
         <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -4720,10 +4720,10 @@
         <v>2.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4765,7 +4765,7 @@
         <v>2.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y30" t="n">
         <v>5.5</v>
@@ -4855,13 +4855,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
         <v>2.3</v>
@@ -4873,16 +4873,16 @@
         <v>7.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q31" t="n">
         <v>2.7</v>
@@ -4891,10 +4891,10 @@
         <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U31" t="n">
         <v>1.62</v>
@@ -4906,7 +4906,7 @@
         <v>2.75</v>
       </c>
       <c r="X31" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
@@ -4927,37 +4927,37 @@
         <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI31" t="n">
         <v>101</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
         <v>81</v>
       </c>
       <c r="AN31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO31" t="n">
         <v>67</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>81</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5006,7 +5006,7 @@
         <v>2.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -5051,7 +5051,7 @@
         <v>2.5</v>
       </c>
       <c r="X32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y32" t="n">
         <v>5</v>
@@ -5148,7 +5148,7 @@
         <v>2.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3.9</v>
@@ -5196,7 +5196,7 @@
         <v>2.5</v>
       </c>
       <c r="X33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y33" t="n">
         <v>5</v>
@@ -5220,7 +5220,7 @@
         <v>5.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG33" t="n">
         <v>23</v>
@@ -5293,10 +5293,10 @@
         <v>2.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5308,10 +5308,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.67</v>
@@ -5335,22 +5335,22 @@
         <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X34" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Y34" t="n">
         <v>6</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
         <v>29</v>
@@ -5362,10 +5362,10 @@
         <v>51</v>
       </c>
       <c r="AE34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG34" t="n">
         <v>21</v>
@@ -5377,10 +5377,10 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
         <v>13</v>
@@ -5441,7 +5441,7 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -5450,7 +5450,7 @@
         <v>1.83</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>1.13</v>
@@ -5459,10 +5459,10 @@
         <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q35" t="n">
         <v>2.88</v>
@@ -5477,19 +5477,19 @@
         <v>1.13</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="X35" t="n">
         <v>1.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z35" t="n">
         <v>8</v>
@@ -5582,7 +5582,7 @@
         <v>2.63</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
@@ -5606,10 +5606,10 @@
         <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
         <v>9</v>
@@ -5627,7 +5627,7 @@
         <v>2.75</v>
       </c>
       <c r="X36" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Y36" t="n">
         <v>5.5</v>
@@ -5672,7 +5672,7 @@
         <v>15</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
         <v>41</v>
@@ -6144,10 +6144,10 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4.33</v>
       </c>
       <c r="I40" t="n">
         <v>1.67</v>
@@ -6165,7 +6165,7 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O40" t="n">
         <v>1.1</v>
@@ -6294,7 +6294,7 @@
         <v>2.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
@@ -6306,7 +6306,7 @@
         <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -6327,16 +6327,16 @@
         <v>1.29</v>
       </c>
       <c r="U41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
@@ -6345,37 +6345,37 @@
         <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
         <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
         <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK41" t="n">
         <v>13</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>15</v>
       </c>
       <c r="AL41" t="n">
         <v>11</v>
@@ -6384,10 +6384,10 @@
         <v>29</v>
       </c>
       <c r="AN41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6429,7 +6429,7 @@
         <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
         <v>2.55</v>
@@ -6474,10 +6474,10 @@
         <v>2.75</v>
       </c>
       <c r="W42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y42" t="n">
         <v>10</v>
@@ -6498,13 +6498,13 @@
         <v>29</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF42" t="n">
         <v>6</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>41</v>
@@ -6513,7 +6513,7 @@
         <v>151</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK42" t="n">
         <v>13</v>
@@ -8908,10 +8908,10 @@
         <v>7.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB59" t="n">
         <v>9</v>
@@ -8944,7 +8944,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM59" t="n">
         <v>101</v>
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>5.25</v>
       </c>
       <c r="I60" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J60" t="n">
         <v>1.73</v>
@@ -9046,16 +9046,16 @@
         <v>2</v>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z60" t="n">
         <v>8</v>
       </c>
       <c r="AA60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB60" t="n">
         <v>9</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC60" t="n">
         <v>10</v>
@@ -9076,25 +9076,25 @@
         <v>51</v>
       </c>
       <c r="AI60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL60" t="n">
         <v>26</v>
       </c>
-      <c r="AK60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>23</v>
-      </c>
       <c r="AM60" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN60" t="n">
         <v>51</v>
       </c>
       <c r="AO60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
         <v>4.1</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
         <v>1.85</v>
@@ -9148,7 +9148,7 @@
         <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -9157,22 +9157,22 @@
         <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P61" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U61" t="n">
         <v>1.33</v>
@@ -9211,7 +9211,7 @@
         <v>7</v>
       </c>
       <c r="AG61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
         <v>41</v>
@@ -9229,7 +9229,7 @@
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN61" t="n">
         <v>13</v>
@@ -9278,22 +9278,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H62" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
         <v>1.91</v>
       </c>
       <c r="L62" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.13</v>
@@ -9326,16 +9326,16 @@
         <v>2.2</v>
       </c>
       <c r="W62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X62" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y62" t="n">
         <v>5.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA62" t="n">
         <v>10</v>
@@ -9427,16 +9427,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>1.95</v>
@@ -9484,19 +9484,19 @@
         <v>6</v>
       </c>
       <c r="Z63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC63" t="n">
         <v>21</v>
       </c>
       <c r="AD63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE63" t="n">
         <v>7</v>
@@ -9505,7 +9505,7 @@
         <v>6</v>
       </c>
       <c r="AG63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
@@ -9594,10 +9594,10 @@
         <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.5</v>
@@ -9624,10 +9624,10 @@
         <v>2.25</v>
       </c>
       <c r="W64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X64" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y64" t="n">
         <v>6</v>
@@ -9675,7 +9675,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
@@ -9743,10 +9743,10 @@
         <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O65" t="n">
         <v>1.3</v>
@@ -10148,22 +10148,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I68" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="J68" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
         <v>2.15</v>
       </c>
       <c r="L68" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -10184,10 +10184,10 @@
         <v>1.85</v>
       </c>
       <c r="S68" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T68" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U68" t="n">
         <v>1.4</v>
@@ -10199,58 +10199,58 @@
         <v>1.75</v>
       </c>
       <c r="X68" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Y68" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA68" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB68" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD68" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE68" t="n">
         <v>7.8</v>
       </c>
       <c r="AF68" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH68" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI68" t="n">
         <v>600</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AK68" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AL68" t="n">
         <v>9</v>
       </c>
       <c r="AM68" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AN68" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10868,13 +10868,13 @@
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.3</v>
@@ -10919,7 +10919,7 @@
         <v>34</v>
       </c>
       <c r="AC73" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD73" t="n">
         <v>34</v>
@@ -10940,7 +10940,7 @@
         <v>251</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK73" t="n">
         <v>11</v>
@@ -11558,28 +11558,28 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I78" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J78" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="K78" t="n">
         <v>1.85</v>
       </c>
       <c r="L78" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="M78" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N78" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O78" t="n">
         <v>1.55</v>
@@ -11588,7 +11588,7 @@
         <v>2.32</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R78" t="n">
         <v>1.44</v>
@@ -11603,7 +11603,7 @@
         <v>1.57</v>
       </c>
       <c r="V78" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W78" t="n">
         <v>2.1</v>
@@ -11612,16 +11612,16 @@
         <v>1.65</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB78" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC78" t="n">
         <v>50</v>
@@ -11630,29 +11630,29 @@
         <v>60</v>
       </c>
       <c r="AE78" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AF78" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH78" t="n">
         <v>110</v>
       </c>
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AK78" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AL78" t="n">
         <v>9.25</v>
       </c>
       <c r="AM78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN78" t="n">
         <v>22</v>
@@ -12295,10 +12295,10 @@
         <v>3.2</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R83" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S83" t="n">
         <v>4</v>
@@ -12850,7 +12850,7 @@
         <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -12991,7 +12991,7 @@
         <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O88" t="n">
         <v>1.22</v>
@@ -14727,7 +14727,7 @@
         <v>6.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA100" t="n">
         <v>8.5</v>
@@ -14748,7 +14748,7 @@
         <v>8</v>
       </c>
       <c r="AG100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH100" t="n">
         <v>67</v>
@@ -14763,7 +14763,7 @@
         <v>34</v>
       </c>
       <c r="AL100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM100" t="n">
         <v>67</v>
@@ -14829,10 +14829,10 @@
         <v>7.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -16084,22 +16084,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H110" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I110" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J110" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K110" t="n">
         <v>2.2</v>
       </c>
       <c r="L110" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M110" t="n">
         <v>1.05</v>
@@ -16138,13 +16138,13 @@
         <v>2</v>
       </c>
       <c r="Y110" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z110" t="n">
         <v>9.5</v>
       </c>
       <c r="AA110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB110" t="n">
         <v>17</v>
@@ -16156,16 +16156,16 @@
         <v>26</v>
       </c>
       <c r="AE110" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF110" t="n">
         <v>6.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH110" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI110" t="n">
         <v>201</v>
@@ -16174,7 +16174,7 @@
         <v>12</v>
       </c>
       <c r="AK110" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL110" t="n">
         <v>13</v>
@@ -16385,13 +16385,13 @@
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O112" t="n">
         <v>1.3</v>
@@ -16412,19 +16412,19 @@
         <v>1.29</v>
       </c>
       <c r="U112" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V112" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W112" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X112" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z112" t="n">
         <v>12</v>
@@ -16451,10 +16451,10 @@
         <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI112" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ112" t="n">
         <v>9.5</v>
@@ -16594,7 +16594,7 @@
         <v>8</v>
       </c>
       <c r="AF113" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG113" t="n">
         <v>19</v>
@@ -16603,7 +16603,7 @@
         <v>67</v>
       </c>
       <c r="AI113" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ113" t="n">
         <v>11</v>
@@ -16624,16 +16624,16 @@
         <v>51</v>
       </c>
       <c r="AP113" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="114">
@@ -16677,7 +16677,7 @@
         <v>3.4</v>
       </c>
       <c r="J114" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K114" t="n">
         <v>1.91</v>
@@ -16746,7 +16746,7 @@
         <v>5.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH114" t="n">
         <v>67</v>
@@ -16764,7 +16764,7 @@
         <v>13</v>
       </c>
       <c r="AM114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN114" t="n">
         <v>34</v>
@@ -16773,10 +16773,10 @@
         <v>41</v>
       </c>
       <c r="AP114" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AR114" t="n">
         <v>1.98</v>
@@ -17124,7 +17124,7 @@
         <v>1.06</v>
       </c>
       <c r="N117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O117" t="n">
         <v>1.29</v>
@@ -18088,7 +18088,7 @@
         <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J124" t="n">
         <v>3.5</v>
@@ -18097,7 +18097,7 @@
         <v>2.1</v>
       </c>
       <c r="L124" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M124" t="n">
         <v>1.07</v>
@@ -18139,7 +18139,7 @@
         <v>9</v>
       </c>
       <c r="Z124" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA124" t="n">
         <v>11</v>
@@ -18169,7 +18169,7 @@
         <v>251</v>
       </c>
       <c r="AJ124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK124" t="n">
         <v>12</v>
@@ -18527,16 +18527,16 @@
         <v>3.4</v>
       </c>
       <c r="M127" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O127" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P127" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q127" t="n">
         <v>2.05</v>
@@ -18545,16 +18545,16 @@
         <v>1.75</v>
       </c>
       <c r="S127" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T127" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W127" t="n">
         <v>1.8</v>
@@ -18563,7 +18563,7 @@
         <v>1.95</v>
       </c>
       <c r="Y127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z127" t="n">
         <v>12</v>
@@ -18581,7 +18581,7 @@
         <v>29</v>
       </c>
       <c r="AE127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF127" t="n">
         <v>6</v>
@@ -18602,7 +18602,7 @@
         <v>13</v>
       </c>
       <c r="AL127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM127" t="n">
         <v>29</v>
@@ -19081,28 +19081,28 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H131" t="n">
         <v>3.5</v>
       </c>
       <c r="I131" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J131" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K131" t="n">
         <v>2.2</v>
       </c>
       <c r="L131" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M131" t="n">
         <v>1.04</v>
       </c>
       <c r="N131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O131" t="n">
         <v>1.22</v>
@@ -19222,16 +19222,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>3.25</v>
       </c>
       <c r="I132" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J132" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K132" t="n">
         <v>2.1</v>
@@ -19252,10 +19252,10 @@
         <v>3.5</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S132" t="n">
         <v>3.4</v>
@@ -19270,10 +19270,10 @@
         <v>2.75</v>
       </c>
       <c r="W132" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X132" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y132" t="n">
         <v>9.5</v>
@@ -19288,10 +19288,10 @@
         <v>29</v>
       </c>
       <c r="AC132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE132" t="n">
         <v>10</v>
@@ -19309,19 +19309,19 @@
         <v>201</v>
       </c>
       <c r="AJ132" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK132" t="n">
         <v>12</v>
       </c>
       <c r="AL132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM132" t="n">
         <v>23</v>
       </c>
       <c r="AN132" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO132" t="n">
         <v>29</v>
@@ -19384,7 +19384,7 @@
         <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O133" t="n">
         <v>1.4</v>
@@ -19417,7 +19417,7 @@
         <v>1.75</v>
       </c>
       <c r="Y133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z133" t="n">
         <v>17</v>
@@ -19435,19 +19435,19 @@
         <v>41</v>
       </c>
       <c r="AE133" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG133" t="n">
         <v>17</v>
       </c>
       <c r="AH133" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI133" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ133" t="n">
         <v>6.5</v>
@@ -19513,7 +19513,7 @@
         <v>3.2</v>
       </c>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K134" t="n">
         <v>2.05</v>
@@ -19567,7 +19567,7 @@
         <v>9.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC134" t="n">
         <v>19</v>
@@ -19654,7 +19654,7 @@
         <v>3.4</v>
       </c>
       <c r="J135" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K135" t="n">
         <v>1.95</v>
@@ -19732,7 +19732,7 @@
         <v>451</v>
       </c>
       <c r="AJ135" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK135" t="n">
         <v>15</v>
@@ -19752,10 +19752,10 @@
       <c r="AP135" t="inlineStr"/>
       <c r="AQ135" t="inlineStr"/>
       <c r="AR135" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="136">
@@ -19790,16 +19790,16 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>3.5</v>
       </c>
       <c r="I136" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J136" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K136" t="n">
         <v>2.2</v>
@@ -19808,10 +19808,10 @@
         <v>4</v>
       </c>
       <c r="M136" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O136" t="n">
         <v>1.25</v>
@@ -19820,10 +19820,10 @@
         <v>3.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R136" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S136" t="n">
         <v>3</v>
@@ -19847,7 +19847,7 @@
         <v>8.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA136" t="n">
         <v>9</v>
@@ -19946,13 +19946,13 @@
         <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M137" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O137" t="n">
         <v>1.36</v>
@@ -19973,10 +19973,10 @@
         <v>1.22</v>
       </c>
       <c r="U137" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V137" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W137" t="n">
         <v>1.95</v>
@@ -20003,7 +20003,7 @@
         <v>41</v>
       </c>
       <c r="AE137" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF137" t="n">
         <v>6.5</v>
@@ -20030,7 +20030,7 @@
         <v>21</v>
       </c>
       <c r="AN137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO137" t="n">
         <v>34</v>
@@ -20517,22 +20517,22 @@
         <v>4.5</v>
       </c>
       <c r="M141" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O141" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P141" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S141" t="n">
         <v>3.5</v>
@@ -20661,7 +20661,7 @@
         <v>1.06</v>
       </c>
       <c r="N142" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O142" t="n">
         <v>1.33</v>
@@ -20811,10 +20811,10 @@
         <v>4</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R143" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S143" t="n">
         <v>2.75</v>
@@ -21208,28 +21208,28 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H146" t="n">
         <v>4.5</v>
       </c>
       <c r="I146" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J146" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K146" t="n">
         <v>2.4</v>
       </c>
       <c r="L146" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M146" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N146" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O146" t="n">
         <v>1.2</v>
@@ -21295,19 +21295,19 @@
         <v>251</v>
       </c>
       <c r="AJ146" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK146" t="n">
         <v>34</v>
       </c>
       <c r="AL146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM146" t="n">
         <v>67</v>
       </c>
       <c r="AN146" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO146" t="n">
         <v>41</v>
@@ -21379,10 +21379,10 @@
         <v>3.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R147" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S147" t="n">
         <v>3.25</v>
@@ -23838,16 +23838,16 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>3.1</v>
       </c>
       <c r="I166" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J166" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K166" t="n">
         <v>1.95</v>
@@ -23898,7 +23898,7 @@
         <v>9.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB166" t="n">
         <v>21</v>
@@ -24004,7 +24004,7 @@
         <v>1.01</v>
       </c>
       <c r="N167" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O167" t="n">
         <v>1.1</v>
@@ -25699,10 +25699,10 @@
         <v>11</v>
       </c>
       <c r="O179" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P179" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q179" t="n">
         <v>1.44</v>
@@ -25961,13 +25961,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H181" t="n">
         <v>3.1</v>
       </c>
       <c r="I181" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J181" t="n">
         <v>2.88</v>
@@ -26009,10 +26009,10 @@
         <v>2.63</v>
       </c>
       <c r="W181" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X181" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y181" t="n">
         <v>7.5</v>
@@ -26024,7 +26024,7 @@
         <v>9</v>
       </c>
       <c r="AB181" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC181" t="n">
         <v>17</v>
@@ -26042,7 +26042,7 @@
         <v>13</v>
       </c>
       <c r="AH181" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI181" t="n">
         <v>201</v>
@@ -26132,10 +26132,10 @@
         <v>3.75</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R182" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S182" t="n">
         <v>3.2</v>
@@ -26388,7 +26388,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>3.1</v>
@@ -26418,7 +26418,7 @@
         <v>3.4</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R184" t="n">
         <v>1.8</v>
@@ -26436,10 +26436,10 @@
         <v>2.63</v>
       </c>
       <c r="W184" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X184" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y184" t="n">
         <v>8</v>
@@ -26454,7 +26454,7 @@
         <v>23</v>
       </c>
       <c r="AC184" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD184" t="n">
         <v>29</v>
@@ -26469,10 +26469,10 @@
         <v>13</v>
       </c>
       <c r="AH184" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI184" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ184" t="n">
         <v>9.5</v>
@@ -27102,13 +27102,13 @@
         <v>3.45</v>
       </c>
       <c r="J189" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K189" t="n">
         <v>2.05</v>
       </c>
       <c r="L189" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M189" t="n">
         <v>1.07</v>
@@ -27117,10 +27117,10 @@
         <v>6.8</v>
       </c>
       <c r="O189" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P189" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q189" t="n">
         <v>2.02</v>
@@ -27147,22 +27147,22 @@
         <v>1.87</v>
       </c>
       <c r="Y189" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z189" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA189" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB189" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC189" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD189" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE189" t="n">
         <v>6.8</v>
@@ -27171,31 +27171,31 @@
         <v>6.4</v>
       </c>
       <c r="AG189" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH189" t="n">
         <v>75</v>
       </c>
       <c r="AI189" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ189" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK189" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL189" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM189" t="n">
         <v>50</v>
       </c>
       <c r="AN189" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO189" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP189" t="inlineStr"/>
       <c r="AQ189" t="inlineStr"/>
@@ -27234,7 +27234,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H190" t="n">
         <v>3.45</v>
@@ -27243,25 +27243,25 @@
         <v>5.9</v>
       </c>
       <c r="J190" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K190" t="n">
         <v>2.1</v>
       </c>
       <c r="L190" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M190" t="n">
         <v>1.06</v>
       </c>
       <c r="N190" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O190" t="n">
         <v>1.27</v>
       </c>
       <c r="P190" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q190" t="n">
         <v>1.8</v>
@@ -27270,7 +27270,7 @@
         <v>1.91</v>
       </c>
       <c r="S190" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T190" t="n">
         <v>1.37</v>
@@ -27288,10 +27288,10 @@
         <v>1.93</v>
       </c>
       <c r="Y190" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z190" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA190" t="n">
         <v>7.7</v>
@@ -27306,13 +27306,13 @@
         <v>24</v>
       </c>
       <c r="AE190" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF190" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG190" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH190" t="n">
         <v>70</v>
@@ -27321,7 +27321,7 @@
         <v>500</v>
       </c>
       <c r="AJ190" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK190" t="n">
         <v>40</v>
@@ -27333,10 +27333,10 @@
         <v>150</v>
       </c>
       <c r="AN190" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO190" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP190" t="inlineStr"/>
       <c r="AQ190" t="inlineStr"/>
@@ -28010,61 +28010,61 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I196" t="n">
         <v>2.7</v>
       </c>
       <c r="J196" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N196" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P196" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X196" t="n">
         <v>2.3</v>
       </c>
-      <c r="L196" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N196" t="n">
+      <c r="Y196" t="n">
         <v>9.75</v>
-      </c>
-      <c r="O196" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P196" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q196" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R196" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S196" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="T196" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U196" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V196" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W196" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X196" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y196" t="n">
-        <v>10.25</v>
       </c>
       <c r="Z196" t="n">
         <v>14</v>
@@ -28076,28 +28076,28 @@
         <v>25</v>
       </c>
       <c r="AC196" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD196" t="n">
         <v>24</v>
       </c>
       <c r="AE196" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF196" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG196" t="n">
         <v>13</v>
       </c>
       <c r="AH196" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI196" t="n">
         <v>300</v>
       </c>
       <c r="AJ196" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK196" t="n">
         <v>17</v>
@@ -28109,10 +28109,10 @@
         <v>35</v>
       </c>
       <c r="AN196" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO196" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP196" t="inlineStr"/>
       <c r="AQ196" t="inlineStr"/>
@@ -28433,16 +28433,16 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H199" t="n">
         <v>3.25</v>
       </c>
       <c r="I199" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J199" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K199" t="n">
         <v>2.2</v>
@@ -28499,7 +28499,7 @@
         <v>29</v>
       </c>
       <c r="AC199" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD199" t="n">
         <v>29</v>
@@ -28592,28 +28592,28 @@
         <v>3.25</v>
       </c>
       <c r="M200" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T200" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P200" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>2</v>
-      </c>
-      <c r="R200" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S200" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T200" t="n">
-        <v>1.3</v>
       </c>
       <c r="U200" t="n">
         <v>1.4</v>
@@ -28927,22 +28927,22 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I203" t="n">
         <v>4.75</v>
       </c>
-      <c r="I203" t="n">
+      <c r="J203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L203" t="n">
         <v>6</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K203" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L203" t="n">
-        <v>7</v>
       </c>
       <c r="M203" t="n">
         <v>1.04</v>
@@ -28951,49 +28951,49 @@
         <v>13</v>
       </c>
       <c r="O203" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P203" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R203" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S203" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T203" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U203" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V203" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W203" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X203" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y203" t="n">
         <v>7</v>
       </c>
       <c r="Z203" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA203" t="n">
         <v>8.5</v>
       </c>
       <c r="AB203" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD203" t="n">
         <v>26</v>
@@ -29002,34 +29002,34 @@
         <v>13</v>
       </c>
       <c r="AF203" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG203" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH203" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI203" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL203" t="n">
         <v>17</v>
       </c>
-      <c r="AK203" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>19</v>
-      </c>
       <c r="AM203" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN203" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO203" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP203" t="n">
         <v>2.03</v>
@@ -29072,52 +29072,52 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J204" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N204" t="n">
+        <v>8</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P204" t="n">
         <v>3</v>
       </c>
-      <c r="I204" t="n">
-        <v>2</v>
-      </c>
-      <c r="J204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K204" t="n">
-        <v>2</v>
-      </c>
-      <c r="L204" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M204" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N204" t="n">
-        <v>7</v>
-      </c>
-      <c r="O204" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P204" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q204" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R204" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S204" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T204" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U204" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V204" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W204" t="n">
         <v>2</v>
@@ -29126,16 +29126,16 @@
         <v>1.73</v>
       </c>
       <c r="Y204" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z204" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA204" t="n">
         <v>15</v>
       </c>
       <c r="AB204" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC204" t="n">
         <v>41</v>
@@ -29144,34 +29144,34 @@
         <v>41</v>
       </c>
       <c r="AE204" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF204" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG204" t="n">
         <v>17</v>
       </c>
       <c r="AH204" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI204" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ204" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK204" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL204" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM204" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN204" t="n">
         <v>17</v>
-      </c>
-      <c r="AN204" t="n">
-        <v>19</v>
       </c>
       <c r="AO204" t="n">
         <v>34</v>
@@ -29235,10 +29235,10 @@
         <v>4</v>
       </c>
       <c r="M205" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N205" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O205" t="n">
         <v>1.4</v>
@@ -29253,10 +29253,10 @@
         <v>1.62</v>
       </c>
       <c r="S205" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T205" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U205" t="n">
         <v>1.5</v>
@@ -29358,13 +29358,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H206" t="n">
         <v>3</v>
       </c>
       <c r="I206" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J206" t="n">
         <v>3.75</v>
@@ -29379,7 +29379,7 @@
         <v>1.08</v>
       </c>
       <c r="N206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O206" t="n">
         <v>1.36</v>
@@ -29388,10 +29388,10 @@
         <v>3</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R206" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S206" t="n">
         <v>4</v>
@@ -29412,7 +29412,7 @@
         <v>1.83</v>
       </c>
       <c r="Y206" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z206" t="n">
         <v>15</v>
@@ -29424,7 +29424,7 @@
         <v>34</v>
       </c>
       <c r="AC206" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD206" t="n">
         <v>41</v>
@@ -29445,7 +29445,7 @@
         <v>301</v>
       </c>
       <c r="AJ206" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK206" t="n">
         <v>11</v>
@@ -29803,16 +29803,16 @@
         <v>4.75</v>
       </c>
       <c r="M209" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N209" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O209" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P209" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q209" t="n">
         <v>2.25</v>
@@ -31372,10 +31372,10 @@
         <v>11</v>
       </c>
       <c r="O220" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P220" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q220" t="n">
         <v>1.93</v>
@@ -32608,41 +32608,111 @@
           <t>Ajman</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
-      <c r="W229" t="inlineStr"/>
-      <c r="X229" t="inlineStr"/>
-      <c r="Y229" t="inlineStr"/>
-      <c r="Z229" t="inlineStr"/>
-      <c r="AA229" t="inlineStr"/>
-      <c r="AB229" t="inlineStr"/>
-      <c r="AC229" t="inlineStr"/>
-      <c r="AD229" t="inlineStr"/>
-      <c r="AE229" t="inlineStr"/>
-      <c r="AF229" t="inlineStr"/>
-      <c r="AG229" t="inlineStr"/>
-      <c r="AH229" t="inlineStr"/>
-      <c r="AI229" t="inlineStr"/>
-      <c r="AJ229" t="inlineStr"/>
-      <c r="AK229" t="inlineStr"/>
-      <c r="AL229" t="inlineStr"/>
-      <c r="AM229" t="inlineStr"/>
-      <c r="AN229" t="inlineStr"/>
-      <c r="AO229" t="inlineStr"/>
+      <c r="G229" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J229" t="n">
+        <v>4</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N229" t="n">
+        <v>9</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P229" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S229" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>20</v>
+      </c>
       <c r="AP229" t="inlineStr"/>
       <c r="AQ229" t="inlineStr"/>
       <c r="AR229" t="inlineStr"/>
@@ -32679,41 +32749,111 @@
           <t>Khorfakkan</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr"/>
-      <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr"/>
-      <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr"/>
-      <c r="Y230" t="inlineStr"/>
-      <c r="Z230" t="inlineStr"/>
-      <c r="AA230" t="inlineStr"/>
-      <c r="AB230" t="inlineStr"/>
-      <c r="AC230" t="inlineStr"/>
-      <c r="AD230" t="inlineStr"/>
-      <c r="AE230" t="inlineStr"/>
-      <c r="AF230" t="inlineStr"/>
-      <c r="AG230" t="inlineStr"/>
-      <c r="AH230" t="inlineStr"/>
-      <c r="AI230" t="inlineStr"/>
-      <c r="AJ230" t="inlineStr"/>
-      <c r="AK230" t="inlineStr"/>
-      <c r="AL230" t="inlineStr"/>
-      <c r="AM230" t="inlineStr"/>
-      <c r="AN230" t="inlineStr"/>
-      <c r="AO230" t="inlineStr"/>
+      <c r="G230" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H230" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N230" t="n">
+        <v>9</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P230" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S230" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>23</v>
+      </c>
       <c r="AP230" t="inlineStr"/>
       <c r="AQ230" t="inlineStr"/>
       <c r="AR230" t="inlineStr"/>
@@ -32750,41 +32890,111 @@
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
-      <c r="Y231" t="inlineStr"/>
-      <c r="Z231" t="inlineStr"/>
-      <c r="AA231" t="inlineStr"/>
-      <c r="AB231" t="inlineStr"/>
-      <c r="AC231" t="inlineStr"/>
-      <c r="AD231" t="inlineStr"/>
-      <c r="AE231" t="inlineStr"/>
-      <c r="AF231" t="inlineStr"/>
-      <c r="AG231" t="inlineStr"/>
-      <c r="AH231" t="inlineStr"/>
-      <c r="AI231" t="inlineStr"/>
-      <c r="AJ231" t="inlineStr"/>
-      <c r="AK231" t="inlineStr"/>
-      <c r="AL231" t="inlineStr"/>
-      <c r="AM231" t="inlineStr"/>
-      <c r="AN231" t="inlineStr"/>
-      <c r="AO231" t="inlineStr"/>
+      <c r="G231" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I231" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N231" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P231" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>19</v>
+      </c>
       <c r="AP231" t="inlineStr"/>
       <c r="AQ231" t="inlineStr"/>
       <c r="AR231" t="inlineStr"/>
@@ -32855,7 +33065,7 @@
         <v>2.5</v>
       </c>
       <c r="R232" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S232" t="n">
         <v>5</v>
@@ -32988,19 +33198,19 @@
         <v>1.06</v>
       </c>
       <c r="N233" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O233" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P233" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q233" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R233" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S233" t="n">
         <v>3.4</v>
@@ -33015,10 +33225,10 @@
         <v>2.75</v>
       </c>
       <c r="W233" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X233" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y233" t="n">
         <v>15</v>
@@ -33039,7 +33249,7 @@
         <v>51</v>
       </c>
       <c r="AE233" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF233" t="n">
         <v>8</v>
@@ -33060,7 +33270,7 @@
         <v>6.5</v>
       </c>
       <c r="AL233" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM233" t="n">
         <v>9.5</v>
@@ -33069,7 +33279,7 @@
         <v>13</v>
       </c>
       <c r="AO233" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP233" t="inlineStr"/>
       <c r="AQ233" t="inlineStr"/>
@@ -33141,7 +33351,7 @@
         <v>2.5</v>
       </c>
       <c r="R234" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S234" t="n">
         <v>5</v>
@@ -33259,7 +33469,7 @@
         <v>3.9</v>
       </c>
       <c r="I235" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J235" t="n">
         <v>2.38</v>
@@ -33283,7 +33493,7 @@
         <v>4.5</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R235" t="n">
         <v>2.25</v>
@@ -33355,7 +33565,7 @@
         <v>29</v>
       </c>
       <c r="AO235" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP235" t="n">
         <v>2.05</v>
@@ -33398,22 +33608,22 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H236" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I236" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L236" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J236" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K236" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L236" t="n">
-        <v>5</v>
       </c>
       <c r="M236" t="n">
         <v>1.03</v>
@@ -33446,22 +33656,22 @@
         <v>3.5</v>
       </c>
       <c r="W236" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X236" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y236" t="n">
         <v>9</v>
       </c>
       <c r="Z236" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA236" t="n">
         <v>8.5</v>
       </c>
       <c r="AB236" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC236" t="n">
         <v>12</v>
@@ -33473,7 +33683,7 @@
         <v>15</v>
       </c>
       <c r="AF236" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG236" t="n">
         <v>15</v>
@@ -33488,7 +33698,7 @@
         <v>19</v>
       </c>
       <c r="AK236" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL236" t="n">
         <v>17</v>
@@ -33500,7 +33710,7 @@
         <v>41</v>
       </c>
       <c r="AO236" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP236" t="n">
         <v>1.98</v>
@@ -33848,7 +34058,7 @@
         <v>2.25</v>
       </c>
       <c r="L239" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M239" t="n">
         <v>1.04</v>
@@ -33863,10 +34073,10 @@
         <v>4</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R239" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S239" t="n">
         <v>2.75</v>
@@ -33887,7 +34097,7 @@
         <v>2.1</v>
       </c>
       <c r="Y239" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z239" t="n">
         <v>11</v>
@@ -34373,10 +34583,10 @@
         <v>29</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR242" t="inlineStr"/>
       <c r="AS242" t="inlineStr"/>
@@ -34431,28 +34641,28 @@
         <v>4.33</v>
       </c>
       <c r="M243" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O243" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P243" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R243" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S243" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T243" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U243" t="n">
         <v>1.36</v>
@@ -34558,13 +34768,13 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H244" t="n">
         <v>3.9</v>
       </c>
       <c r="I244" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J244" t="n">
         <v>2.38</v>
@@ -34588,16 +34798,16 @@
         <v>4.5</v>
       </c>
       <c r="Q244" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R244" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S244" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T244" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U244" t="n">
         <v>1.3</v>
@@ -34606,10 +34816,10 @@
         <v>3.4</v>
       </c>
       <c r="W244" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X244" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y244" t="n">
         <v>9.5</v>
@@ -34642,7 +34852,7 @@
         <v>41</v>
       </c>
       <c r="AI244" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ244" t="n">
         <v>15</v>
@@ -34733,10 +34943,10 @@
         <v>6</v>
       </c>
       <c r="Q245" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R245" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S245" t="n">
         <v>2.1</v>
@@ -34844,16 +35054,16 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H246" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I246" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J246" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K246" t="n">
         <v>2</v>
@@ -34888,25 +35098,25 @@
         <v>2.37</v>
       </c>
       <c r="W246" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X246" t="n">
         <v>1.72</v>
       </c>
       <c r="Y246" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z246" t="n">
         <v>13.5</v>
       </c>
       <c r="AA246" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB246" t="n">
         <v>35</v>
       </c>
       <c r="AC246" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD246" t="n">
         <v>45</v>
@@ -34927,16 +35137,16 @@
         <v>900</v>
       </c>
       <c r="AJ246" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AK246" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AL246" t="n">
         <v>9.5</v>
       </c>
       <c r="AM246" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN246" t="n">
         <v>22</v>
@@ -35118,105 +35328,105 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H248" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>3.65</v>
+        <v>4.35</v>
       </c>
       <c r="J248" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K248" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="L248" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P248" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R248" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S248" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T248" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U248" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V248" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W248" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X248" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y248" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="Z248" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB248" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AC248" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD248" t="n">
         <v>35</v>
       </c>
       <c r="AE248" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AF248" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AG248" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH248" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI248" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ248" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK248" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AL248" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AM248" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO248" t="n">
         <v>60</v>
-      </c>
-      <c r="AN248" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO248" t="n">
-        <v>55</v>
       </c>
       <c r="AP248" t="inlineStr"/>
       <c r="AQ248" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
@@ -999,19 +999,19 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S4" t="n">
         <v>2.5</v>
@@ -1035,13 +1035,13 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1050,16 +1050,16 @@
         <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>201</v>
@@ -1071,10 +1071,10 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
         <v>41</v>
@@ -1083,10 +1083,10 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1171,13 +1171,13 @@
         <v>2.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J7" t="n">
         <v>5.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1457,10 +1457,10 @@
         <v>3.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1469,7 +1469,7 @@
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>67</v>
@@ -1493,7 +1493,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1590,10 +1590,10 @@
         <v>2.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
         <v>1.29</v>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
@@ -1714,7 +1714,7 @@
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1789,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -1798,16 +1798,16 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2187,16 +2187,16 @@
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
@@ -2205,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2301,10 +2301,10 @@
         <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -2331,7 +2331,7 @@
         <v>51</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
         <v>126</v>
@@ -2349,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
@@ -2646,10 +2646,10 @@
         <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
         <v>41</v>
@@ -2861,13 +2861,13 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -2882,7 +2882,7 @@
         <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -3002,13 +3002,13 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3023,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U18" t="n">
         <v>1.33</v>
@@ -3143,13 +3143,13 @@
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
         <v>3.2</v>
@@ -3161,7 +3161,7 @@
         <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
         <v>1.25</v>
@@ -3266,13 +3266,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H20" t="n">
         <v>5.25</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
         <v>1.73</v>
@@ -3284,16 +3284,16 @@
         <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
         <v>1.67</v>
@@ -3302,10 +3302,10 @@
         <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="U20" t="n">
         <v>1.3</v>
@@ -3338,7 +3338,7 @@
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>10</v>
@@ -3347,10 +3347,10 @@
         <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ20" t="n">
         <v>23</v>
@@ -3429,13 +3429,13 @@
         <v>9.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
         <v>6</v>
@@ -3450,7 +3450,7 @@
         <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
         <v>1.25</v>
@@ -3561,25 +3561,25 @@
         <v>5.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
         <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q22" t="n">
         <v>2.63</v>
@@ -3591,7 +3591,7 @@
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -3600,10 +3600,10 @@
         <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
@@ -3615,7 +3615,7 @@
         <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>19</v>
@@ -3624,7 +3624,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
         <v>6.5</v>
@@ -3637,13 +3637,13 @@
       </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>51</v>
@@ -3713,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3851,7 +3851,7 @@
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3917,16 +3917,16 @@
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
         <v>401</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>9</v>
@@ -4434,10 +4434,10 @@
         <v>2.25</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
@@ -4503,7 +4503,7 @@
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK28" t="n">
         <v>6.5</v>
@@ -4518,7 +4518,7 @@
         <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
         <v>3.6</v>
@@ -4855,22 +4855,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K31" t="n">
         <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4912,7 +4912,7 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
@@ -4930,10 +4930,10 @@
         <v>6.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH31" t="n">
         <v>151</v>
@@ -4954,10 +4954,10 @@
         <v>81</v>
       </c>
       <c r="AN31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5145,22 +5145,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.14</v>
@@ -5202,16 +5202,16 @@
         <v>5</v>
       </c>
       <c r="Z33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA33" t="n">
         <v>11</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD33" t="n">
         <v>41</v>
@@ -5220,7 +5220,7 @@
         <v>5.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG33" t="n">
         <v>23</v>
@@ -5232,10 +5232,10 @@
         <v>101</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
         <v>15</v>
@@ -5308,10 +5308,10 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
         <v>1.67</v>
@@ -5350,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
         <v>29</v>
@@ -5362,7 +5362,7 @@
         <v>51</v>
       </c>
       <c r="AE34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF34" t="n">
         <v>5.5</v>
@@ -5371,7 +5371,7 @@
         <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>1.83</v>
@@ -5459,10 +5459,10 @@
         <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q35" t="n">
         <v>2.88</v>
@@ -5477,16 +5477,16 @@
         <v>1.13</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W35" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y35" t="n">
         <v>5</v>
@@ -5498,10 +5498,10 @@
         <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
         <v>41</v>
@@ -5525,7 +5525,7 @@
         <v>7.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="n">
         <v>15</v>
@@ -5858,7 +5858,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.75</v>
@@ -5882,10 +5882,10 @@
         <v>15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q38" t="n">
         <v>1.62</v>
@@ -5906,43 +5906,43 @@
         <v>3.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
         <v>19</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB38" t="n">
         <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD38" t="n">
         <v>26</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ38" t="n">
         <v>11</v>
@@ -6003,13 +6003,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
         <v>2.75</v>
@@ -6018,7 +6018,7 @@
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -6051,10 +6051,10 @@
         <v>3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -6066,10 +6066,10 @@
         <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>23</v>
@@ -6096,7 +6096,7 @@
         <v>17</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
@@ -6144,22 +6144,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
         <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
         <v>2.75</v>
       </c>
       <c r="L40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
@@ -6192,10 +6192,10 @@
         <v>4.33</v>
       </c>
       <c r="W40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y40" t="n">
         <v>23</v>
@@ -6207,25 +6207,25 @@
         <v>15</v>
       </c>
       <c r="AB40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE40" t="n">
         <v>29</v>
       </c>
-      <c r="AD40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>26</v>
-      </c>
       <c r="AF40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG40" t="n">
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
         <v>67</v>
@@ -6300,7 +6300,7 @@
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.06</v>
@@ -6309,16 +6309,16 @@
         <v>9.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q41" t="n">
         <v>2.05</v>
       </c>
       <c r="R41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S41" t="n">
         <v>3.5</v>
@@ -6339,7 +6339,7 @@
         <v>1.95</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
         <v>12</v>
@@ -6360,7 +6360,7 @@
         <v>9.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG41" t="n">
         <v>15</v>
@@ -6372,7 +6372,7 @@
         <v>251</v>
       </c>
       <c r="AJ41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK41" t="n">
         <v>13</v>
@@ -6592,13 +6592,13 @@
         <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
         <v>2.05</v>
@@ -6607,10 +6607,10 @@
         <v>1.75</v>
       </c>
       <c r="S43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U43" t="n">
         <v>1.44</v>
@@ -6745,13 +6745,13 @@
         <v>1.44</v>
       </c>
       <c r="R44" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="S44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U44" t="n">
         <v>1.25</v>
@@ -6760,10 +6760,10 @@
         <v>3.55</v>
       </c>
       <c r="W44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X44" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6796,7 +6796,7 @@
         <v>40</v>
       </c>
       <c r="AI44" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ44" t="n">
         <v>19</v>
@@ -8426,10 +8426,10 @@
         <v>2.63</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -8515,10 +8515,10 @@
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -8702,13 +8702,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J58" t="n">
         <v>2.75</v>
@@ -8717,7 +8717,7 @@
         <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="n">
         <v>1.05</v>
@@ -8783,7 +8783,7 @@
         <v>15</v>
       </c>
       <c r="AH58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI58" t="n">
         <v>201</v>
@@ -8798,10 +8798,10 @@
         <v>12</v>
       </c>
       <c r="AM58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO58" t="n">
         <v>34</v>
@@ -8851,16 +8851,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I59" t="n">
         <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K59" t="n">
         <v>2.5</v>
@@ -8869,28 +8869,28 @@
         <v>7.5</v>
       </c>
       <c r="M59" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R59" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U59" t="n">
         <v>1.3</v>
@@ -8908,10 +8908,10 @@
         <v>7.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
         <v>9</v>
@@ -8920,7 +8920,7 @@
         <v>11</v>
       </c>
       <c r="AD59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
@@ -8938,25 +8938,29 @@
         <v>301</v>
       </c>
       <c r="AJ59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK59" t="n">
         <v>41</v>
       </c>
       <c r="AL59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM59" t="n">
         <v>101</v>
       </c>
       <c r="AN59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO59" t="n">
         <v>51</v>
       </c>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
+      <c r="AP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.85</v>
+      </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
     </row>
@@ -9427,16 +9431,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K63" t="n">
         <v>1.95</v>
@@ -9484,19 +9488,19 @@
         <v>6</v>
       </c>
       <c r="Z63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA63" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA63" t="n">
-        <v>10</v>
-      </c>
       <c r="AB63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC63" t="n">
         <v>21</v>
       </c>
       <c r="AD63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE63" t="n">
         <v>7</v>
@@ -9538,10 +9542,10 @@
         <v>1.26</v>
       </c>
       <c r="AR63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="64">
@@ -9725,7 +9729,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H65" t="n">
         <v>3.7</v>
@@ -10148,22 +10152,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H68" t="n">
         <v>3.45</v>
       </c>
       <c r="I68" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K68" t="n">
         <v>2.15</v>
       </c>
       <c r="L68" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
@@ -10202,16 +10206,16 @@
         <v>1.98</v>
       </c>
       <c r="Y68" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z68" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA68" t="n">
         <v>13</v>
       </c>
       <c r="AB68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC68" t="n">
         <v>35</v>
@@ -10235,22 +10239,22 @@
         <v>600</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AK68" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AL68" t="n">
         <v>9</v>
       </c>
       <c r="AM68" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN68" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10733,7 +10737,7 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O72" t="n">
         <v>1.07</v>
@@ -11135,22 +11139,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H75" t="n">
         <v>2.95</v>
       </c>
       <c r="I75" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="J75" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K75" t="n">
         <v>1.91</v>
       </c>
       <c r="L75" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M75" t="n">
         <v>1.09</v>
@@ -11174,7 +11178,7 @@
         <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U75" t="n">
         <v>1.53</v>
@@ -11186,19 +11190,19 @@
         <v>1.82</v>
       </c>
       <c r="X75" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Y75" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z75" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA75" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB75" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC75" t="n">
         <v>24</v>
@@ -11222,19 +11226,19 @@
         <v>700</v>
       </c>
       <c r="AJ75" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL75" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM75" t="n">
         <v>40</v>
       </c>
       <c r="AN75" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO75" t="n">
         <v>45</v>
@@ -12007,16 +12011,16 @@
         <v>10</v>
       </c>
       <c r="O81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R81" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S81" t="n">
         <v>3.5</v>
@@ -12087,10 +12091,18 @@
       <c r="AO81" t="n">
         <v>29</v>
       </c>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
+      <c r="AP81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12228,10 +12240,18 @@
       <c r="AO82" t="n">
         <v>41</v>
       </c>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
+      <c r="AP82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12265,19 +12285,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H83" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K83" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L83" t="n">
         <v>5</v>
@@ -12286,7 +12306,7 @@
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
@@ -12322,22 +12342,22 @@
         <v>6</v>
       </c>
       <c r="Z83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC83" t="n">
         <v>15</v>
       </c>
-      <c r="AC83" t="n">
-        <v>17</v>
-      </c>
       <c r="AD83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF83" t="n">
         <v>7</v>
@@ -12349,30 +12369,38 @@
         <v>67</v>
       </c>
       <c r="AI83" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK83" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM83" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN83" t="n">
         <v>41</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>34</v>
       </c>
       <c r="AO83" t="n">
         <v>41</v>
       </c>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
+      <c r="AP83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12510,10 +12538,18 @@
       <c r="AO84" t="n">
         <v>41</v>
       </c>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
+      <c r="AP84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12651,10 +12687,18 @@
       <c r="AO85" t="n">
         <v>34</v>
       </c>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
+      <c r="AP85" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.46</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12688,10 +12732,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
         <v>2.75</v>
@@ -12703,7 +12747,7 @@
         <v>2.05</v>
       </c>
       <c r="L86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M86" t="n">
         <v>1.07</v>
@@ -12775,13 +12819,13 @@
         <v>351</v>
       </c>
       <c r="AJ86" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK86" t="n">
         <v>13</v>
       </c>
       <c r="AL86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM86" t="n">
         <v>29</v>
@@ -12792,10 +12836,18 @@
       <c r="AO86" t="n">
         <v>34</v>
       </c>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
+      <c r="AP86" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12933,10 +12985,18 @@
       <c r="AO87" t="n">
         <v>51</v>
       </c>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
+      <c r="AP87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13111,7 +13171,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>3.3</v>
@@ -13123,7 +13183,7 @@
         <v>3.1</v>
       </c>
       <c r="K89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L89" t="n">
         <v>3.4</v>
@@ -13135,16 +13195,16 @@
         <v>11</v>
       </c>
       <c r="O89" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P89" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R89" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1.9</v>
       </c>
       <c r="S89" t="n">
         <v>3.25</v>
@@ -13180,7 +13240,7 @@
         <v>19</v>
       </c>
       <c r="AD89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE89" t="n">
         <v>11</v>
@@ -13675,13 +13735,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I93" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J93" t="n">
         <v>2.1</v>
@@ -13690,7 +13750,7 @@
         <v>2.25</v>
       </c>
       <c r="L93" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M93" t="n">
         <v>1.06</v>
@@ -13729,7 +13789,7 @@
         <v>1.75</v>
       </c>
       <c r="Y93" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z93" t="n">
         <v>7</v>
@@ -13753,13 +13813,13 @@
         <v>8</v>
       </c>
       <c r="AG93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH93" t="n">
         <v>67</v>
       </c>
       <c r="AI93" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ93" t="n">
         <v>13</v>
@@ -14529,22 +14589,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>3.2</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
         <v>2.1</v>
       </c>
       <c r="L99" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M99" t="n">
         <v>1.06</v>
@@ -14592,13 +14652,13 @@
         <v>9.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC99" t="n">
         <v>19</v>
       </c>
       <c r="AD99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE99" t="n">
         <v>10</v>
@@ -14616,7 +14676,7 @@
         <v>201</v>
       </c>
       <c r="AJ99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK99" t="n">
         <v>15</v>
@@ -14625,7 +14685,7 @@
         <v>11</v>
       </c>
       <c r="AM99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN99" t="n">
         <v>23</v>
@@ -14679,13 +14739,13 @@
         <v>6.5</v>
       </c>
       <c r="J100" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>2.3</v>
       </c>
       <c r="L100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M100" t="n">
         <v>1.05</v>
@@ -14694,16 +14754,16 @@
         <v>11</v>
       </c>
       <c r="O100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P100" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R100" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S100" t="n">
         <v>3.25</v>
@@ -14733,7 +14793,7 @@
         <v>8.5</v>
       </c>
       <c r="AB100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC100" t="n">
         <v>13</v>
@@ -14766,7 +14826,7 @@
         <v>21</v>
       </c>
       <c r="AM100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN100" t="n">
         <v>51</v>
@@ -15657,13 +15717,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H107" t="n">
         <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J107" t="n">
         <v>2.3</v>
@@ -15672,7 +15732,7 @@
         <v>2.3</v>
       </c>
       <c r="L107" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M107" t="n">
         <v>1.04</v>
@@ -15720,7 +15780,7 @@
         <v>8.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC107" t="n">
         <v>13</v>
@@ -15732,7 +15792,7 @@
         <v>13</v>
       </c>
       <c r="AF107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG107" t="n">
         <v>13</v>
@@ -15747,7 +15807,7 @@
         <v>15</v>
       </c>
       <c r="AK107" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL107" t="n">
         <v>15</v>
@@ -15759,7 +15819,7 @@
         <v>34</v>
       </c>
       <c r="AO107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
@@ -16403,7 +16463,7 @@
         <v>2.05</v>
       </c>
       <c r="R112" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S112" t="n">
         <v>3.5</v>
@@ -16436,7 +16496,7 @@
         <v>23</v>
       </c>
       <c r="AC112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD112" t="n">
         <v>29</v>
@@ -16457,7 +16517,7 @@
         <v>251</v>
       </c>
       <c r="AJ112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK112" t="n">
         <v>15</v>
@@ -16773,10 +16833,10 @@
         <v>41</v>
       </c>
       <c r="AP114" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AR114" t="n">
         <v>1.98</v>
@@ -17265,7 +17325,7 @@
         <v>1.04</v>
       </c>
       <c r="N118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O118" t="n">
         <v>1.22</v>
@@ -17385,13 +17445,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H119" t="n">
         <v>3.5</v>
       </c>
       <c r="I119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J119" t="n">
         <v>2.6</v>
@@ -17448,7 +17508,7 @@
         <v>9</v>
       </c>
       <c r="AB119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC119" t="n">
         <v>15</v>
@@ -17478,7 +17538,7 @@
         <v>21</v>
       </c>
       <c r="AL119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM119" t="n">
         <v>41</v>
@@ -17526,22 +17586,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I120" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J120" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K120" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L120" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -17552,7 +17612,7 @@
         <v>3.05</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R120" t="n">
         <v>1.78</v>
@@ -17567,7 +17627,7 @@
         <v>1.4</v>
       </c>
       <c r="V120" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W120" t="n">
         <v>1.72</v>
@@ -17576,10 +17636,10 @@
         <v>1.88</v>
       </c>
       <c r="Y120" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z120" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA120" t="n">
         <v>12.5</v>
@@ -17588,13 +17648,13 @@
         <v>55</v>
       </c>
       <c r="AC120" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD120" t="n">
         <v>40</v>
       </c>
       <c r="AE120" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF120" t="n">
         <v>6.7</v>
@@ -17612,16 +17672,16 @@
         <v>7.1</v>
       </c>
       <c r="AK120" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AL120" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM120" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN120" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>15</v>
       </c>
       <c r="AO120" t="n">
         <v>27</v>
@@ -19252,10 +19312,10 @@
         <v>3.5</v>
       </c>
       <c r="Q132" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R132" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S132" t="n">
         <v>3.4</v>
@@ -19270,13 +19330,13 @@
         <v>2.75</v>
       </c>
       <c r="W132" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X132" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z132" t="n">
         <v>15</v>
@@ -19291,7 +19351,7 @@
         <v>23</v>
       </c>
       <c r="AD132" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE132" t="n">
         <v>10</v>
@@ -19384,7 +19444,7 @@
         <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O133" t="n">
         <v>1.4</v>
@@ -19504,10 +19564,10 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H134" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3.2</v>
@@ -19525,19 +19585,19 @@
         <v>1.07</v>
       </c>
       <c r="N134" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O134" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P134" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R134" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S134" t="n">
         <v>3.75</v>
@@ -19570,7 +19630,7 @@
         <v>23</v>
       </c>
       <c r="AC134" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD134" t="n">
         <v>29</v>
@@ -19582,7 +19642,7 @@
         <v>6</v>
       </c>
       <c r="AG134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH134" t="n">
         <v>51</v>
@@ -19591,7 +19651,7 @@
         <v>251</v>
       </c>
       <c r="AJ134" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK134" t="n">
         <v>15</v>
@@ -19645,13 +19705,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>3.1</v>
       </c>
       <c r="I135" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J135" t="n">
         <v>3.1</v>
@@ -19702,10 +19762,10 @@
         <v>6.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB135" t="n">
         <v>21</v>
@@ -19741,7 +19801,7 @@
         <v>13</v>
       </c>
       <c r="AM135" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN135" t="n">
         <v>34</v>
@@ -19808,10 +19868,10 @@
         <v>4</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O136" t="n">
         <v>1.25</v>
@@ -19820,10 +19880,10 @@
         <v>3.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R136" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S136" t="n">
         <v>3</v>
@@ -19838,10 +19898,10 @@
         <v>3</v>
       </c>
       <c r="W136" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X136" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y136" t="n">
         <v>8.5</v>
@@ -19862,7 +19922,7 @@
         <v>23</v>
       </c>
       <c r="AE136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF136" t="n">
         <v>6.5</v>
@@ -19874,7 +19934,7 @@
         <v>41</v>
       </c>
       <c r="AI136" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ136" t="n">
         <v>12</v>
@@ -20238,7 +20298,7 @@
         <v>1.08</v>
       </c>
       <c r="N139" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O139" t="n">
         <v>1.4</v>
@@ -20295,7 +20355,7 @@
         <v>6</v>
       </c>
       <c r="AG139" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH139" t="n">
         <v>51</v>
@@ -20388,16 +20448,16 @@
         <v>3.4</v>
       </c>
       <c r="Q140" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R140" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S140" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T140" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U140" t="n">
         <v>1.4</v>
@@ -20805,22 +20865,22 @@
         <v>13</v>
       </c>
       <c r="O143" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P143" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R143" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S143" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T143" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U143" t="n">
         <v>1.33</v>
@@ -20922,13 +20982,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I144" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J144" t="n">
         <v>4</v>
@@ -20952,10 +21012,10 @@
         <v>4.5</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R144" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S144" t="n">
         <v>2.5</v>
@@ -20982,7 +21042,7 @@
         <v>21</v>
       </c>
       <c r="AA144" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB144" t="n">
         <v>41</v>
@@ -21021,16 +21081,16 @@
         <v>17</v>
       </c>
       <c r="AN144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO144" t="n">
         <v>21</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR144" t="inlineStr"/>
       <c r="AS144" t="inlineStr"/>
@@ -21226,10 +21286,10 @@
         <v>6</v>
       </c>
       <c r="M146" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N146" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O146" t="n">
         <v>1.2</v>
@@ -21379,10 +21439,10 @@
         <v>3.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R147" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S147" t="n">
         <v>3.25</v>
@@ -21751,41 +21811,111 @@
           <t>COD Meknes</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
-      <c r="AA150" t="inlineStr"/>
-      <c r="AB150" t="inlineStr"/>
-      <c r="AC150" t="inlineStr"/>
-      <c r="AD150" t="inlineStr"/>
-      <c r="AE150" t="inlineStr"/>
-      <c r="AF150" t="inlineStr"/>
-      <c r="AG150" t="inlineStr"/>
-      <c r="AH150" t="inlineStr"/>
-      <c r="AI150" t="inlineStr"/>
-      <c r="AJ150" t="inlineStr"/>
-      <c r="AK150" t="inlineStr"/>
-      <c r="AL150" t="inlineStr"/>
-      <c r="AM150" t="inlineStr"/>
-      <c r="AN150" t="inlineStr"/>
-      <c r="AO150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>9</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>11</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P150" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>67</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>67</v>
+      </c>
       <c r="AP150" t="inlineStr"/>
       <c r="AQ150" t="inlineStr"/>
       <c r="AR150" t="inlineStr"/>
@@ -21822,45 +21952,119 @@
           <t>Difaa El Jadidi</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr"/>
-      <c r="AB151" t="inlineStr"/>
-      <c r="AC151" t="inlineStr"/>
-      <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr"/>
-      <c r="AF151" t="inlineStr"/>
-      <c r="AG151" t="inlineStr"/>
-      <c r="AH151" t="inlineStr"/>
-      <c r="AI151" t="inlineStr"/>
-      <c r="AJ151" t="inlineStr"/>
-      <c r="AK151" t="inlineStr"/>
-      <c r="AL151" t="inlineStr"/>
-      <c r="AM151" t="inlineStr"/>
-      <c r="AN151" t="inlineStr"/>
-      <c r="AO151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>41</v>
+      </c>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="inlineStr"/>
-      <c r="AS151" t="inlineStr"/>
+      <c r="AR151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21893,45 +22097,119 @@
           <t>FUS Rabat</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr"/>
-      <c r="AB152" t="inlineStr"/>
-      <c r="AC152" t="inlineStr"/>
-      <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr"/>
-      <c r="AF152" t="inlineStr"/>
-      <c r="AG152" t="inlineStr"/>
-      <c r="AH152" t="inlineStr"/>
-      <c r="AI152" t="inlineStr"/>
-      <c r="AJ152" t="inlineStr"/>
-      <c r="AK152" t="inlineStr"/>
-      <c r="AL152" t="inlineStr"/>
-      <c r="AM152" t="inlineStr"/>
-      <c r="AN152" t="inlineStr"/>
-      <c r="AO152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>7</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P152" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>41</v>
+      </c>
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
-      <c r="AS152" t="inlineStr"/>
+      <c r="AR152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -23445,10 +23723,10 @@
         <v>4</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R163" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S163" t="n">
         <v>2.75</v>
@@ -25111,22 +25389,22 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="H175" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I175" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J175" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K175" t="n">
         <v>2.42</v>
       </c>
       <c r="L175" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="M175" t="n">
         <v>1.03</v>
@@ -25135,28 +25413,28 @@
         <v>9.5</v>
       </c>
       <c r="O175" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P175" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R175" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S175" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T175" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U175" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V175" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="W175" t="n">
         <v>1.5</v>
@@ -25168,16 +25446,16 @@
         <v>11.25</v>
       </c>
       <c r="Z175" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA175" t="n">
         <v>8.75</v>
       </c>
       <c r="AB175" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC175" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD175" t="n">
         <v>18.5</v>
@@ -25186,7 +25464,7 @@
         <v>9.5</v>
       </c>
       <c r="AF175" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG175" t="n">
         <v>12</v>
@@ -25198,19 +25476,19 @@
         <v>200</v>
       </c>
       <c r="AJ175" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL175" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM175" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN175" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO175" t="n">
         <v>25</v>
@@ -25816,13 +26094,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H180" t="n">
         <v>4.33</v>
       </c>
       <c r="I180" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J180" t="n">
         <v>6.5</v>
@@ -25831,7 +26109,7 @@
         <v>2.5</v>
       </c>
       <c r="L180" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M180" t="n">
         <v>1.04</v>
@@ -25846,10 +26124,10 @@
         <v>4.5</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R180" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S180" t="n">
         <v>2.63</v>
@@ -25870,7 +26148,7 @@
         <v>1.95</v>
       </c>
       <c r="Y180" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z180" t="n">
         <v>41</v>
@@ -25900,7 +26178,7 @@
         <v>51</v>
       </c>
       <c r="AI180" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ180" t="n">
         <v>8</v>
@@ -25970,7 +26248,7 @@
         <v>3.6</v>
       </c>
       <c r="J181" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K181" t="n">
         <v>2.1</v>
@@ -26132,10 +26410,10 @@
         <v>3.75</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R182" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S182" t="n">
         <v>3.2</v>
@@ -26252,7 +26530,7 @@
         <v>15</v>
       </c>
       <c r="J183" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K183" t="n">
         <v>3</v>
@@ -26264,7 +26542,7 @@
         <v>1.02</v>
       </c>
       <c r="N183" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O183" t="n">
         <v>1.13</v>
@@ -26273,10 +26551,10 @@
         <v>6</v>
       </c>
       <c r="Q183" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R183" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S183" t="n">
         <v>2</v>
@@ -26970,10 +27248,10 @@
         <v>4.75</v>
       </c>
       <c r="M188" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N188" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O188" t="n">
         <v>1.22</v>
@@ -26982,10 +27260,10 @@
         <v>4</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R188" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S188" t="n">
         <v>2.75</v>
@@ -27234,52 +27512,52 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H190" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I190" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K190" t="n">
         <v>2.12</v>
       </c>
-      <c r="K190" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L190" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M190" t="n">
         <v>1.06</v>
       </c>
       <c r="N190" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O190" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P190" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q190" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R190" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S190" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="T190" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U190" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V190" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="W190" t="n">
         <v>1.78</v>
@@ -27288,28 +27566,28 @@
         <v>1.93</v>
       </c>
       <c r="Y190" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z190" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA190" t="n">
         <v>7.7</v>
       </c>
       <c r="AB190" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC190" t="n">
         <v>12</v>
       </c>
       <c r="AD190" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE190" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF190" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG190" t="n">
         <v>15.5</v>
@@ -27321,13 +27599,13 @@
         <v>500</v>
       </c>
       <c r="AJ190" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK190" t="n">
         <v>40</v>
       </c>
       <c r="AL190" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM190" t="n">
         <v>150</v>
@@ -27515,41 +27793,111 @@
           <t>Young Lions</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
-      <c r="AA192" t="inlineStr"/>
-      <c r="AB192" t="inlineStr"/>
-      <c r="AC192" t="inlineStr"/>
-      <c r="AD192" t="inlineStr"/>
-      <c r="AE192" t="inlineStr"/>
-      <c r="AF192" t="inlineStr"/>
-      <c r="AG192" t="inlineStr"/>
-      <c r="AH192" t="inlineStr"/>
-      <c r="AI192" t="inlineStr"/>
-      <c r="AJ192" t="inlineStr"/>
-      <c r="AK192" t="inlineStr"/>
-      <c r="AL192" t="inlineStr"/>
-      <c r="AM192" t="inlineStr"/>
-      <c r="AN192" t="inlineStr"/>
-      <c r="AO192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I192" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L192" t="n">
+        <v>4</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N192" t="n">
+        <v>34</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P192" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R192" t="n">
+        <v>4</v>
+      </c>
+      <c r="S192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V192" t="n">
+        <v>5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>23</v>
+      </c>
       <c r="AP192" t="inlineStr"/>
       <c r="AQ192" t="inlineStr"/>
       <c r="AR192" t="inlineStr"/>
@@ -28010,16 +28358,16 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H196" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I196" t="n">
         <v>2.7</v>
       </c>
       <c r="J196" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="K196" t="n">
         <v>2.25</v>
@@ -28037,7 +28385,7 @@
         <v>1.21</v>
       </c>
       <c r="P196" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q196" t="n">
         <v>1.62</v>
@@ -28046,13 +28394,13 @@
         <v>2.2</v>
       </c>
       <c r="S196" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="T196" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U196" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="V196" t="n">
         <v>3.1</v>
@@ -28061,19 +28409,19 @@
         <v>1.55</v>
       </c>
       <c r="X196" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Y196" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z196" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA196" t="n">
         <v>9.75</v>
       </c>
       <c r="AB196" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC196" t="n">
         <v>18</v>
@@ -28085,22 +28433,22 @@
         <v>9.25</v>
       </c>
       <c r="AF196" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AG196" t="n">
         <v>13</v>
       </c>
       <c r="AH196" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI196" t="n">
         <v>300</v>
       </c>
       <c r="AJ196" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK196" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL196" t="n">
         <v>10.75</v>
@@ -28154,52 +28502,52 @@
         <v>2.25</v>
       </c>
       <c r="H197" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I197" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J197" t="n">
         <v>2.87</v>
       </c>
       <c r="K197" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L197" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M197" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N197" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O197" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P197" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R197" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S197" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T197" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U197" t="n">
         <v>1.44</v>
       </c>
       <c r="V197" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="W197" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X197" t="n">
         <v>2.02</v>
@@ -28208,13 +28556,13 @@
         <v>8</v>
       </c>
       <c r="Z197" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA197" t="n">
         <v>8.75</v>
       </c>
       <c r="AB197" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC197" t="n">
         <v>17.5</v>
@@ -28223,10 +28571,10 @@
         <v>26</v>
       </c>
       <c r="AE197" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AF197" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG197" t="n">
         <v>13</v>
@@ -28238,7 +28586,7 @@
         <v>450</v>
       </c>
       <c r="AJ197" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK197" t="n">
         <v>16</v>
@@ -28250,10 +28598,10 @@
         <v>40</v>
       </c>
       <c r="AN197" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO197" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP197" t="inlineStr"/>
       <c r="AQ197" t="inlineStr"/>
@@ -28292,19 +28640,19 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H198" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I198" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J198" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="K198" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L198" t="n">
         <v>5.2</v>
@@ -28313,82 +28661,82 @@
         <v>1.05</v>
       </c>
       <c r="N198" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O198" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P198" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2</v>
+      </c>
+      <c r="S198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U198" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V198" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W198" t="n">
         <v>1.8</v>
       </c>
-      <c r="R198" t="n">
+      <c r="X198" t="n">
         <v>1.91</v>
-      </c>
-      <c r="S198" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="T198" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U198" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V198" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W198" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X198" t="n">
-        <v>1.9</v>
       </c>
       <c r="Y198" t="n">
         <v>7.1</v>
       </c>
       <c r="Z198" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA198" t="n">
         <v>8</v>
       </c>
       <c r="AB198" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC198" t="n">
         <v>12</v>
-      </c>
-      <c r="AC198" t="n">
-        <v>12.5</v>
       </c>
       <c r="AD198" t="n">
         <v>25</v>
       </c>
       <c r="AE198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF198" t="n">
         <v>7.7</v>
-      </c>
-      <c r="AF198" t="n">
-        <v>7.3</v>
       </c>
       <c r="AG198" t="n">
         <v>16</v>
       </c>
       <c r="AH198" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI198" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ198" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK198" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL198" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM198" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN198" t="n">
         <v>50</v>
@@ -28714,41 +29062,107 @@
           <t>Anyang</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I201" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L201" t="n">
+        <v>4.9</v>
+      </c>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="inlineStr"/>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
-      <c r="W201" t="inlineStr"/>
-      <c r="X201" t="inlineStr"/>
-      <c r="Y201" t="inlineStr"/>
-      <c r="Z201" t="inlineStr"/>
-      <c r="AA201" t="inlineStr"/>
-      <c r="AB201" t="inlineStr"/>
-      <c r="AC201" t="inlineStr"/>
-      <c r="AD201" t="inlineStr"/>
-      <c r="AE201" t="inlineStr"/>
-      <c r="AF201" t="inlineStr"/>
-      <c r="AG201" t="inlineStr"/>
-      <c r="AH201" t="inlineStr"/>
-      <c r="AI201" t="inlineStr"/>
-      <c r="AJ201" t="inlineStr"/>
-      <c r="AK201" t="inlineStr"/>
-      <c r="AL201" t="inlineStr"/>
-      <c r="AM201" t="inlineStr"/>
-      <c r="AN201" t="inlineStr"/>
-      <c r="AO201" t="inlineStr"/>
+      <c r="O201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X201" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>50</v>
+      </c>
       <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr"/>
       <c r="AR201" t="inlineStr"/>
@@ -29358,13 +29772,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>3</v>
       </c>
       <c r="I206" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J206" t="n">
         <v>3.75</v>
@@ -29373,7 +29787,7 @@
         <v>2</v>
       </c>
       <c r="L206" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M206" t="n">
         <v>1.08</v>
@@ -29412,7 +29826,7 @@
         <v>1.83</v>
       </c>
       <c r="Y206" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z206" t="n">
         <v>15</v>
@@ -29430,7 +29844,7 @@
         <v>41</v>
       </c>
       <c r="AE206" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF206" t="n">
         <v>6</v>
@@ -29517,10 +29931,10 @@
         <v>3.6</v>
       </c>
       <c r="M207" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N207" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O207" t="n">
         <v>1.57</v>
@@ -29947,7 +30361,7 @@
         <v>1.07</v>
       </c>
       <c r="N210" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O210" t="n">
         <v>1.36</v>
@@ -29956,10 +30370,10 @@
         <v>3</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R210" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S210" t="n">
         <v>3.75</v>
@@ -31203,22 +31617,22 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H219" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I219" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J219" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K219" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L219" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M219" t="n">
         <v>1.03</v>
@@ -31260,10 +31674,10 @@
         <v>11</v>
       </c>
       <c r="Z219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA219" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB219" t="n">
         <v>23</v>
@@ -31290,7 +31704,7 @@
         <v>101</v>
       </c>
       <c r="AJ219" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK219" t="n">
         <v>17</v>
@@ -31302,7 +31716,7 @@
         <v>29</v>
       </c>
       <c r="AN219" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO219" t="n">
         <v>23</v>
@@ -31348,16 +31762,16 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H220" t="n">
         <v>3.4</v>
       </c>
       <c r="I220" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J220" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K220" t="n">
         <v>2.2</v>
@@ -31411,16 +31825,16 @@
         <v>9</v>
       </c>
       <c r="AB220" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC220" t="n">
         <v>17</v>
-      </c>
-      <c r="AC220" t="n">
-        <v>15</v>
       </c>
       <c r="AD220" t="n">
         <v>26</v>
       </c>
       <c r="AE220" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF220" t="n">
         <v>6.5</v>
@@ -31435,13 +31849,13 @@
         <v>201</v>
       </c>
       <c r="AJ220" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK220" t="n">
         <v>19</v>
       </c>
       <c r="AL220" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM220" t="n">
         <v>41</v>
@@ -31831,7 +32245,7 @@
         <v>7.5</v>
       </c>
       <c r="AA223" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB223" t="n">
         <v>12</v>
@@ -32472,48 +32886,48 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H228" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I228" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="J228" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K228" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L228" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P228" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R228" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S228" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T228" t="n">
         <v>1.19</v>
       </c>
       <c r="U228" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V228" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W228" t="n">
         <v>2.07</v>
@@ -32522,31 +32936,31 @@
         <v>1.6</v>
       </c>
       <c r="Y228" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z228" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA228" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB228" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC228" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD228" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE228" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF228" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AG228" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH228" t="n">
         <v>120</v>
@@ -32555,19 +32969,19 @@
         <v>900</v>
       </c>
       <c r="AJ228" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AK228" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AL228" t="n">
         <v>8.75</v>
       </c>
       <c r="AM228" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AN228" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO228" t="n">
         <v>40</v>
@@ -32609,22 +33023,22 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H229" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I229" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="J229" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K229" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L229" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M229" t="n">
         <v>1.03</v>
@@ -32636,7 +33050,7 @@
         <v>1.18</v>
       </c>
       <c r="P229" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="Q229" t="n">
         <v>1.55</v>
@@ -32645,49 +33059,49 @@
         <v>2.3</v>
       </c>
       <c r="S229" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W229" t="n">
         <v>1.55</v>
       </c>
-      <c r="U229" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V229" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W229" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X229" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y229" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z229" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB229" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC229" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD229" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE229" t="n">
         <v>9</v>
       </c>
       <c r="AF229" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG229" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH229" t="n">
         <v>45</v>
@@ -32696,19 +33110,19 @@
         <v>250</v>
       </c>
       <c r="AJ229" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK229" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AL229" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM229" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AN229" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO229" t="n">
         <v>20</v>
@@ -32750,22 +33164,22 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="H230" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I230" t="n">
-        <v>2.72</v>
+        <v>2.95</v>
       </c>
       <c r="J230" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="K230" t="n">
         <v>2.37</v>
       </c>
       <c r="L230" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="M230" t="n">
         <v>1.03</v>
@@ -32792,40 +33206,40 @@
         <v>1.55</v>
       </c>
       <c r="U230" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V230" t="n">
         <v>3.3</v>
       </c>
       <c r="W230" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X230" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="Y230" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z230" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA230" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB230" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC230" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD230" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE230" t="n">
         <v>9</v>
       </c>
       <c r="AF230" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AG230" t="n">
         <v>12</v>
@@ -32834,25 +33248,25 @@
         <v>40</v>
       </c>
       <c r="AI230" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ230" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK230" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL230" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM230" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN230" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AO230" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP230" t="inlineStr"/>
       <c r="AQ230" t="inlineStr"/>
@@ -33065,7 +33479,7 @@
         <v>2.5</v>
       </c>
       <c r="R232" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S232" t="n">
         <v>5</v>
@@ -33183,7 +33597,7 @@
         <v>4.2</v>
       </c>
       <c r="I233" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J233" t="n">
         <v>7</v>
@@ -33318,13 +33732,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="H234" t="n">
         <v>3.1</v>
       </c>
       <c r="I234" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J234" t="n">
         <v>2.75</v>
@@ -33336,22 +33750,22 @@
         <v>5</v>
       </c>
       <c r="M234" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N234" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O234" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P234" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q234" t="n">
         <v>2.5</v>
       </c>
       <c r="R234" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S234" t="n">
         <v>5</v>
@@ -33381,7 +33795,7 @@
         <v>9.5</v>
       </c>
       <c r="AB234" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC234" t="n">
         <v>19</v>
@@ -33399,7 +33813,7 @@
         <v>19</v>
       </c>
       <c r="AH234" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI234" t="n">
         <v>101</v>
@@ -33463,16 +33877,16 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H235" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I235" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J235" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K235" t="n">
         <v>2.38</v>
@@ -33487,22 +33901,22 @@
         <v>15</v>
       </c>
       <c r="O235" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P235" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q235" t="n">
         <v>1.62</v>
       </c>
       <c r="R235" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S235" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T235" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U235" t="n">
         <v>1.3</v>
@@ -33517,7 +33931,7 @@
         <v>2.2</v>
       </c>
       <c r="Y235" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z235" t="n">
         <v>10</v>
@@ -33608,22 +34022,22 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H236" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I236" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J236" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K236" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L236" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M236" t="n">
         <v>1.03</v>
@@ -33632,22 +34046,22 @@
         <v>15</v>
       </c>
       <c r="O236" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P236" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q236" t="n">
         <v>1.57</v>
       </c>
       <c r="R236" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S236" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T236" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U236" t="n">
         <v>1.29</v>
@@ -33683,7 +34097,7 @@
         <v>15</v>
       </c>
       <c r="AF236" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG236" t="n">
         <v>15</v>
@@ -33698,7 +34112,7 @@
         <v>19</v>
       </c>
       <c r="AK236" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL236" t="n">
         <v>17</v>
@@ -33713,10 +34127,10 @@
         <v>41</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR236" t="inlineStr"/>
       <c r="AS236" t="inlineStr"/>
@@ -33753,7 +34167,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H237" t="n">
         <v>4.75</v>
@@ -33783,7 +34197,7 @@
         <v>5</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R237" t="n">
         <v>2.35</v>
@@ -34245,7 +34659,7 @@
         <v>10</v>
       </c>
       <c r="Z240" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA240" t="n">
         <v>8.5</v>
@@ -34266,13 +34680,13 @@
         <v>8</v>
       </c>
       <c r="AG240" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH240" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI240" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ240" t="n">
         <v>17</v>
@@ -34342,7 +34756,7 @@
         <v>4.5</v>
       </c>
       <c r="J241" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K241" t="n">
         <v>2.4</v>
@@ -34390,7 +34804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z241" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA241" t="n">
         <v>8.5</v>
@@ -34429,10 +34843,10 @@
         <v>15</v>
       </c>
       <c r="AM241" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN241" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO241" t="n">
         <v>34</v>
@@ -34484,13 +34898,13 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J242" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K242" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L242" t="n">
         <v>4.33</v>
@@ -34499,43 +34913,43 @@
         <v>1.03</v>
       </c>
       <c r="N242" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O242" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P242" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R242" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S242" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T242" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U242" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V242" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W242" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X242" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y242" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z242" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA242" t="n">
         <v>8.5</v>
@@ -34547,31 +34961,31 @@
         <v>13</v>
       </c>
       <c r="AD242" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE242" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF242" t="n">
         <v>7.5</v>
       </c>
       <c r="AG242" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH242" t="n">
         <v>41</v>
       </c>
       <c r="AI242" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ242" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK242" t="n">
         <v>23</v>
       </c>
       <c r="AL242" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM242" t="n">
         <v>41</v>
@@ -34580,13 +34994,13 @@
         <v>29</v>
       </c>
       <c r="AO242" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AR242" t="inlineStr"/>
       <c r="AS242" t="inlineStr"/>
@@ -34641,28 +35055,28 @@
         <v>4.33</v>
       </c>
       <c r="M243" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N243" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O243" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P243" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R243" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S243" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T243" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U243" t="n">
         <v>1.36</v>
@@ -34768,40 +35182,40 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H244" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I244" t="n">
         <v>3.9</v>
       </c>
-      <c r="I244" t="n">
+      <c r="J244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L244" t="n">
         <v>4</v>
       </c>
-      <c r="J244" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K244" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L244" t="n">
+      <c r="M244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N244" t="n">
+        <v>13</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P244" t="n">
         <v>4.33</v>
       </c>
-      <c r="M244" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N244" t="n">
-        <v>15</v>
-      </c>
-      <c r="O244" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P244" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q244" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R244" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S244" t="n">
         <v>2.63</v>
@@ -34810,10 +35224,10 @@
         <v>1.44</v>
       </c>
       <c r="U244" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V244" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W244" t="n">
         <v>1.62</v>
@@ -34822,7 +35236,7 @@
         <v>2.2</v>
       </c>
       <c r="Y244" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z244" t="n">
         <v>10</v>
@@ -34831,7 +35245,7 @@
         <v>8.5</v>
       </c>
       <c r="AB244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC244" t="n">
         <v>13</v>
@@ -34840,7 +35254,7 @@
         <v>21</v>
       </c>
       <c r="AE244" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF244" t="n">
         <v>7.5</v>
@@ -34855,10 +35269,10 @@
         <v>151</v>
       </c>
       <c r="AJ244" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK244" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL244" t="n">
         <v>13</v>
@@ -34928,7 +35342,7 @@
         <v>2.5</v>
       </c>
       <c r="L245" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M245" t="n">
         <v>1.02</v>
@@ -34937,16 +35351,16 @@
         <v>19</v>
       </c>
       <c r="O245" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P245" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q245" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R245" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S245" t="n">
         <v>2.1</v>
@@ -34961,16 +35375,16 @@
         <v>3.75</v>
       </c>
       <c r="W245" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X245" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y245" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z245" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA245" t="n">
         <v>9</v>
@@ -34982,10 +35396,10 @@
         <v>13</v>
       </c>
       <c r="AD245" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE245" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF245" t="n">
         <v>8</v>
@@ -34997,16 +35411,16 @@
         <v>29</v>
       </c>
       <c r="AI245" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ245" t="n">
         <v>17</v>
       </c>
       <c r="AK245" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL245" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM245" t="n">
         <v>41</v>
@@ -35054,30 +35468,30 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H246" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I246" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J246" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K246" t="n">
         <v>2</v>
       </c>
       <c r="L246" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P246" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q246" t="n">
         <v>2.15</v>
@@ -35086,7 +35500,7 @@
         <v>1.55</v>
       </c>
       <c r="S246" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T246" t="n">
         <v>1.2</v>
@@ -35098,25 +35512,25 @@
         <v>2.37</v>
       </c>
       <c r="W246" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X246" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y246" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z246" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AA246" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB246" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC246" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD246" t="n">
         <v>45</v>
@@ -35125,10 +35539,10 @@
         <v>7.6</v>
       </c>
       <c r="AF246" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG246" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH246" t="n">
         <v>90</v>
@@ -35137,22 +35551,22 @@
         <v>900</v>
       </c>
       <c r="AJ246" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AK246" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL246" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM246" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN246" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO246" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP246" t="inlineStr"/>
       <c r="AQ246" t="inlineStr"/>
@@ -35328,42 +35742,42 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H248" t="n">
         <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>4.35</v>
+        <v>4.8</v>
       </c>
       <c r="J248" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K248" t="n">
         <v>1.98</v>
       </c>
       <c r="L248" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P248" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R248" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S248" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T248" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="U248" t="n">
         <v>1.45</v>
@@ -35378,28 +35792,28 @@
         <v>1.7</v>
       </c>
       <c r="Y248" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z248" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA248" t="n">
         <v>8.25</v>
       </c>
-      <c r="AA248" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB248" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC248" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AC248" t="n">
-        <v>17.5</v>
       </c>
       <c r="AD248" t="n">
         <v>35</v>
       </c>
       <c r="AE248" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF248" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG248" t="n">
         <v>16.5</v>
@@ -35408,22 +35822,22 @@
         <v>100</v>
       </c>
       <c r="AI248" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ248" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AK248" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL248" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM248" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN248" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO248" t="n">
         <v>60</v>
@@ -35816,7 +36230,7 @@
         <v>14</v>
       </c>
       <c r="AD251" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE251" t="n">
         <v>9.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.2</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -734,16 +734,16 @@
         <v>1.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
@@ -755,37 +755,37 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>8.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
         <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1014,10 +1014,10 @@
         <v>2.38</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
         <v>1.29</v>
@@ -1032,7 +1032,7 @@
         <v>2.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1053,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1065,7 +1065,7 @@
         <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
@@ -1083,10 +1083,10 @@
         <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1264,34 +1264,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.53</v>
@@ -1300,16 +1300,16 @@
         <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W6" t="n">
         <v>1.5</v>
@@ -1321,13 +1321,13 @@
         <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
         <v>29</v>
@@ -1348,7 +1348,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
@@ -1369,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
         <v>1.55</v>
@@ -1469,7 +1469,7 @@
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>67</v>
@@ -1481,13 +1481,13 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1514,10 +1514,10 @@
         <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1729,10 +1729,10 @@
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>2.63</v>
@@ -1991,7 +1991,7 @@
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
@@ -2090,10 +2090,10 @@
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2319,10 +2319,10 @@
         <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y13" t="n">
         <v>29</v>
@@ -2337,7 +2337,7 @@
         <v>126</v>
       </c>
       <c r="AC13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD13" t="n">
         <v>51</v>
@@ -2364,7 +2364,7 @@
         <v>7.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM13" t="n">
         <v>8.5</v>
@@ -2433,7 +2433,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y14" t="n">
         <v>6</v>
@@ -2601,7 +2601,7 @@
         <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
         <v>2.05</v>
@@ -2722,16 +2722,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="n">
         <v>2.5</v>
@@ -2746,7 +2746,7 @@
         <v>3.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
         <v>2.1</v>
@@ -2803,10 +2803,10 @@
         <v>41</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
         <v>1.91</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
@@ -2861,13 +2861,13 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -2882,16 +2882,16 @@
         <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
         <v>2</v>
@@ -2912,7 +2912,7 @@
         <v>34</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
@@ -2921,10 +2921,10 @@
         <v>6.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
         <v>201</v>
@@ -2945,7 +2945,7 @@
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -3002,13 +3002,13 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3023,19 +3023,19 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y18" t="n">
         <v>15</v>
@@ -3068,7 +3068,7 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ18" t="n">
         <v>7.5</v>
@@ -3080,7 +3080,7 @@
         <v>8.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
         <v>13</v>
@@ -3137,19 +3137,19 @@
         <v>4.33</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
         <v>3.2</v>
@@ -3164,7 +3164,7 @@
         <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3173,10 +3173,10 @@
         <v>2.63</v>
       </c>
       <c r="W19" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="X19" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -3197,22 +3197,22 @@
         <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
         <v>6.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="n">
         <v>9</v>
@@ -3272,7 +3272,7 @@
         <v>5.25</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
         <v>1.73</v>
@@ -3281,16 +3281,16 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
         <v>4.33</v>
@@ -3302,10 +3302,10 @@
         <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U20" t="n">
         <v>1.3</v>
@@ -3314,10 +3314,10 @@
         <v>3.4</v>
       </c>
       <c r="W20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y20" t="n">
         <v>7</v>
@@ -3359,7 +3359,7 @@
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>151</v>
@@ -3429,13 +3429,13 @@
         <v>9.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
         <v>6</v>
@@ -3450,7 +3450,7 @@
         <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
         <v>1.25</v>
@@ -3459,10 +3459,10 @@
         <v>3.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -3483,7 +3483,7 @@
         <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>12</v>
@@ -3495,10 +3495,10 @@
         <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
@@ -3570,16 +3570,16 @@
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
         <v>2.63</v>
@@ -3591,7 +3591,7 @@
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -3657,10 +3657,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="23">
@@ -3707,16 +3707,16 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -3770,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3998,7 +3998,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O25" t="n">
         <v>1.08</v>
@@ -4025,19 +4025,19 @@
         <v>4.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
         <v>51</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
         <v>101</v>
@@ -4124,7 +4124,7 @@
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
         <v>2.4</v>
@@ -4136,10 +4136,10 @@
         <v>6.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
@@ -4208,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>19</v>
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
         <v>7.5</v>
@@ -4285,10 +4285,10 @@
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -4297,16 +4297,16 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
         <v>1.5</v>
@@ -4422,10 +4422,10 @@
         <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
@@ -4470,13 +4470,13 @@
         <v>1.57</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
         <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB28" t="n">
         <v>67</v>
@@ -4714,16 +4714,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>2.75</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4855,22 +4855,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K31" t="n">
         <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4912,7 +4912,7 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
@@ -4930,7 +4930,7 @@
         <v>6.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
         <v>34</v>
@@ -4954,10 +4954,10 @@
         <v>81</v>
       </c>
       <c r="AN31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO31" t="n">
         <v>67</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>81</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W34" t="n">
         <v>2.38</v>
@@ -5729,7 +5729,7 @@
         <v>2.05</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L37" t="n">
         <v>6</v>
@@ -5738,7 +5738,7 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -5747,16 +5747,16 @@
         <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R37" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U37" t="n">
         <v>1.36</v>
@@ -5780,10 +5780,10 @@
         <v>8.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>26</v>
@@ -5792,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG37" t="n">
         <v>19</v>
@@ -5801,7 +5801,7 @@
         <v>51</v>
       </c>
       <c r="AI37" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ37" t="n">
         <v>15</v>
@@ -6003,16 +6003,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
@@ -6060,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
         <v>9</v>
@@ -6090,7 +6090,7 @@
         <v>151</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
         <v>17</v>
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -6159,13 +6159,13 @@
         <v>2.75</v>
       </c>
       <c r="L40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O40" t="n">
         <v>1.1</v>
@@ -6207,10 +6207,10 @@
         <v>15</v>
       </c>
       <c r="AB40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD40" t="n">
         <v>23</v>
@@ -6225,7 +6225,7 @@
         <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
         <v>67</v>
@@ -7134,19 +7134,19 @@
         <v>1.42</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="K47" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L47" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -7174,19 +7174,19 @@
         <v>1.72</v>
       </c>
       <c r="X47" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y47" t="n">
         <v>7.1</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA47" t="n">
         <v>7.6</v>
       </c>
       <c r="AB47" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
@@ -7568,10 +7568,10 @@
         <v>4.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
@@ -7992,7 +7992,7 @@
         <v>2.2</v>
       </c>
       <c r="L53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -8031,13 +8031,13 @@
         <v>2.1</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
         <v>26</v>
@@ -8139,7 +8139,7 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
         <v>1.44</v>
@@ -8275,7 +8275,7 @@
         <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>3.1</v>
@@ -8305,19 +8305,19 @@
         <v>1.22</v>
       </c>
       <c r="U55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z55" t="n">
         <v>15</v>
@@ -8326,13 +8326,13 @@
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC55" t="n">
         <v>26</v>
       </c>
       <c r="AD55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE55" t="n">
         <v>8.5</v>
@@ -8347,19 +8347,19 @@
         <v>51</v>
       </c>
       <c r="AI55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK55" t="n">
         <v>11</v>
       </c>
       <c r="AL55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN55" t="n">
         <v>21</v>
@@ -8456,10 +8456,10 @@
         <v>2.38</v>
       </c>
       <c r="W56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X56" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -8483,7 +8483,7 @@
         <v>7</v>
       </c>
       <c r="AF56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG56" t="n">
         <v>21</v>
@@ -8515,10 +8515,10 @@
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="57">
@@ -8553,13 +8553,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J57" t="n">
         <v>3.1</v>
@@ -8702,13 +8702,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I58" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.25</v>
       </c>
       <c r="J58" t="n">
         <v>2.75</v>
@@ -8863,7 +8863,7 @@
         <v>1.8</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L59" t="n">
         <v>7.5</v>
@@ -8893,25 +8893,25 @@
         <v>1.5</v>
       </c>
       <c r="U59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W59" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X59" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y59" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z59" t="n">
         <v>7</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB59" t="n">
         <v>9</v>
@@ -8923,7 +8923,7 @@
         <v>23</v>
       </c>
       <c r="AE59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF59" t="n">
         <v>9</v>
@@ -8935,7 +8935,7 @@
         <v>51</v>
       </c>
       <c r="AI59" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ59" t="n">
         <v>23</v>
@@ -8944,13 +8944,13 @@
         <v>41</v>
       </c>
       <c r="AL59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM59" t="n">
         <v>101</v>
       </c>
       <c r="AN59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO59" t="n">
         <v>51</v>
@@ -9137,22 +9137,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I61" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J61" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K61" t="n">
         <v>2.3</v>
       </c>
       <c r="L61" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M61" t="n">
         <v>1.04</v>
@@ -9185,10 +9185,10 @@
         <v>3.25</v>
       </c>
       <c r="W61" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y61" t="n">
         <v>15</v>
@@ -9197,13 +9197,13 @@
         <v>23</v>
       </c>
       <c r="AA61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD61" t="n">
         <v>34</v>
@@ -9224,10 +9224,10 @@
         <v>151</v>
       </c>
       <c r="AJ61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK61" t="n">
         <v>9</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>10</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
@@ -9300,10 +9300,10 @@
         <v>4.5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.53</v>
@@ -9580,16 +9580,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K64" t="n">
         <v>1.91</v>
@@ -9628,16 +9628,16 @@
         <v>2.25</v>
       </c>
       <c r="W64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA64" t="n">
         <v>10</v>
@@ -9729,7 +9729,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H65" t="n">
         <v>3.7</v>
@@ -9870,13 +9870,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J66" t="n">
         <v>3.75</v>
@@ -9888,10 +9888,10 @@
         <v>3.1</v>
       </c>
       <c r="M66" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O66" t="n">
         <v>1.36</v>
@@ -9900,16 +9900,16 @@
         <v>3</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R66" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U66" t="n">
         <v>1.44</v>
@@ -9936,7 +9936,7 @@
         <v>34</v>
       </c>
       <c r="AC66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD66" t="n">
         <v>41</v>
@@ -10155,43 +10155,43 @@
         <v>3.75</v>
       </c>
       <c r="H68" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J68" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K68" t="n">
         <v>2.15</v>
       </c>
       <c r="L68" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O68" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R68" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S68" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T68" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U68" t="n">
         <v>1.4</v>
@@ -10200,31 +10200,31 @@
         <v>2.82</v>
       </c>
       <c r="W68" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X68" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Y68" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB68" t="n">
         <v>60</v>
       </c>
       <c r="AC68" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF68" t="n">
         <v>7</v>
@@ -10236,25 +10236,25 @@
         <v>70</v>
       </c>
       <c r="AI68" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AL68" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM68" t="n">
         <v>18.5</v>
       </c>
       <c r="AN68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO68" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10311,28 +10311,28 @@
         <v>2.88</v>
       </c>
       <c r="M69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T69" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P69" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S69" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.29</v>
       </c>
       <c r="U69" t="n">
         <v>1.4</v>
@@ -10434,13 +10434,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>3.4</v>
       </c>
       <c r="I70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>4</v>
@@ -10464,10 +10464,10 @@
         <v>3.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S70" t="n">
         <v>3.25</v>
@@ -10512,10 +10512,10 @@
         <v>6.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI70" t="n">
         <v>201</v>
@@ -10899,7 +10899,7 @@
         <v>1.3</v>
       </c>
       <c r="U73" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V73" t="n">
         <v>2.75</v>
@@ -11040,7 +11040,7 @@
         <v>1.22</v>
       </c>
       <c r="U74" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V74" t="n">
         <v>2.5</v>
@@ -11139,13 +11139,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H75" t="n">
         <v>2.95</v>
       </c>
       <c r="I75" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="J75" t="n">
         <v>3.25</v>
@@ -11154,7 +11154,7 @@
         <v>1.91</v>
       </c>
       <c r="L75" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M75" t="n">
         <v>1.09</v>
@@ -11178,7 +11178,7 @@
         <v>3.75</v>
       </c>
       <c r="T75" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U75" t="n">
         <v>1.53</v>
@@ -11193,22 +11193,22 @@
         <v>1.9</v>
       </c>
       <c r="Y75" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="Z75" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA75" t="n">
         <v>10.25</v>
       </c>
       <c r="AB75" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC75" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE75" t="n">
         <v>6.5</v>
@@ -11226,22 +11226,22 @@
         <v>700</v>
       </c>
       <c r="AJ75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK75" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL75" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM75" t="n">
         <v>40</v>
       </c>
       <c r="AN75" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO75" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
@@ -11322,10 +11322,10 @@
         <v>1.25</v>
       </c>
       <c r="U76" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V76" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W76" t="n">
         <v>1.83</v>
@@ -11421,52 +11421,52 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J77" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K77" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L77" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M77" t="n">
         <v>1.12</v>
       </c>
       <c r="N77" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O77" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P77" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R77" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S77" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T77" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="U77" t="n">
         <v>1.55</v>
       </c>
       <c r="V77" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W77" t="n">
         <v>2.37</v>
@@ -11475,28 +11475,28 @@
         <v>1.52</v>
       </c>
       <c r="Y77" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="Z77" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD77" t="n">
         <v>45</v>
       </c>
       <c r="AE77" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AF77" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AG77" t="n">
         <v>24</v>
@@ -11508,7 +11508,7 @@
         <v>101</v>
       </c>
       <c r="AJ77" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK77" t="n">
         <v>32</v>
@@ -11562,16 +11562,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="H78" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I78" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J78" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="K78" t="n">
         <v>1.85</v>
@@ -11583,7 +11583,7 @@
         <v>1.13</v>
       </c>
       <c r="N78" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O78" t="n">
         <v>1.55</v>
@@ -11595,10 +11595,10 @@
         <v>2.57</v>
       </c>
       <c r="R78" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S78" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="T78" t="n">
         <v>1.16</v>
@@ -11616,7 +11616,7 @@
         <v>1.65</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z78" t="n">
         <v>21</v>
@@ -11631,35 +11631,35 @@
         <v>50</v>
       </c>
       <c r="AD78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE78" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AF78" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG78" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH78" t="n">
         <v>110</v>
       </c>
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AL78" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM78" t="n">
         <v>21</v>
       </c>
       <c r="AN78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO78" t="n">
         <v>40</v>
@@ -11701,22 +11701,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I79" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J79" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="K79" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L79" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
@@ -11728,19 +11728,19 @@
         <v>1.29</v>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S79" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T79" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U79" t="n">
         <v>1.44</v>
@@ -11749,61 +11749,61 @@
         <v>2.6</v>
       </c>
       <c r="W79" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X79" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y79" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z79" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC79" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE79" t="n">
         <v>7.1</v>
       </c>
       <c r="AF79" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AG79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH79" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI79" t="n">
         <v>500</v>
       </c>
       <c r="AJ79" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM79" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN79" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO79" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AP79" t="inlineStr"/>
       <c r="AQ79" t="inlineStr"/>
@@ -11842,13 +11842,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H80" t="n">
         <v>2.9</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J80" t="n">
         <v>3.4</v>
@@ -11872,10 +11872,10 @@
         <v>2.2</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R80" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S80" t="n">
         <v>6</v>
@@ -11917,10 +11917,10 @@
         <v>5.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH80" t="n">
         <v>101</v>
@@ -11932,13 +11932,13 @@
         <v>6.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL80" t="n">
         <v>13</v>
       </c>
       <c r="AM80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN80" t="n">
         <v>34</v>
@@ -11987,16 +11987,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J81" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
@@ -12035,10 +12035,10 @@
         <v>2.75</v>
       </c>
       <c r="W81" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X81" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -12059,7 +12059,7 @@
         <v>29</v>
       </c>
       <c r="AE81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF81" t="n">
         <v>6.5</v>
@@ -12077,7 +12077,7 @@
         <v>8.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL81" t="n">
         <v>10</v>
@@ -12300,13 +12300,13 @@
         <v>2.1</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O83" t="n">
         <v>1.36</v>
@@ -12357,7 +12357,7 @@
         <v>29</v>
       </c>
       <c r="AE83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF83" t="n">
         <v>7</v>
@@ -12732,13 +12732,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H86" t="n">
         <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J86" t="n">
         <v>3.25</v>
@@ -12747,7 +12747,7 @@
         <v>2.05</v>
       </c>
       <c r="L86" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86" t="n">
         <v>1.07</v>
@@ -12756,10 +12756,10 @@
         <v>9</v>
       </c>
       <c r="O86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q86" t="n">
         <v>2.2</v>
@@ -12804,13 +12804,13 @@
         <v>34</v>
       </c>
       <c r="AE86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF86" t="n">
         <v>6.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH86" t="n">
         <v>51</v>
@@ -12819,13 +12819,13 @@
         <v>351</v>
       </c>
       <c r="AJ86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK86" t="n">
         <v>13</v>
       </c>
       <c r="AL86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM86" t="n">
         <v>29</v>
@@ -12884,10 +12884,10 @@
         <v>1.7</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
         <v>2.38</v>
@@ -12899,16 +12899,16 @@
         <v>5.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P87" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
         <v>2.2</v>
@@ -12953,7 +12953,7 @@
         <v>34</v>
       </c>
       <c r="AE87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF87" t="n">
         <v>7</v>
@@ -12971,7 +12971,7 @@
         <v>12</v>
       </c>
       <c r="AK87" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL87" t="n">
         <v>17</v>
@@ -13030,13 +13030,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H88" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I88" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J88" t="n">
         <v>6.5</v>
@@ -13093,7 +13093,7 @@
         <v>19</v>
       </c>
       <c r="AB88" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC88" t="n">
         <v>51</v>
@@ -13102,10 +13102,10 @@
         <v>51</v>
       </c>
       <c r="AE88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG88" t="n">
         <v>19</v>
@@ -13114,10 +13114,10 @@
         <v>51</v>
       </c>
       <c r="AI88" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ88" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK88" t="n">
         <v>7</v>
@@ -13126,7 +13126,7 @@
         <v>8.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN88" t="n">
         <v>12</v>
@@ -13171,16 +13171,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I89" t="n">
         <v>2.8</v>
       </c>
       <c r="J89" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>2.2</v>
@@ -13189,46 +13189,46 @@
         <v>3.4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O89" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P89" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R89" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S89" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T89" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U89" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V89" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W89" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X89" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Y89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA89" t="n">
         <v>9.5</v>
@@ -13240,10 +13240,10 @@
         <v>19</v>
       </c>
       <c r="AD89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE89" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF89" t="n">
         <v>6.5</v>
@@ -13255,10 +13255,10 @@
         <v>41</v>
       </c>
       <c r="AI89" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ89" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK89" t="n">
         <v>15</v>
@@ -13273,7 +13273,7 @@
         <v>21</v>
       </c>
       <c r="AO89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
@@ -13471,10 +13471,10 @@
         <v>3.75</v>
       </c>
       <c r="M91" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
         <v>1.29</v>
@@ -13483,10 +13483,10 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S91" t="n">
         <v>3.4</v>
@@ -13648,7 +13648,7 @@
         <v>1.8</v>
       </c>
       <c r="Y92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z92" t="n">
         <v>21</v>
@@ -13672,13 +13672,13 @@
         <v>7</v>
       </c>
       <c r="AG92" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH92" t="n">
         <v>51</v>
       </c>
       <c r="AI92" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ92" t="n">
         <v>6.5</v>
@@ -13735,28 +13735,28 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H93" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I93" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J93" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K93" t="n">
         <v>2.25</v>
       </c>
       <c r="L93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M93" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O93" t="n">
         <v>1.29</v>
@@ -13783,22 +13783,22 @@
         <v>2.75</v>
       </c>
       <c r="W93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X93" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Y93" t="n">
         <v>6</v>
       </c>
       <c r="Z93" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA93" t="n">
         <v>8.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC93" t="n">
         <v>13</v>
@@ -13810,7 +13810,7 @@
         <v>10</v>
       </c>
       <c r="AF93" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG93" t="n">
         <v>21</v>
@@ -13819,22 +13819,22 @@
         <v>67</v>
       </c>
       <c r="AI93" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM93" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO93" t="n">
         <v>51</v>
@@ -14183,13 +14183,13 @@
         <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O96" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P96" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q96" t="n">
         <v>2.1</v>
@@ -14210,10 +14210,10 @@
         <v>2.63</v>
       </c>
       <c r="W96" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X96" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y96" t="n">
         <v>7</v>
@@ -14234,7 +14234,7 @@
         <v>29</v>
       </c>
       <c r="AE96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF96" t="n">
         <v>6.5</v>
@@ -14246,7 +14246,7 @@
         <v>51</v>
       </c>
       <c r="AI96" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ96" t="n">
         <v>9.5</v>
@@ -14303,13 +14303,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>2.9</v>
       </c>
       <c r="I97" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J97" t="n">
         <v>3.6</v>
@@ -14357,19 +14357,19 @@
         <v>1.62</v>
       </c>
       <c r="Y97" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA97" t="n">
         <v>11</v>
       </c>
       <c r="AB97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD97" t="n">
         <v>41</v>
@@ -14466,10 +14466,10 @@
         <v>5.5</v>
       </c>
       <c r="M98" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -14589,28 +14589,28 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>3.2</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K99" t="n">
         <v>2.1</v>
       </c>
       <c r="L99" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M99" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O99" t="n">
         <v>1.29</v>
@@ -14619,16 +14619,16 @@
         <v>3.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R99" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S99" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T99" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U99" t="n">
         <v>1.4</v>
@@ -14643,25 +14643,25 @@
         <v>2</v>
       </c>
       <c r="Y99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA99" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB99" t="n">
         <v>21</v>
       </c>
       <c r="AC99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD99" t="n">
         <v>26</v>
       </c>
       <c r="AE99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF99" t="n">
         <v>6</v>
@@ -14679,16 +14679,16 @@
         <v>10</v>
       </c>
       <c r="AK99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM99" t="n">
         <v>34</v>
       </c>
       <c r="AN99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO99" t="n">
         <v>34</v>
@@ -15459,16 +15459,16 @@
         <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P105" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R105" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S105" t="n">
         <v>2.63</v>
@@ -15606,16 +15606,16 @@
         <v>3.75</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S106" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U106" t="n">
         <v>1.36</v>
@@ -16430,28 +16430,28 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J112" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K112" t="n">
         <v>2.1</v>
       </c>
       <c r="L112" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M112" t="n">
         <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O112" t="n">
         <v>1.3</v>
@@ -16484,16 +16484,16 @@
         <v>1.95</v>
       </c>
       <c r="Y112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z112" t="n">
         <v>12</v>
       </c>
       <c r="AA112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC112" t="n">
         <v>21</v>
@@ -16520,7 +16520,7 @@
         <v>9</v>
       </c>
       <c r="AK112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL112" t="n">
         <v>11</v>
@@ -16579,46 +16579,46 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J113" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K113" t="n">
         <v>2.05</v>
       </c>
       <c r="L113" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N113" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O113" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P113" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R113" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S113" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T113" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U113" t="n">
         <v>1.5</v>
@@ -16639,13 +16639,13 @@
         <v>7.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD113" t="n">
         <v>34</v>
@@ -16663,16 +16663,16 @@
         <v>67</v>
       </c>
       <c r="AI113" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK113" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM113" t="n">
         <v>51</v>
@@ -16684,16 +16684,16 @@
         <v>51</v>
       </c>
       <c r="AP113" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AR113" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="114">
@@ -16728,13 +16728,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>2.9</v>
       </c>
       <c r="I114" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J114" t="n">
         <v>3.25</v>
@@ -16752,16 +16752,16 @@
         <v>6.5</v>
       </c>
       <c r="O114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R114" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P114" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R114" t="n">
-        <v>1.48</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -16776,13 +16776,13 @@
         <v>2.25</v>
       </c>
       <c r="W114" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X114" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y114" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z114" t="n">
         <v>10</v>
@@ -16827,22 +16827,22 @@
         <v>34</v>
       </c>
       <c r="AN114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO114" t="n">
         <v>41</v>
       </c>
       <c r="AP114" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AR114" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="115">
@@ -17018,28 +17018,28 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J116" t="n">
         <v>2.38</v>
       </c>
       <c r="K116" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L116" t="n">
         <v>4</v>
       </c>
       <c r="M116" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O116" t="n">
         <v>1.14</v>
@@ -17090,10 +17090,10 @@
         <v>19</v>
       </c>
       <c r="AE116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG116" t="n">
         <v>12</v>
@@ -17166,10 +17166,10 @@
         <v>2.25</v>
       </c>
       <c r="H117" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I117" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J117" t="n">
         <v>3</v>
@@ -17178,13 +17178,13 @@
         <v>2.1</v>
       </c>
       <c r="L117" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M117" t="n">
         <v>1.06</v>
       </c>
       <c r="N117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O117" t="n">
         <v>1.29</v>
@@ -17334,10 +17334,10 @@
         <v>4</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R118" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S118" t="n">
         <v>2.75</v>
@@ -17723,19 +17723,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H121" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="I121" t="n">
         <v>6.2</v>
       </c>
       <c r="J121" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="K121" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L121" t="n">
         <v>5.8</v>
@@ -17743,22 +17743,22 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P121" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R121" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S121" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="T121" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U121" t="n">
         <v>1.39</v>
@@ -17767,34 +17767,34 @@
         <v>2.57</v>
       </c>
       <c r="W121" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X121" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Y121" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA121" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB121" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC121" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE121" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AF121" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG121" t="n">
         <v>15</v>
@@ -17806,7 +17806,7 @@
         <v>400</v>
       </c>
       <c r="AJ121" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK121" t="n">
         <v>45</v>
@@ -17821,7 +17821,7 @@
         <v>65</v>
       </c>
       <c r="AO121" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr"/>
@@ -18013,10 +18013,10 @@
         <v>1.73</v>
       </c>
       <c r="K123" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M123" t="n">
         <v>1.03</v>
@@ -18049,10 +18049,10 @@
         <v>3.4</v>
       </c>
       <c r="W123" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X123" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y123" t="n">
         <v>7</v>
@@ -18064,7 +18064,7 @@
         <v>9</v>
       </c>
       <c r="AB123" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC123" t="n">
         <v>12</v>
@@ -18082,7 +18082,7 @@
         <v>23</v>
       </c>
       <c r="AH123" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI123" t="n">
         <v>900</v>
@@ -18094,7 +18094,7 @@
         <v>41</v>
       </c>
       <c r="AL123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM123" t="n">
         <v>126</v>
@@ -18103,7 +18103,7 @@
         <v>67</v>
       </c>
       <c r="AO123" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP123" t="inlineStr"/>
       <c r="AQ123" t="inlineStr"/>
@@ -18298,7 +18298,7 @@
         <v>2.38</v>
       </c>
       <c r="L125" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M125" t="n">
         <v>1.03</v>
@@ -18349,7 +18349,7 @@
         <v>41</v>
       </c>
       <c r="AC125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD125" t="n">
         <v>34</v>
@@ -18387,8 +18387,12 @@
       <c r="AO125" t="n">
         <v>21</v>
       </c>
-      <c r="AP125" t="inlineStr"/>
-      <c r="AQ125" t="inlineStr"/>
+      <c r="AP125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR125" t="inlineStr"/>
       <c r="AS125" t="inlineStr"/>
     </row>
@@ -18587,10 +18591,10 @@
         <v>3.4</v>
       </c>
       <c r="M127" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O127" t="n">
         <v>1.33</v>
@@ -18873,10 +18877,10 @@
         <v>4.33</v>
       </c>
       <c r="M129" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O129" t="n">
         <v>1.44</v>
@@ -18897,7 +18901,7 @@
         <v>1.17</v>
       </c>
       <c r="U129" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V129" t="n">
         <v>2.25</v>
@@ -19018,10 +19022,10 @@
         <v>5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O130" t="n">
         <v>1.33</v>
@@ -19030,10 +19034,10 @@
         <v>3.25</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R130" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S130" t="n">
         <v>3.75</v>
@@ -19042,10 +19046,10 @@
         <v>1.25</v>
       </c>
       <c r="U130" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V130" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W130" t="n">
         <v>2</v>
@@ -19144,25 +19148,25 @@
         <v>2.75</v>
       </c>
       <c r="H131" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J131" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K131" t="n">
         <v>2.2</v>
       </c>
       <c r="L131" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M131" t="n">
         <v>1.04</v>
       </c>
       <c r="N131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O131" t="n">
         <v>1.22</v>
@@ -19183,7 +19187,7 @@
         <v>1.4</v>
       </c>
       <c r="U131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V131" t="n">
         <v>3</v>
@@ -19219,7 +19223,7 @@
         <v>6.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH131" t="n">
         <v>41</v>
@@ -19228,13 +19232,13 @@
         <v>151</v>
       </c>
       <c r="AJ131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK131" t="n">
         <v>13</v>
       </c>
       <c r="AL131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM131" t="n">
         <v>23</v>
@@ -19282,13 +19286,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I132" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J132" t="n">
         <v>3.5</v>
@@ -19297,7 +19301,7 @@
         <v>2.1</v>
       </c>
       <c r="L132" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M132" t="n">
         <v>1.06</v>
@@ -19324,16 +19328,16 @@
         <v>1.3</v>
       </c>
       <c r="U132" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V132" t="n">
         <v>2.75</v>
       </c>
       <c r="W132" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X132" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y132" t="n">
         <v>10</v>
@@ -19357,7 +19361,7 @@
         <v>10</v>
       </c>
       <c r="AF132" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG132" t="n">
         <v>13</v>
@@ -19384,7 +19388,7 @@
         <v>19</v>
       </c>
       <c r="AO132" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP132" t="inlineStr"/>
       <c r="AQ132" t="inlineStr"/>
@@ -19465,7 +19469,7 @@
         <v>1.2</v>
       </c>
       <c r="U133" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V133" t="n">
         <v>2.5</v>
@@ -19564,16 +19568,16 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>3</v>
       </c>
       <c r="I134" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J134" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K134" t="n">
         <v>2.05</v>
@@ -19606,10 +19610,10 @@
         <v>1.25</v>
       </c>
       <c r="U134" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V134" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W134" t="n">
         <v>1.8</v>
@@ -19627,7 +19631,7 @@
         <v>9.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC134" t="n">
         <v>21</v>
@@ -19636,7 +19640,7 @@
         <v>29</v>
       </c>
       <c r="AE134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF134" t="n">
         <v>6</v>
@@ -19651,7 +19655,7 @@
         <v>251</v>
       </c>
       <c r="AJ134" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK134" t="n">
         <v>15</v>
@@ -19663,10 +19667,10 @@
         <v>34</v>
       </c>
       <c r="AN134" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO134" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
@@ -19705,13 +19709,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H135" t="n">
         <v>3.1</v>
       </c>
       <c r="I135" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J135" t="n">
         <v>3.1</v>
@@ -19762,10 +19766,10 @@
         <v>6.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB135" t="n">
         <v>21</v>
@@ -19801,7 +19805,7 @@
         <v>13</v>
       </c>
       <c r="AM135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN135" t="n">
         <v>34</v>
@@ -19850,7 +19854,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H136" t="n">
         <v>3.5</v>
@@ -20298,7 +20302,7 @@
         <v>1.08</v>
       </c>
       <c r="N139" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O139" t="n">
         <v>1.4</v>
@@ -20448,16 +20452,16 @@
         <v>3.4</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R140" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S140" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T140" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U140" t="n">
         <v>1.4</v>
@@ -20502,7 +20506,7 @@
         <v>67</v>
       </c>
       <c r="AI140" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ140" t="n">
         <v>13</v>
@@ -20841,22 +20845,22 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H143" t="n">
         <v>3.5</v>
       </c>
       <c r="I143" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K143" t="n">
         <v>2.25</v>
       </c>
       <c r="L143" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M143" t="n">
         <v>1.04</v>
@@ -20895,16 +20899,16 @@
         <v>2.2</v>
       </c>
       <c r="Y143" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB143" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC143" t="n">
         <v>17</v>
@@ -20916,7 +20920,7 @@
         <v>13</v>
       </c>
       <c r="AF143" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG143" t="n">
         <v>12</v>
@@ -20928,22 +20932,22 @@
         <v>151</v>
       </c>
       <c r="AJ143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK143" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL143" t="n">
         <v>11</v>
       </c>
       <c r="AM143" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO143" t="n">
         <v>29</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO143" t="n">
-        <v>26</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -20982,13 +20986,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H144" t="n">
         <v>3.8</v>
       </c>
       <c r="I144" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J144" t="n">
         <v>4</v>
@@ -21409,22 +21413,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H147" t="n">
         <v>3.4</v>
       </c>
       <c r="I147" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K147" t="n">
         <v>2.2</v>
       </c>
       <c r="L147" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147" t="n">
         <v>1.05</v>
@@ -21469,13 +21473,13 @@
         <v>11</v>
       </c>
       <c r="AA147" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB147" t="n">
         <v>21</v>
       </c>
       <c r="AC147" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD147" t="n">
         <v>26</v>
@@ -21499,7 +21503,7 @@
         <v>10</v>
       </c>
       <c r="AK147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL147" t="n">
         <v>11</v>
@@ -21511,7 +21515,7 @@
         <v>23</v>
       </c>
       <c r="AO147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP147" t="inlineStr"/>
       <c r="AQ147" t="inlineStr"/>
@@ -21679,22 +21683,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H149" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I149" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J149" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="K149" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L149" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
@@ -21708,54 +21712,54 @@
         <v>1.7</v>
       </c>
       <c r="R149" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S149" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="T149" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X149" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Y149" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z149" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA149" t="n">
         <v>8</v>
       </c>
       <c r="AB149" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC149" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD149" t="n">
         <v>24</v>
       </c>
       <c r="AE149" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF149" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AG149" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH149" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI149" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ149" t="n">
         <v>15</v>
@@ -21764,16 +21768,16 @@
         <v>32</v>
       </c>
       <c r="AL149" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AM149" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN149" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AO149" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
@@ -22098,22 +22102,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
       </c>
       <c r="I152" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J152" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K152" t="n">
         <v>1.95</v>
       </c>
       <c r="L152" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M152" t="n">
         <v>1.1</v>
@@ -22152,19 +22156,19 @@
         <v>1.67</v>
       </c>
       <c r="Y152" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z152" t="n">
         <v>15</v>
       </c>
       <c r="AA152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB152" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD152" t="n">
         <v>41</v>
@@ -22185,13 +22189,13 @@
         <v>351</v>
       </c>
       <c r="AJ152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM152" t="n">
         <v>21</v>
@@ -22205,10 +22209,10 @@
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="153">
@@ -22303,13 +22307,13 @@
         <v>26</v>
       </c>
       <c r="AA153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB153" t="n">
         <v>41</v>
       </c>
       <c r="AC153" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD153" t="n">
         <v>26</v>
@@ -22318,7 +22322,7 @@
         <v>19</v>
       </c>
       <c r="AF153" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG153" t="n">
         <v>12</v>
@@ -22333,7 +22337,7 @@
         <v>12</v>
       </c>
       <c r="AK153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL153" t="n">
         <v>9</v>
@@ -22342,7 +22346,7 @@
         <v>17</v>
       </c>
       <c r="AN153" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO153" t="n">
         <v>19</v>
@@ -22388,13 +22392,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>3.1</v>
       </c>
       <c r="I154" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J154" t="n">
         <v>3.4</v>
@@ -22403,7 +22407,7 @@
         <v>1.95</v>
       </c>
       <c r="L154" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M154" t="n">
         <v>1.08</v>
@@ -22412,10 +22416,10 @@
         <v>7.5</v>
       </c>
       <c r="O154" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P154" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q154" t="n">
         <v>2.35</v>
@@ -22472,13 +22476,13 @@
         <v>51</v>
       </c>
       <c r="AI154" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ154" t="n">
         <v>7.5</v>
       </c>
       <c r="AK154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL154" t="n">
         <v>11</v>
@@ -22695,7 +22699,7 @@
         <v>1.06</v>
       </c>
       <c r="N156" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O156" t="n">
         <v>1.3</v>
@@ -22823,13 +22827,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H157" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I157" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J157" t="n">
         <v>2.1</v>
@@ -22871,10 +22875,10 @@
         <v>3</v>
       </c>
       <c r="W157" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X157" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y157" t="n">
         <v>6.5</v>
@@ -22916,7 +22920,7 @@
         <v>29</v>
       </c>
       <c r="AL157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM157" t="n">
         <v>67</v>
@@ -22925,7 +22929,7 @@
         <v>41</v>
       </c>
       <c r="AO157" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP157" t="n">
         <v>2.5</v>
@@ -23002,10 +23006,10 @@
         <v>4</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R158" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S158" t="n">
         <v>2.75</v>
@@ -23139,10 +23143,10 @@
         <v>3.75</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O159" t="n">
         <v>1.29</v>
@@ -23300,16 +23304,16 @@
         <v>3</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R160" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S160" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T160" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U160" t="n">
         <v>1.5</v>
@@ -23735,10 +23739,10 @@
         <v>1.4</v>
       </c>
       <c r="U163" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V163" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W163" t="n">
         <v>1.62</v>
@@ -23771,7 +23775,7 @@
         <v>7</v>
       </c>
       <c r="AG163" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH163" t="n">
         <v>41</v>
@@ -23975,28 +23979,28 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I165" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J165" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K165" t="n">
         <v>2.2</v>
       </c>
       <c r="L165" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O165" t="n">
         <v>1.29</v>
@@ -24005,10 +24009,10 @@
         <v>3.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R165" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S165" t="n">
         <v>3.4</v>
@@ -24029,7 +24033,7 @@
         <v>1.83</v>
       </c>
       <c r="Y165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z165" t="n">
         <v>21</v>
@@ -24038,7 +24042,7 @@
         <v>15</v>
       </c>
       <c r="AB165" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC165" t="n">
         <v>34</v>
@@ -24047,10 +24051,10 @@
         <v>41</v>
       </c>
       <c r="AE165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF165" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG165" t="n">
         <v>17</v>
@@ -24059,19 +24063,19 @@
         <v>51</v>
       </c>
       <c r="AI165" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ165" t="n">
         <v>7</v>
       </c>
       <c r="AK165" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL165" t="n">
         <v>8.5</v>
       </c>
       <c r="AM165" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN165" t="n">
         <v>15</v>
@@ -24134,10 +24138,10 @@
         <v>4.33</v>
       </c>
       <c r="M166" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O166" t="n">
         <v>1.44</v>
@@ -24146,16 +24150,16 @@
         <v>2.63</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R166" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S166" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T166" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U166" t="n">
         <v>1.57</v>
@@ -24223,10 +24227,10 @@
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
       <c r="AR166" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="167">
@@ -24291,10 +24295,10 @@
         <v>7</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R167" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S167" t="n">
         <v>1.83</v>
@@ -24408,7 +24412,7 @@
         <v>3.4</v>
       </c>
       <c r="I168" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J168" t="n">
         <v>2.75</v>
@@ -24417,13 +24421,13 @@
         <v>2.1</v>
       </c>
       <c r="L168" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M168" t="n">
         <v>1.06</v>
       </c>
       <c r="N168" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O168" t="n">
         <v>1.3</v>
@@ -24435,7 +24439,7 @@
         <v>2.05</v>
       </c>
       <c r="R168" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S168" t="n">
         <v>3.5</v>
@@ -24456,7 +24460,7 @@
         <v>1.95</v>
       </c>
       <c r="Y168" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z168" t="n">
         <v>9.5</v>
@@ -24465,7 +24469,7 @@
         <v>9</v>
       </c>
       <c r="AB168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC168" t="n">
         <v>17</v>
@@ -24825,22 +24829,22 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J171" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K171" t="n">
         <v>2.05</v>
       </c>
       <c r="L171" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M171" t="n">
         <v>1.07</v>
@@ -24879,10 +24883,10 @@
         <v>1.8</v>
       </c>
       <c r="Y171" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z171" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA171" t="n">
         <v>13</v>
@@ -24891,7 +24895,7 @@
         <v>41</v>
       </c>
       <c r="AC171" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD171" t="n">
         <v>41</v>
@@ -24900,7 +24904,7 @@
         <v>8</v>
       </c>
       <c r="AF171" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG171" t="n">
         <v>17</v>
@@ -24915,13 +24919,13 @@
         <v>6.5</v>
       </c>
       <c r="AK171" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL171" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM171" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN171" t="n">
         <v>19</v>
@@ -24966,13 +24970,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>3.2</v>
       </c>
       <c r="I172" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J172" t="n">
         <v>3</v>
@@ -24981,13 +24985,13 @@
         <v>2.05</v>
       </c>
       <c r="L172" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M172" t="n">
         <v>1.07</v>
       </c>
       <c r="N172" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O172" t="n">
         <v>1.36</v>
@@ -25032,7 +25036,7 @@
         <v>21</v>
       </c>
       <c r="AC172" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD172" t="n">
         <v>34</v>
@@ -25065,7 +25069,7 @@
         <v>34</v>
       </c>
       <c r="AN172" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO172" t="n">
         <v>41</v>
@@ -25251,103 +25255,103 @@
         <v>1.6</v>
       </c>
       <c r="H174" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I174" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J174" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K174" t="n">
         <v>2.45</v>
       </c>
       <c r="L174" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="M174" t="n">
         <v>1.03</v>
       </c>
       <c r="N174" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P174" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R174" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S174" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T174" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U174" t="n">
         <v>1.27</v>
       </c>
       <c r="V174" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="W174" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X174" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="Y174" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z174" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA174" t="n">
         <v>8.25</v>
       </c>
       <c r="AB174" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC174" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD174" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE174" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF174" t="n">
         <v>8.5</v>
       </c>
       <c r="AG174" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH174" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI174" t="n">
         <v>250</v>
       </c>
       <c r="AJ174" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK174" t="n">
         <v>32</v>
       </c>
       <c r="AL174" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM174" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN174" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO174" t="n">
         <v>35</v>
@@ -25389,22 +25393,22 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H175" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I175" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J175" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="K175" t="n">
         <v>2.42</v>
       </c>
       <c r="L175" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M175" t="n">
         <v>1.03</v>
@@ -25434,37 +25438,37 @@
         <v>1.27</v>
       </c>
       <c r="V175" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="W175" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X175" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Y175" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z175" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA175" t="n">
         <v>8.75</v>
       </c>
       <c r="AB175" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC175" t="n">
         <v>13</v>
       </c>
       <c r="AD175" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE175" t="n">
         <v>9.5</v>
       </c>
       <c r="AF175" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG175" t="n">
         <v>12</v>
@@ -25482,7 +25486,7 @@
         <v>22</v>
       </c>
       <c r="AL175" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM175" t="n">
         <v>45</v>
@@ -25530,22 +25534,22 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I176" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J176" t="n">
         <v>2.92</v>
       </c>
       <c r="K176" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L176" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="M176" t="n">
         <v>1.02</v>
@@ -25554,85 +25558,85 @@
         <v>10</v>
       </c>
       <c r="O176" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P176" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="R176" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="S176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T176" t="n">
         <v>1.93</v>
       </c>
-      <c r="T176" t="n">
-        <v>1.78</v>
-      </c>
       <c r="U176" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="V176" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="W176" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X176" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="Y176" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z176" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AA176" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB176" t="n">
         <v>32</v>
       </c>
       <c r="AC176" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD176" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE176" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG176" t="n">
         <v>10</v>
       </c>
-      <c r="AF176" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG176" t="n">
+      <c r="AH176" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL176" t="n">
         <v>10.25</v>
       </c>
-      <c r="AH176" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ176" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK176" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>10</v>
-      </c>
       <c r="AM176" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN176" t="n">
         <v>16.5</v>
       </c>
       <c r="AO176" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP176" t="inlineStr"/>
       <c r="AQ176" t="inlineStr"/>
@@ -25671,46 +25675,46 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H177" t="n">
         <v>3.4</v>
       </c>
       <c r="I177" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J177" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K177" t="n">
         <v>2.2</v>
       </c>
       <c r="L177" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M177" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N177" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O177" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P177" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R177" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S177" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T177" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U177" t="n">
         <v>1.36</v>
@@ -25728,7 +25732,7 @@
         <v>8</v>
       </c>
       <c r="Z177" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA177" t="n">
         <v>9</v>
@@ -25755,22 +25759,22 @@
         <v>41</v>
       </c>
       <c r="AI177" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AJ177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK177" t="n">
         <v>21</v>
       </c>
       <c r="AL177" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM177" t="n">
         <v>41</v>
       </c>
       <c r="AN177" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO177" t="n">
         <v>41</v>
@@ -25812,13 +25816,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>3.5</v>
       </c>
       <c r="I178" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J178" t="n">
         <v>4</v>
@@ -25827,31 +25831,31 @@
         <v>2.1</v>
       </c>
       <c r="L178" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N178" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O178" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P178" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R178" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S178" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T178" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U178" t="n">
         <v>1.4</v>
@@ -25911,7 +25915,7 @@
         <v>17</v>
       </c>
       <c r="AN178" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO178" t="n">
         <v>26</v>
@@ -25953,22 +25957,22 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H179" t="n">
         <v>3.7</v>
       </c>
       <c r="I179" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J179" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K179" t="n">
         <v>2.5</v>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M179" t="n">
         <v>1.02</v>
@@ -25977,10 +25981,10 @@
         <v>11</v>
       </c>
       <c r="O179" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P179" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q179" t="n">
         <v>1.44</v>
@@ -25995,10 +25999,10 @@
         <v>1.73</v>
       </c>
       <c r="U179" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V179" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W179" t="n">
         <v>1.4</v>
@@ -26010,16 +26014,16 @@
         <v>17</v>
       </c>
       <c r="Z179" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA179" t="n">
         <v>12</v>
       </c>
       <c r="AB179" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC179" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD179" t="n">
         <v>21</v>
@@ -26040,7 +26044,7 @@
         <v>81</v>
       </c>
       <c r="AJ179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK179" t="n">
         <v>15</v>
@@ -26049,7 +26053,7 @@
         <v>10</v>
       </c>
       <c r="AM179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN179" t="n">
         <v>15</v>
@@ -26097,7 +26101,7 @@
         <v>7.5</v>
       </c>
       <c r="H180" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I180" t="n">
         <v>1.44</v>
@@ -26109,7 +26113,7 @@
         <v>2.5</v>
       </c>
       <c r="L180" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="M180" t="n">
         <v>1.04</v>
@@ -26199,10 +26203,10 @@
         <v>23</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26248,7 +26252,7 @@
         <v>3.6</v>
       </c>
       <c r="J181" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K181" t="n">
         <v>2.1</v>
@@ -26530,7 +26534,7 @@
         <v>15</v>
       </c>
       <c r="J183" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K183" t="n">
         <v>3</v>
@@ -26669,7 +26673,7 @@
         <v>2.4</v>
       </c>
       <c r="H184" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -26681,46 +26685,46 @@
         <v>2.1</v>
       </c>
       <c r="L184" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M184" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O184" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P184" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q184" t="n">
         <v>2</v>
       </c>
       <c r="R184" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S184" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T184" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U184" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V184" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W184" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X184" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y184" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z184" t="n">
         <v>12</v>
@@ -26732,13 +26736,13 @@
         <v>23</v>
       </c>
       <c r="AC184" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD184" t="n">
         <v>29</v>
       </c>
       <c r="AE184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF184" t="n">
         <v>6</v>
@@ -26747,10 +26751,10 @@
         <v>13</v>
       </c>
       <c r="AH184" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI184" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ184" t="n">
         <v>9.5</v>
@@ -26966,10 +26970,10 @@
         <v>4</v>
       </c>
       <c r="M186" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N186" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O186" t="n">
         <v>1.36</v>
@@ -27032,7 +27036,7 @@
         <v>51</v>
       </c>
       <c r="AI186" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ186" t="n">
         <v>8.5</v>
@@ -27380,13 +27384,13 @@
         <v>3.45</v>
       </c>
       <c r="J189" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K189" t="n">
         <v>2.05</v>
       </c>
       <c r="L189" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M189" t="n">
         <v>1.07</v>
@@ -27395,10 +27399,10 @@
         <v>6.8</v>
       </c>
       <c r="O189" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P189" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q189" t="n">
         <v>2.02</v>
@@ -27425,28 +27429,28 @@
         <v>1.87</v>
       </c>
       <c r="Y189" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z189" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA189" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB189" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC189" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD189" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE189" t="n">
         <v>6.8</v>
       </c>
       <c r="AF189" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG189" t="n">
         <v>15</v>
@@ -27455,13 +27459,13 @@
         <v>75</v>
       </c>
       <c r="AI189" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ189" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK189" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL189" t="n">
         <v>12</v>
@@ -27470,10 +27474,10 @@
         <v>50</v>
       </c>
       <c r="AN189" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO189" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP189" t="inlineStr"/>
       <c r="AQ189" t="inlineStr"/>
@@ -27512,13 +27516,13 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
       </c>
       <c r="I190" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="J190" t="n">
         <v>2.1</v>
@@ -27527,7 +27531,7 @@
         <v>2.12</v>
       </c>
       <c r="L190" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M190" t="n">
         <v>1.06</v>
@@ -27557,7 +27561,7 @@
         <v>1.4</v>
       </c>
       <c r="V190" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W190" t="n">
         <v>1.78</v>
@@ -27566,10 +27570,10 @@
         <v>1.93</v>
       </c>
       <c r="Y190" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z190" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA190" t="n">
         <v>7.7</v>
@@ -27578,7 +27582,7 @@
         <v>11.75</v>
       </c>
       <c r="AC190" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD190" t="n">
         <v>23</v>
@@ -27587,7 +27591,7 @@
         <v>7.4</v>
       </c>
       <c r="AF190" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG190" t="n">
         <v>15.5</v>
@@ -27599,19 +27603,19 @@
         <v>500</v>
       </c>
       <c r="AJ190" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK190" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL190" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM190" t="n">
         <v>150</v>
       </c>
       <c r="AN190" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO190" t="n">
         <v>60</v>
@@ -27656,19 +27660,19 @@
         <v>1.29</v>
       </c>
       <c r="H191" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I191" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="J191" t="n">
         <v>1.7</v>
       </c>
       <c r="K191" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="L191" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M191" t="n">
         <v>1.03</v>
@@ -27677,85 +27681,85 @@
         <v>9.75</v>
       </c>
       <c r="O191" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P191" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="Q191" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="R191" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="S191" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="T191" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="U191" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="V191" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W191" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X191" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="Y191" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB191" t="n">
         <v>9.25</v>
       </c>
-      <c r="Z191" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA191" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB191" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AC191" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE191" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD191" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE191" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AF191" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG191" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH191" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI191" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AJ191" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK191" t="n">
         <v>60</v>
       </c>
       <c r="AL191" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM191" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN191" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO191" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AP191" t="inlineStr"/>
       <c r="AQ191" t="inlineStr"/>
@@ -27794,22 +27798,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="H192" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="I192" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="J192" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K192" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="L192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M192" t="n">
         <v>1.01</v>
@@ -27818,34 +27822,34 @@
         <v>34</v>
       </c>
       <c r="O192" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q192" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="R192" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S192" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T192" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U192" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="V192" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="W192" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X192" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y192" t="n">
         <v>19</v>
@@ -27857,46 +27861,46 @@
         <v>10</v>
       </c>
       <c r="AB192" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC192" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD192" t="n">
         <v>15</v>
       </c>
       <c r="AE192" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF192" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG192" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH192" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI192" t="n">
         <v>51</v>
       </c>
       <c r="AJ192" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO192" t="n">
         <v>29</v>
-      </c>
-      <c r="AK192" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL192" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM192" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN192" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO192" t="n">
-        <v>23</v>
       </c>
       <c r="AP192" t="inlineStr"/>
       <c r="AQ192" t="inlineStr"/>
@@ -28358,28 +28362,28 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H196" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I196" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="J196" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K196" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L196" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M196" t="n">
         <v>1.04</v>
       </c>
       <c r="N196" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O196" t="n">
         <v>1.21</v>
@@ -28403,55 +28407,55 @@
         <v>1.33</v>
       </c>
       <c r="V196" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W196" t="n">
         <v>1.55</v>
       </c>
       <c r="X196" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Y196" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z196" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA196" t="n">
         <v>9.75</v>
       </c>
       <c r="AB196" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC196" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD196" t="n">
         <v>24</v>
       </c>
       <c r="AE196" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF196" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AG196" t="n">
         <v>13</v>
       </c>
       <c r="AH196" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI196" t="n">
         <v>300</v>
       </c>
       <c r="AJ196" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK196" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL196" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM196" t="n">
         <v>35</v>
@@ -28922,13 +28926,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H200" t="n">
         <v>3.25</v>
       </c>
       <c r="I200" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J200" t="n">
         <v>3.25</v>
@@ -28937,31 +28941,31 @@
         <v>2.1</v>
       </c>
       <c r="L200" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T200" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P200" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R200" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S200" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T200" t="n">
-        <v>1.29</v>
       </c>
       <c r="U200" t="n">
         <v>1.4</v>
@@ -28976,7 +28980,7 @@
         <v>2</v>
       </c>
       <c r="Y200" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z200" t="n">
         <v>13</v>
@@ -29003,7 +29007,7 @@
         <v>13</v>
       </c>
       <c r="AH200" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI200" t="n">
         <v>201</v>
@@ -29063,105 +29067,109 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H201" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I201" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J201" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="K201" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L201" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N201" t="n">
+        <v>8.5</v>
+      </c>
       <c r="O201" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P201" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q201" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R201" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S201" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T201" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U201" t="n">
         <v>1.44</v>
       </c>
       <c r="V201" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="W201" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X201" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Y201" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z201" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AA201" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AB201" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>401</v>
+      </c>
+      <c r="AJ201" t="n">
         <v>11</v>
       </c>
-      <c r="AC201" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD201" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE201" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF201" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG201" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH201" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI201" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ201" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AK201" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL201" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM201" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AN201" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO201" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr"/>
@@ -29347,7 +29355,7 @@
         <v>4.33</v>
       </c>
       <c r="I203" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J203" t="n">
         <v>2.1</v>
@@ -29362,7 +29370,7 @@
         <v>1.04</v>
       </c>
       <c r="N203" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O203" t="n">
         <v>1.25</v>
@@ -29371,10 +29379,10 @@
         <v>3.75</v>
       </c>
       <c r="Q203" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R203" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S203" t="n">
         <v>3</v>
@@ -29389,16 +29397,16 @@
         <v>3</v>
       </c>
       <c r="W203" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X203" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y203" t="n">
         <v>7</v>
       </c>
       <c r="Z203" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA203" t="n">
         <v>8.5</v>
@@ -29413,10 +29421,10 @@
         <v>26</v>
       </c>
       <c r="AE203" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF203" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG203" t="n">
         <v>19</v>
@@ -29425,13 +29433,13 @@
         <v>51</v>
       </c>
       <c r="AI203" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ203" t="n">
         <v>13</v>
       </c>
       <c r="AK203" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL203" t="n">
         <v>17</v>
@@ -29495,13 +29503,13 @@
         <v>1.8</v>
       </c>
       <c r="J204" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K204" t="n">
         <v>2.05</v>
       </c>
       <c r="L204" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M204" t="n">
         <v>1.08</v>
@@ -29516,10 +29524,10 @@
         <v>3</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R204" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S204" t="n">
         <v>4</v>
@@ -29573,7 +29581,7 @@
         <v>1250</v>
       </c>
       <c r="AJ204" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK204" t="n">
         <v>8</v>
@@ -30217,16 +30225,16 @@
         <v>4.75</v>
       </c>
       <c r="M209" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N209" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O209" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P209" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q209" t="n">
         <v>2.25</v>
@@ -30485,16 +30493,16 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H211" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I211" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J211" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K211" t="n">
         <v>2.25</v>
@@ -30542,7 +30550,7 @@
         <v>7.5</v>
       </c>
       <c r="Z211" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA211" t="n">
         <v>8.5</v>
@@ -30584,7 +30592,7 @@
         <v>51</v>
       </c>
       <c r="AN211" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO211" t="n">
         <v>41</v>
@@ -30779,7 +30787,7 @@
         <v>3.25</v>
       </c>
       <c r="K213" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L213" t="n">
         <v>2.88</v>
@@ -30791,22 +30799,22 @@
         <v>15</v>
       </c>
       <c r="O213" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P213" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R213" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S213" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T213" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U213" t="n">
         <v>1.3</v>
@@ -30815,13 +30823,13 @@
         <v>3.4</v>
       </c>
       <c r="W213" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X213" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y213" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z213" t="n">
         <v>17</v>
@@ -30845,16 +30853,16 @@
         <v>7</v>
       </c>
       <c r="AG213" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH213" t="n">
         <v>34</v>
       </c>
       <c r="AI213" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ213" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK213" t="n">
         <v>13</v>
@@ -30872,10 +30880,10 @@
         <v>21</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AR213" t="inlineStr"/>
       <c r="AS213" t="inlineStr"/>
@@ -30912,109 +30920,109 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H214" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I214" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J214" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K214" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L214" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M214" t="n">
         <v>1.05</v>
       </c>
       <c r="N214" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O214" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P214" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R214" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S214" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="T214" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="U214" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="V214" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="W214" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X214" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Y214" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z214" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA214" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB214" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC214" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD214" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE214" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AF214" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG214" t="n">
         <v>12.5</v>
       </c>
       <c r="AH214" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI214" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ214" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK214" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL214" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM214" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AN214" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO214" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP214" t="inlineStr"/>
       <c r="AQ214" t="inlineStr"/>
@@ -31062,49 +31070,49 @@
         <v>2.1</v>
       </c>
       <c r="J215" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K215" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L215" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M215" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N215" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O215" t="n">
         <v>1.28</v>
       </c>
       <c r="P215" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q215" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R215" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S215" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="T215" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U215" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="V215" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="W215" t="n">
         <v>1.7</v>
       </c>
       <c r="X215" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y215" t="n">
         <v>10.5</v>
@@ -31113,19 +31121,19 @@
         <v>17.5</v>
       </c>
       <c r="AA215" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB215" t="n">
         <v>40</v>
       </c>
       <c r="AC215" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD215" t="n">
         <v>32</v>
       </c>
       <c r="AE215" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF215" t="n">
         <v>6.6</v>
@@ -31134,28 +31142,28 @@
         <v>13.5</v>
       </c>
       <c r="AH215" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI215" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AJ215" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK215" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL215" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM215" t="n">
         <v>19.5</v>
       </c>
       <c r="AN215" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO215" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP215" t="inlineStr"/>
       <c r="AQ215" t="inlineStr"/>
@@ -31197,31 +31205,31 @@
         <v>1.44</v>
       </c>
       <c r="H216" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I216" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="J216" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K216" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L216" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="M216" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N216" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O216" t="n">
         <v>1.19</v>
       </c>
       <c r="P216" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q216" t="n">
         <v>1.57</v>
@@ -31236,10 +31244,10 @@
         <v>1.52</v>
       </c>
       <c r="U216" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V216" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W216" t="n">
         <v>1.75</v>
@@ -31248,55 +31256,55 @@
         <v>1.95</v>
       </c>
       <c r="Y216" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z216" t="n">
         <v>7.5</v>
       </c>
       <c r="AA216" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB216" t="n">
         <v>10</v>
       </c>
       <c r="AC216" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD216" t="n">
         <v>22</v>
       </c>
       <c r="AE216" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF216" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG216" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH216" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI216" t="n">
         <v>450</v>
       </c>
       <c r="AJ216" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK216" t="n">
         <v>45</v>
       </c>
       <c r="AL216" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM216" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN216" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO216" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP216" t="inlineStr"/>
       <c r="AQ216" t="inlineStr"/>
@@ -31647,10 +31655,10 @@
         <v>4.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R219" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S219" t="n">
         <v>2.5</v>
@@ -31722,10 +31730,10 @@
         <v>23</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR219" t="inlineStr"/>
       <c r="AS219" t="inlineStr"/>
@@ -31903,22 +31911,22 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H221" t="n">
         <v>3.3</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J221" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K221" t="n">
         <v>2.2</v>
       </c>
       <c r="L221" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M221" t="n">
         <v>1.05</v>
@@ -31960,19 +31968,19 @@
         <v>8.5</v>
       </c>
       <c r="Z221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA221" t="n">
         <v>9.5</v>
       </c>
       <c r="AB221" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC221" t="n">
         <v>19</v>
       </c>
       <c r="AD221" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE221" t="n">
         <v>11</v>
@@ -31990,7 +31998,7 @@
         <v>201</v>
       </c>
       <c r="AJ221" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK221" t="n">
         <v>15</v>
@@ -31999,13 +32007,13 @@
         <v>11</v>
       </c>
       <c r="AM221" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN221" t="n">
         <v>23</v>
       </c>
       <c r="AO221" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP221" t="inlineStr"/>
       <c r="AQ221" t="inlineStr"/>
@@ -32044,16 +32052,16 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H222" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I222" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J222" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K222" t="n">
         <v>2.1</v>
@@ -32068,10 +32076,10 @@
         <v>9</v>
       </c>
       <c r="O222" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P222" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q222" t="n">
         <v>2.1</v>
@@ -32092,10 +32100,10 @@
         <v>2.63</v>
       </c>
       <c r="W222" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X222" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y222" t="n">
         <v>11</v>
@@ -32107,7 +32115,7 @@
         <v>15</v>
       </c>
       <c r="AB222" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC222" t="n">
         <v>41</v>
@@ -32119,13 +32127,13 @@
         <v>9</v>
       </c>
       <c r="AF222" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG222" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH222" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI222" t="n">
         <v>351</v>
@@ -32143,7 +32151,7 @@
         <v>15</v>
       </c>
       <c r="AN222" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO222" t="n">
         <v>29</v>
@@ -32203,28 +32211,28 @@
         <v>5.5</v>
       </c>
       <c r="M223" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N223" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O223" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P223" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q223" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R223" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S223" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T223" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U223" t="n">
         <v>1.36</v>
@@ -32245,7 +32253,7 @@
         <v>7.5</v>
       </c>
       <c r="AA223" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB223" t="n">
         <v>12</v>
@@ -32608,22 +32616,22 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I226" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J226" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="K226" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="L226" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="M226" t="n">
         <v>1.1</v>
@@ -32632,85 +32640,85 @@
         <v>6.6</v>
       </c>
       <c r="O226" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P226" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="Q226" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R226" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T226" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="U226" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V226" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="W226" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="X226" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y226" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z226" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AA226" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB226" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AC226" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD226" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE226" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AF226" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG226" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH226" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI226" t="n">
         <v>900</v>
       </c>
       <c r="AJ226" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK226" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL226" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM226" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN226" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO226" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP226" t="inlineStr"/>
       <c r="AQ226" t="inlineStr"/>
@@ -32749,42 +32757,42 @@
         </is>
       </c>
       <c r="G227" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J227" t="n">
         <v>8.25</v>
       </c>
-      <c r="H227" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J227" t="n">
-        <v>7.4</v>
-      </c>
       <c r="K227" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L227" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="M227" t="inlineStr"/>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P227" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q227" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R227" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S227" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="T227" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U227" t="n">
         <v>1.38</v>
@@ -32793,37 +32801,37 @@
         <v>2.6</v>
       </c>
       <c r="W227" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="X227" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Y227" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Z227" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AA227" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB227" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AC227" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD227" t="n">
         <v>120</v>
       </c>
-      <c r="AD227" t="n">
-        <v>110</v>
-      </c>
       <c r="AE227" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF227" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AG227" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH227" t="n">
         <v>150</v>
@@ -32832,22 +32840,22 @@
         <v>1000</v>
       </c>
       <c r="AJ227" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK227" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AL227" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM227" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AN227" t="n">
         <v>12</v>
       </c>
       <c r="AO227" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP227" t="inlineStr"/>
       <c r="AQ227" t="inlineStr"/>
@@ -32886,39 +32894,39 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H228" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I228" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J228" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K228" t="n">
         <v>2.02</v>
       </c>
       <c r="L228" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M228" t="inlineStr"/>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P228" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R228" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S228" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T228" t="n">
         <v>1.19</v>
@@ -32930,58 +32938,58 @@
         <v>2.32</v>
       </c>
       <c r="W228" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="X228" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Y228" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z228" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AA228" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB228" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC228" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD228" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE228" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF228" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AG228" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH228" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI228" t="n">
         <v>900</v>
       </c>
       <c r="AJ228" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AK228" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AL228" t="n">
         <v>8.75</v>
       </c>
       <c r="AM228" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN228" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO228" t="n">
         <v>40</v>
@@ -33023,22 +33031,22 @@
         </is>
       </c>
       <c r="G229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
         <v>3.5</v>
       </c>
-      <c r="H229" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J229" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K229" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L229" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M229" t="n">
         <v>1.03</v>
@@ -33050,19 +33058,19 @@
         <v>1.18</v>
       </c>
       <c r="P229" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q229" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R229" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S229" t="n">
         <v>2.35</v>
       </c>
       <c r="T229" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U229" t="n">
         <v>1.29</v>
@@ -33071,37 +33079,37 @@
         <v>3.25</v>
       </c>
       <c r="W229" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X229" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Y229" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z229" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA229" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AB229" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC229" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AD229" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE229" t="n">
         <v>9</v>
       </c>
       <c r="AF229" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG229" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH229" t="n">
         <v>45</v>
@@ -33110,19 +33118,19 @@
         <v>250</v>
       </c>
       <c r="AJ229" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK229" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL229" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM229" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN229" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO229" t="n">
         <v>20</v>
@@ -33164,22 +33172,22 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H230" t="n">
         <v>3.85</v>
       </c>
       <c r="I230" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J230" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="K230" t="n">
         <v>2.37</v>
       </c>
       <c r="L230" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M230" t="n">
         <v>1.03</v>
@@ -33206,7 +33214,7 @@
         <v>1.55</v>
       </c>
       <c r="U230" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V230" t="n">
         <v>3.3</v>
@@ -33224,10 +33232,10 @@
         <v>12</v>
       </c>
       <c r="AA230" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB230" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC230" t="n">
         <v>14.5</v>
@@ -33239,7 +33247,7 @@
         <v>9</v>
       </c>
       <c r="AF230" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AG230" t="n">
         <v>12</v>
@@ -33251,16 +33259,16 @@
         <v>250</v>
       </c>
       <c r="AJ230" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK230" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL230" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM230" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN230" t="n">
         <v>22</v>
@@ -33305,22 +33313,22 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="H231" t="n">
         <v>3.6</v>
       </c>
       <c r="I231" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="J231" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K231" t="n">
         <v>2.32</v>
       </c>
       <c r="L231" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="M231" t="n">
         <v>1.03</v>
@@ -33347,7 +33355,7 @@
         <v>1.6</v>
       </c>
       <c r="U231" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V231" t="n">
         <v>3.4</v>
@@ -33362,19 +33370,19 @@
         <v>12.5</v>
       </c>
       <c r="Z231" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA231" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB231" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC231" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD231" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE231" t="n">
         <v>9.25</v>
@@ -33383,7 +33391,7 @@
         <v>7.6</v>
       </c>
       <c r="AG231" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH231" t="n">
         <v>32</v>
@@ -33392,22 +33400,22 @@
         <v>175</v>
       </c>
       <c r="AJ231" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK231" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL231" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM231" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN231" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO231" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP231" t="inlineStr"/>
       <c r="AQ231" t="inlineStr"/>
@@ -33479,7 +33487,7 @@
         <v>2.5</v>
       </c>
       <c r="R232" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S232" t="n">
         <v>5</v>
@@ -33597,7 +33605,7 @@
         <v>4.2</v>
       </c>
       <c r="I233" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J233" t="n">
         <v>7</v>
@@ -33732,7 +33740,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H234" t="n">
         <v>3.1</v>
@@ -33765,7 +33773,7 @@
         <v>2.5</v>
       </c>
       <c r="R234" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S234" t="n">
         <v>5</v>
@@ -33877,22 +33885,22 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="H235" t="n">
         <v>3.8</v>
       </c>
       <c r="I235" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J235" t="n">
         <v>2.4</v>
       </c>
       <c r="K235" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L235" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M235" t="n">
         <v>1.03</v>
@@ -33907,10 +33915,10 @@
         <v>4.33</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R235" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S235" t="n">
         <v>2.63</v>
@@ -33931,7 +33939,7 @@
         <v>2.2</v>
       </c>
       <c r="Y235" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z235" t="n">
         <v>10</v>
@@ -33940,7 +33948,7 @@
         <v>8.5</v>
       </c>
       <c r="AB235" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC235" t="n">
         <v>13</v>
@@ -33967,7 +33975,7 @@
         <v>15</v>
       </c>
       <c r="AK235" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL235" t="n">
         <v>13</v>
@@ -33979,7 +33987,7 @@
         <v>29</v>
       </c>
       <c r="AO235" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP235" t="n">
         <v>2.05</v>
@@ -34022,46 +34030,46 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H236" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I236" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L236" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J236" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K236" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L236" t="n">
-        <v>5</v>
       </c>
       <c r="M236" t="n">
         <v>1.03</v>
       </c>
       <c r="N236" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O236" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P236" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q236" t="n">
         <v>1.57</v>
       </c>
       <c r="R236" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S236" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T236" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U236" t="n">
         <v>1.29</v>
@@ -34097,7 +34105,7 @@
         <v>15</v>
       </c>
       <c r="AF236" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG236" t="n">
         <v>15</v>
@@ -34112,7 +34120,7 @@
         <v>19</v>
       </c>
       <c r="AK236" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL236" t="n">
         <v>17</v>
@@ -34127,10 +34135,10 @@
         <v>41</v>
       </c>
       <c r="AP236" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR236" t="inlineStr"/>
       <c r="AS236" t="inlineStr"/>
@@ -34167,16 +34175,16 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="H237" t="n">
         <v>4.75</v>
       </c>
       <c r="I237" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K237" t="n">
         <v>2.5</v>
@@ -34197,7 +34205,7 @@
         <v>5</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R237" t="n">
         <v>2.35</v>
@@ -34221,7 +34229,7 @@
         <v>2.05</v>
       </c>
       <c r="Y237" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z237" t="n">
         <v>8.5</v>
@@ -34257,7 +34265,7 @@
         <v>17</v>
       </c>
       <c r="AK237" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL237" t="n">
         <v>17</v>
@@ -34342,10 +34350,10 @@
         <v>4.5</v>
       </c>
       <c r="Q238" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R238" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S238" t="n">
         <v>2.5</v>
@@ -34457,13 +34465,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>3.6</v>
       </c>
       <c r="I239" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J239" t="n">
         <v>2.63</v>
@@ -34478,7 +34486,7 @@
         <v>1.04</v>
       </c>
       <c r="N239" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O239" t="n">
         <v>1.22</v>
@@ -34514,10 +34522,10 @@
         <v>8.5</v>
       </c>
       <c r="Z239" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA239" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB239" t="n">
         <v>19</v>
@@ -34559,7 +34567,7 @@
         <v>26</v>
       </c>
       <c r="AO239" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP239" t="n">
         <v>1.95</v>
@@ -34747,16 +34755,16 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H241" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J241" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K241" t="n">
         <v>2.4</v>
@@ -34804,7 +34812,7 @@
         <v>9.5</v>
       </c>
       <c r="Z241" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA241" t="n">
         <v>8.5</v>
@@ -34813,7 +34821,7 @@
         <v>15</v>
       </c>
       <c r="AC241" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD241" t="n">
         <v>21</v>
@@ -34837,25 +34845,25 @@
         <v>17</v>
       </c>
       <c r="AK241" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL241" t="n">
         <v>15</v>
       </c>
       <c r="AM241" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN241" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO241" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR241" t="inlineStr"/>
       <c r="AS241" t="inlineStr"/>
@@ -35061,22 +35069,22 @@
         <v>13</v>
       </c>
       <c r="O243" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P243" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R243" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S243" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T243" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U243" t="n">
         <v>1.36</v>
@@ -35212,10 +35220,10 @@
         <v>4.33</v>
       </c>
       <c r="Q244" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R244" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S244" t="n">
         <v>2.63</v>
@@ -35605,19 +35613,19 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H247" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I247" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J247" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K247" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L247" t="n">
         <v>3.95</v>
@@ -35625,10 +35633,10 @@
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P247" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q247" t="n">
         <v>2.32</v>
@@ -35637,7 +35645,7 @@
         <v>1.47</v>
       </c>
       <c r="S247" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T247" t="n">
         <v>1.17</v>
@@ -35646,37 +35654,37 @@
         <v>1.5</v>
       </c>
       <c r="V247" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W247" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X247" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y247" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="Z247" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA247" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB247" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC247" t="n">
         <v>22</v>
       </c>
       <c r="AD247" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE247" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF247" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AG247" t="n">
         <v>16.5</v>
@@ -35688,22 +35696,22 @@
         <v>800</v>
       </c>
       <c r="AJ247" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AK247" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL247" t="n">
         <v>12</v>
       </c>
       <c r="AM247" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN247" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO247" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP247" t="inlineStr"/>
       <c r="AQ247" t="inlineStr"/>
@@ -35751,51 +35759,51 @@
         <v>4.8</v>
       </c>
       <c r="J248" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K248" t="n">
         <v>1.98</v>
       </c>
       <c r="L248" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P248" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R248" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S248" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T248" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="U248" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V248" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W248" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X248" t="n">
         <v>1.7</v>
       </c>
       <c r="Y248" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z248" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AA248" t="n">
         <v>8.25</v>
@@ -35804,10 +35812,10 @@
         <v>15.5</v>
       </c>
       <c r="AC248" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD248" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE248" t="n">
         <v>7</v>
@@ -35825,19 +35833,19 @@
         <v>900</v>
       </c>
       <c r="AJ248" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK248" t="n">
         <v>27</v>
       </c>
       <c r="AL248" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM248" t="n">
         <v>100</v>
       </c>
       <c r="AN248" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO248" t="n">
         <v>60</v>
@@ -36020,64 +36028,64 @@
         </is>
       </c>
       <c r="G250" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J250" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L250" t="n">
         <v>2.85</v>
       </c>
-      <c r="H250" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I250" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J250" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K250" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L250" t="n">
-        <v>2.82</v>
-      </c>
       <c r="M250" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N250" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="O250" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P250" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q250" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R250" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S250" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T250" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="U250" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="V250" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="W250" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X250" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y250" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z250" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA250" t="n">
         <v>10.25</v>
@@ -36086,31 +36094,31 @@
         <v>37</v>
       </c>
       <c r="AC250" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD250" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE250" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF250" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AG250" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH250" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI250" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ250" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK250" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL250" t="n">
         <v>8.75</v>
@@ -36119,10 +36127,10 @@
         <v>23</v>
       </c>
       <c r="AN250" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO250" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP250" t="inlineStr"/>
       <c r="AQ250" t="inlineStr"/>
@@ -36305,19 +36313,19 @@
         <v>3.2</v>
       </c>
       <c r="H252" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I252" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J252" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K252" t="n">
         <v>2.2</v>
       </c>
       <c r="L252" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="M252" t="n">
         <v>1.05</v>
@@ -36338,7 +36346,7 @@
         <v>2.02</v>
       </c>
       <c r="S252" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T252" t="n">
         <v>1.42</v>
@@ -36353,13 +36361,13 @@
         <v>1.6</v>
       </c>
       <c r="X252" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y252" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z252" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA252" t="n">
         <v>11.25</v>
@@ -36368,10 +36376,10 @@
         <v>45</v>
       </c>
       <c r="AC252" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD252" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE252" t="n">
         <v>8</v>
@@ -36383,16 +36391,16 @@
         <v>12.5</v>
       </c>
       <c r="AH252" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI252" t="n">
         <v>300</v>
       </c>
       <c r="AJ252" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK252" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AL252" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1572,28 +1572,28 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
         <v>1.3</v>
@@ -1635,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>126</v>
@@ -1659,10 +1659,10 @@
         <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1844,16 +1844,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
@@ -1862,25 +1862,25 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.33</v>
@@ -1907,7 +1907,7 @@
         <v>9.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>19</v>
@@ -1931,7 +1931,7 @@
         <v>201</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1985,31 +1985,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
         <v>4.5</v>
@@ -2021,10 +2021,10 @@
         <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="T11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
         <v>1.3</v>
@@ -2042,13 +2042,13 @@
         <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="n">
         <v>41</v>
@@ -2063,7 +2063,7 @@
         <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -2702,52 +2702,52 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
         <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>2.63</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W16" t="n">
         <v>1.75</v>
@@ -2759,13 +2759,13 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
@@ -2774,16 +2774,16 @@
         <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
         <v>201</v>
@@ -2807,10 +2807,10 @@
         <v>41</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -3132,22 +3132,22 @@
         <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J19" t="n">
         <v>4.33</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
@@ -3156,31 +3156,31 @@
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3201,37 +3201,37 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL19" t="n">
         <v>8.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3279,16 +3279,16 @@
         <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>11</v>
@@ -3297,25 +3297,25 @@
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W20" t="n">
         <v>2.2</v>
@@ -3324,19 +3324,19 @@
         <v>1.62</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z20" t="n">
         <v>6</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
@@ -3348,7 +3348,7 @@
         <v>9.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
         <v>81</v>
@@ -3366,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN20" t="n">
         <v>67</v>
@@ -3415,67 +3415,67 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.25</v>
       </c>
-      <c r="H21" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L21" t="n">
-        <v>9</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V21" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
         <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>7.5</v>
@@ -3487,10 +3487,10 @@
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>23</v>
@@ -3499,7 +3499,7 @@
         <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ21" t="n">
         <v>26</v>
@@ -3514,16 +3514,16 @@
         <v>151</v>
       </c>
       <c r="AN21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO21" t="n">
         <v>67</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3844,16 +3844,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -3868,10 +3868,10 @@
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.3</v>
@@ -3892,10 +3892,10 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
@@ -3916,7 +3916,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -3925,16 +3925,16 @@
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>9.5</v>
@@ -4000,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -4009,22 +4009,22 @@
         <v>26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P25" t="n">
         <v>7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
         <v>1.18</v>
@@ -4048,7 +4048,7 @@
         <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -4126,34 +4126,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
         <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q26" t="n">
         <v>2.7</v>
@@ -4165,7 +4165,7 @@
         <v>5.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U26" t="n">
         <v>1.62</v>
@@ -4174,10 +4174,10 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y26" t="n">
         <v>5</v>
@@ -4189,7 +4189,7 @@
         <v>9.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
         <v>19</v>
@@ -4213,10 +4213,10 @@
         <v>101</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -4225,7 +4225,7 @@
         <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4275,7 +4275,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H27" t="n">
         <v>3.7</v>
@@ -4290,28 +4290,28 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
         <v>1.22</v>
@@ -4338,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
         <v>15</v>
@@ -4362,7 +4362,7 @@
         <v>501</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
         <v>34</v>
@@ -4377,7 +4377,7 @@
         <v>51</v>
       </c>
       <c r="AO27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP27" t="n">
         <v>3.3</v>
@@ -4427,76 +4427,76 @@
         <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="U28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X28" t="n">
         <v>1.5</v>
       </c>
-      <c r="V28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
         <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB28" t="n">
         <v>81</v>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD28" t="n">
         <v>67</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>8</v>
@@ -4511,34 +4511,34 @@
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM28" t="n">
         <v>10</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>41</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="29">
@@ -4579,13 +4579,13 @@
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
         <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
         <v>7</v>
@@ -4594,10 +4594,10 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P29" t="n">
         <v>2.5</v>
@@ -4612,7 +4612,7 @@
         <v>5.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U29" t="n">
         <v>1.57</v>
@@ -4645,13 +4645,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>101</v>
@@ -4666,16 +4666,16 @@
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>81</v>
       </c>
       <c r="AN29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP29" t="n">
         <v>4.3</v>
@@ -4684,10 +4684,10 @@
         <v>1.23</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="30">
@@ -4764,7 +4764,7 @@
         <v>1.08</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
         <v>2.03</v>
@@ -4863,28 +4863,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
         <v>1.62</v>
@@ -4893,40 +4893,40 @@
         <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
@@ -4938,10 +4938,10 @@
         <v>5.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
         <v>101</v>
@@ -4950,22 +4950,22 @@
         <v>101</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO31" t="n">
         <v>51</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>67</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5008,22 +5008,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
         <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
         <v>1.8</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.17</v>
@@ -5050,37 +5050,37 @@
         <v>1.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
         <v>2.03</v>
       </c>
       <c r="W32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y32" t="n">
         <v>5</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD32" t="n">
         <v>51</v>
       </c>
       <c r="AE32" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF32" t="n">
         <v>6</v>
@@ -5089,7 +5089,7 @@
         <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI32" t="n">
         <v>101</v>
@@ -5101,7 +5101,7 @@
         <v>17</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -5110,7 +5110,7 @@
         <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5195,7 +5195,7 @@
         <v>1.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
         <v>2.08</v>
@@ -5298,16 +5298,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
@@ -5355,7 +5355,7 @@
         <v>5</v>
       </c>
       <c r="Z34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA34" t="n">
         <v>10</v>
@@ -5391,7 +5391,7 @@
         <v>19</v>
       </c>
       <c r="AL34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM34" t="n">
         <v>51</v>
@@ -5596,46 +5596,46 @@
         <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L36" t="n">
         <v>4.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N36" t="n">
         <v>4.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S36" t="n">
         <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W36" t="n">
         <v>2.75</v>
       </c>
       <c r="X36" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Y36" t="n">
         <v>5.5</v>
@@ -6861,109 +6861,109 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="H45" t="n">
         <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="K45" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="L45" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="O45" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R45" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="S45" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T45" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="U45" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="V45" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="X45" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="Y45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z45" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z45" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AA45" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AB45" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AC45" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AG45" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AI45" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ45" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK45" t="n">
         <v>17</v>
       </c>
       <c r="AL45" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM45" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO45" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -7419,40 +7419,40 @@
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R49" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U49" t="n">
         <v>1.33</v>
@@ -7461,16 +7461,16 @@
         <v>3.25</v>
       </c>
       <c r="W49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA49" t="n">
         <v>10</v>
@@ -7497,7 +7497,7 @@
         <v>41</v>
       </c>
       <c r="AI49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ49" t="n">
         <v>11</v>
@@ -7515,7 +7515,7 @@
         <v>19</v>
       </c>
       <c r="AO49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP49" t="n">
         <v>2.03</v>
@@ -7558,22 +7558,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J50" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -7582,61 +7582,61 @@
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X50" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y50" t="n">
         <v>8</v>
       </c>
       <c r="Z50" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA50" t="n">
         <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
         <v>23</v>
       </c>
       <c r="AE50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
         <v>41</v>
@@ -7645,22 +7645,22 @@
         <v>201</v>
       </c>
       <c r="AJ50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK50" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO50" t="n">
         <v>41</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>34</v>
       </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
@@ -7840,13 +7840,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
         <v>2.75</v>
@@ -7855,31 +7855,31 @@
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
         <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P52" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T52" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="U52" t="n">
         <v>1.3</v>
@@ -7888,10 +7888,10 @@
         <v>3.4</v>
       </c>
       <c r="W52" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X52" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y52" t="n">
         <v>10</v>
@@ -7903,7 +7903,7 @@
         <v>9</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="n">
         <v>15</v>
@@ -7939,7 +7939,7 @@
         <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO52" t="n">
         <v>26</v>
@@ -7985,22 +7985,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K53" t="n">
         <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
@@ -8009,16 +8009,16 @@
         <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S53" t="n">
         <v>2.62</v>
@@ -8039,31 +8039,31 @@
         <v>2.25</v>
       </c>
       <c r="Y53" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA53" t="n">
         <v>10</v>
       </c>
-      <c r="Z53" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="n">
         <v>23</v>
       </c>
       <c r="AE53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF53" t="n">
         <v>6.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
         <v>41</v>
@@ -8072,10 +8072,10 @@
         <v>126</v>
       </c>
       <c r="AJ53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL53" t="n">
         <v>11</v>
@@ -8570,7 +8570,7 @@
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K57" t="n">
         <v>2.1</v>
@@ -8579,28 +8579,28 @@
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
         <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P57" t="n">
         <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U57" t="n">
         <v>1.44</v>
@@ -8666,16 +8666,16 @@
         <v>34</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="58">
@@ -8710,13 +8710,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J58" t="n">
         <v>2.75</v>
@@ -8725,31 +8725,31 @@
         <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
         <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
         <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R58" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S58" t="n">
         <v>3.25</v>
       </c>
       <c r="T58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U58" t="n">
         <v>1.4</v>
@@ -8764,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="Y58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z58" t="n">
         <v>10</v>
@@ -8782,7 +8782,7 @@
         <v>26</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF58" t="n">
         <v>6.5</v>
@@ -8791,7 +8791,7 @@
         <v>15</v>
       </c>
       <c r="AH58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="n">
         <v>201</v>
@@ -8806,10 +8806,10 @@
         <v>12</v>
       </c>
       <c r="AM58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO58" t="n">
         <v>34</v>
@@ -9443,13 +9443,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J63" t="n">
         <v>2.88</v>
@@ -9458,7 +9458,7 @@
         <v>1.95</v>
       </c>
       <c r="L63" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M63" t="n">
         <v>1.11</v>
@@ -9506,7 +9506,7 @@
         <v>9.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC63" t="n">
         <v>21</v>
@@ -9530,10 +9530,10 @@
         <v>101</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="n">
         <v>15</v>
@@ -9592,16 +9592,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I64" t="n">
         <v>3.7</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K64" t="n">
         <v>1.91</v>
@@ -9610,34 +9610,34 @@
         <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O64" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P64" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R64" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U64" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W64" t="n">
         <v>2.2</v>
@@ -9646,7 +9646,7 @@
         <v>1.58</v>
       </c>
       <c r="Y64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z64" t="n">
         <v>9</v>
@@ -9655,16 +9655,16 @@
         <v>10</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC64" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD64" t="n">
         <v>41</v>
       </c>
       <c r="AE64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF64" t="n">
         <v>6</v>
@@ -9673,7 +9673,7 @@
         <v>19</v>
       </c>
       <c r="AH64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="n">
         <v>101</v>
@@ -9685,28 +9685,28 @@
         <v>17</v>
       </c>
       <c r="AL64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
       </c>
       <c r="AN64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
       </c>
       <c r="AP64" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="65">
@@ -9882,13 +9882,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H66" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I66" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
@@ -9897,7 +9897,7 @@
         <v>1.95</v>
       </c>
       <c r="L66" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M66" t="n">
         <v>1.1</v>
@@ -9933,7 +9933,7 @@
         <v>2</v>
       </c>
       <c r="X66" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y66" t="n">
         <v>8.5</v>
@@ -9954,16 +9954,16 @@
         <v>41</v>
       </c>
       <c r="AE66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG66" t="n">
         <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI66" t="n">
         <v>351</v>
@@ -9978,21 +9978,21 @@
         <v>10</v>
       </c>
       <c r="AM66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN66" t="n">
         <v>21</v>
       </c>
       <c r="AO66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
       <c r="AR66" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="67">
@@ -10168,55 +10168,55 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I68" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K68" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L68" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="M68" t="n">
         <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O68" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P68" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R68" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S68" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T68" t="n">
         <v>1.34</v>
       </c>
       <c r="U68" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V68" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W68" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X68" t="n">
         <v>2.02</v>
@@ -10225,25 +10225,25 @@
         <v>10</v>
       </c>
       <c r="Z68" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC68" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD68" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF68" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG68" t="n">
         <v>14.5</v>
@@ -10255,22 +10255,22 @@
         <v>500</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AK68" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AL68" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN68" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
@@ -10732,82 +10732,82 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I72" t="n">
         <v>21</v>
       </c>
       <c r="J72" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K72" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L72" t="n">
         <v>15</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O72" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="P72" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="R72" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="S72" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U72" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="V72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W72" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X72" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA72" t="n">
         <v>12</v>
       </c>
-      <c r="Z72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>13</v>
-      </c>
       <c r="AB72" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC72" t="n">
         <v>12</v>
       </c>
       <c r="AD72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE72" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF72" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG72" t="n">
         <v>41</v>
@@ -11014,34 +11014,34 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J74" t="n">
         <v>3.2</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L74" t="n">
         <v>3.75</v>
       </c>
       <c r="M74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O74" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P74" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q74" t="n">
         <v>2.35</v>
@@ -11053,7 +11053,7 @@
         <v>4.33</v>
       </c>
       <c r="T74" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U74" t="n">
         <v>1.53</v>
@@ -11062,16 +11062,16 @@
         <v>2.38</v>
       </c>
       <c r="W74" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X74" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y74" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA74" t="n">
         <v>10</v>
@@ -11086,25 +11086,25 @@
         <v>34</v>
       </c>
       <c r="AE74" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF74" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH74" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI74" t="n">
         <v>351</v>
       </c>
       <c r="AJ74" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL74" t="n">
         <v>12</v>
@@ -11120,8 +11120,12 @@
       </c>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11173,13 +11177,13 @@
         <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P75" t="n">
         <v>2.75</v>
@@ -11191,10 +11195,10 @@
         <v>1.62</v>
       </c>
       <c r="S75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U75" t="n">
         <v>1.5</v>
@@ -11203,10 +11207,10 @@
         <v>2.5</v>
       </c>
       <c r="W75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y75" t="n">
         <v>7</v>
@@ -11314,13 +11318,13 @@
         <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
         <v>8.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P76" t="n">
         <v>3.25</v>
@@ -11335,7 +11339,7 @@
         <v>3.75</v>
       </c>
       <c r="T76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U76" t="n">
         <v>1.44</v>
@@ -11344,10 +11348,10 @@
         <v>2.63</v>
       </c>
       <c r="W76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -11717,97 +11721,97 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H79" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J79" t="n">
         <v>2.32</v>
       </c>
       <c r="K79" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L79" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N79" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R79" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="S79" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T79" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U79" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V79" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W79" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="X79" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="Y79" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="Z79" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AB79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE79" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AF79" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH79" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK79" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL79" t="n">
         <v>15</v>
@@ -11819,7 +11823,7 @@
         <v>50</v>
       </c>
       <c r="AO79" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP79" t="inlineStr"/>
       <c r="AQ79" t="inlineStr"/>
@@ -14898,7 +14902,7 @@
         <v>1.42</v>
       </c>
       <c r="H101" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I101" t="n">
         <v>7</v>
@@ -14913,7 +14917,7 @@
         <v>8</v>
       </c>
       <c r="M101" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N101" t="n">
         <v>10</v>
@@ -14922,19 +14926,19 @@
         <v>1.33</v>
       </c>
       <c r="P101" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R101" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S101" t="n">
         <v>3.75</v>
       </c>
       <c r="T101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U101" t="n">
         <v>1.44</v>
@@ -14943,10 +14947,10 @@
         <v>2.63</v>
       </c>
       <c r="W101" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X101" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y101" t="n">
         <v>5.5</v>
@@ -14964,13 +14968,13 @@
         <v>15</v>
       </c>
       <c r="AD101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG101" t="n">
         <v>26</v>
@@ -14988,13 +14992,13 @@
         <v>34</v>
       </c>
       <c r="AL101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM101" t="n">
         <v>81</v>
       </c>
       <c r="AN101" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO101" t="n">
         <v>67</v>
@@ -15459,22 +15463,22 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H105" t="n">
         <v>3.5</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K105" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L105" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M105" t="n">
         <v>1.04</v>
@@ -15483,22 +15487,22 @@
         <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P105" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R105" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S105" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T105" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U105" t="n">
         <v>1.36</v>
@@ -15516,10 +15520,10 @@
         <v>9</v>
       </c>
       <c r="Z105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB105" t="n">
         <v>21</v>
@@ -15528,13 +15532,13 @@
         <v>17</v>
       </c>
       <c r="AD105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE105" t="n">
         <v>12</v>
       </c>
       <c r="AF105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG105" t="n">
         <v>13</v>
@@ -15549,13 +15553,13 @@
         <v>11</v>
       </c>
       <c r="AK105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM105" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN105" t="n">
         <v>23</v>
@@ -16603,52 +16607,52 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H113" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I113" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J113" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K113" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L113" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M113" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N113" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P113" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R113" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S113" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T113" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U113" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V113" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W113" t="n">
         <v>2.05</v>
@@ -16660,25 +16664,25 @@
         <v>6</v>
       </c>
       <c r="Z113" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE113" t="n">
         <v>9</v>
       </c>
-      <c r="AB113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>8</v>
-      </c>
       <c r="AF113" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG113" t="n">
         <v>19</v>
@@ -16690,10 +16694,10 @@
         <v>451</v>
       </c>
       <c r="AJ113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL113" t="n">
         <v>17</v>
@@ -16708,10 +16712,10 @@
         <v>51</v>
       </c>
       <c r="AP113" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AR113" t="n">
         <v>1.78</v>
@@ -16752,13 +16756,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H114" t="n">
         <v>2.9</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J114" t="n">
         <v>3.4</v>
@@ -16770,10 +16774,10 @@
         <v>3.75</v>
       </c>
       <c r="M114" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O114" t="n">
         <v>1.44</v>
@@ -16806,7 +16810,7 @@
         <v>1.7</v>
       </c>
       <c r="Y114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z114" t="n">
         <v>11</v>
@@ -16818,7 +16822,7 @@
         <v>26</v>
       </c>
       <c r="AC114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD114" t="n">
         <v>41</v>
@@ -16848,7 +16852,7 @@
         <v>12</v>
       </c>
       <c r="AM114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN114" t="n">
         <v>29</v>
@@ -17187,10 +17191,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I117" t="n">
         <v>3.2</v>
@@ -17217,28 +17221,28 @@
         <v>3.4</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R117" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S117" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T117" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U117" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W117" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X117" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y117" t="n">
         <v>8</v>
@@ -17259,7 +17263,7 @@
         <v>29</v>
       </c>
       <c r="AE117" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF117" t="n">
         <v>6</v>
@@ -17268,16 +17272,16 @@
         <v>13</v>
       </c>
       <c r="AH117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI117" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ117" t="n">
         <v>10</v>
       </c>
       <c r="AK117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL117" t="n">
         <v>12</v>
@@ -18195,7 +18199,7 @@
         <v>1.06</v>
       </c>
       <c r="N124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O124" t="n">
         <v>1.3</v>
@@ -18204,16 +18208,16 @@
         <v>3.4</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="R124" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="S124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T124" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U124" t="n">
         <v>1.44</v>
@@ -18222,7 +18226,7 @@
         <v>2.63</v>
       </c>
       <c r="W124" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X124" t="n">
         <v>2</v>
@@ -18363,7 +18367,7 @@
         <v>3.4</v>
       </c>
       <c r="W125" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X125" t="n">
         <v>2.2</v>
@@ -21050,7 +21054,7 @@
         <v>4</v>
       </c>
       <c r="K144" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L144" t="n">
         <v>2.5</v>
@@ -21059,25 +21063,25 @@
         <v>1.03</v>
       </c>
       <c r="N144" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O144" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P144" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R144" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S144" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T144" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U144" t="n">
         <v>1.3</v>
@@ -21143,10 +21147,10 @@
         <v>21</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR144" t="inlineStr"/>
       <c r="AS144" t="inlineStr"/>
@@ -21342,28 +21346,28 @@
         <v>6</v>
       </c>
       <c r="M146" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N146" t="n">
         <v>15</v>
       </c>
       <c r="O146" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P146" t="n">
         <v>4.5</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R146" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S146" t="n">
         <v>2.5</v>
       </c>
       <c r="T146" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U146" t="n">
         <v>1.3</v>
@@ -21429,10 +21433,10 @@
         <v>41</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR146" t="inlineStr"/>
       <c r="AS146" t="inlineStr"/>
@@ -21487,13 +21491,13 @@
         <v>3.75</v>
       </c>
       <c r="M147" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N147" t="n">
         <v>11</v>
       </c>
       <c r="O147" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P147" t="n">
         <v>3.5</v>
@@ -21508,7 +21512,7 @@
         <v>3.25</v>
       </c>
       <c r="T147" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U147" t="n">
         <v>1.4</v>
@@ -22013,28 +22017,28 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H151" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I151" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J151" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K151" t="n">
         <v>1.91</v>
       </c>
       <c r="L151" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M151" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O151" t="n">
         <v>1.5</v>
@@ -22103,10 +22107,10 @@
         <v>6.5</v>
       </c>
       <c r="AK151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM151" t="n">
         <v>23</v>
@@ -22120,10 +22124,10 @@
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
       <c r="AR151" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="152">
@@ -22158,31 +22162,31 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H152" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J152" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K152" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L152" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M152" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N152" t="n">
         <v>7</v>
       </c>
       <c r="O152" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P152" t="n">
         <v>2.5</v>
@@ -22197,37 +22201,37 @@
         <v>5</v>
       </c>
       <c r="T152" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X152" t="n">
         <v>1.57</v>
       </c>
-      <c r="V152" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W152" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X152" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z152" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB152" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC152" t="n">
         <v>41</v>
       </c>
-      <c r="AC152" t="n">
-        <v>34</v>
-      </c>
       <c r="AD152" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE152" t="n">
         <v>7</v>
@@ -22248,16 +22252,16 @@
         <v>5.5</v>
       </c>
       <c r="AK152" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AL152" t="n">
         <v>9.5</v>
       </c>
       <c r="AM152" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN152" t="n">
         <v>19</v>
-      </c>
-      <c r="AN152" t="n">
-        <v>21</v>
       </c>
       <c r="AO152" t="n">
         <v>41</v>
@@ -22448,31 +22452,31 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H154" t="n">
         <v>3.1</v>
       </c>
       <c r="I154" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J154" t="n">
         <v>3.4</v>
       </c>
       <c r="K154" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N154" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O154" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P154" t="n">
         <v>2.75</v>
@@ -22487,22 +22491,22 @@
         <v>4.33</v>
       </c>
       <c r="T154" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U154" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V154" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W154" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X154" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y154" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z154" t="n">
         <v>12</v>
@@ -22538,16 +22542,16 @@
         <v>7.5</v>
       </c>
       <c r="AK154" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL154" t="n">
         <v>11</v>
       </c>
       <c r="AM154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN154" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO154" t="n">
         <v>41</v>
@@ -22611,13 +22615,13 @@
         <v>2.25</v>
       </c>
       <c r="M155" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
         <v>8</v>
       </c>
       <c r="O155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P155" t="n">
         <v>3.25</v>
@@ -22632,7 +22636,7 @@
         <v>3.75</v>
       </c>
       <c r="T155" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U155" t="n">
         <v>1.44</v>
@@ -22737,16 +22741,16 @@
         <v>2.25</v>
       </c>
       <c r="H156" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J156" t="n">
         <v>3</v>
       </c>
       <c r="K156" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L156" t="n">
         <v>3.75</v>
@@ -22758,22 +22762,22 @@
         <v>10</v>
       </c>
       <c r="O156" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P156" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S156" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T156" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U156" t="n">
         <v>1.44</v>
@@ -22782,13 +22786,13 @@
         <v>2.63</v>
       </c>
       <c r="W156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X156" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z156" t="n">
         <v>11</v>
@@ -22806,10 +22810,10 @@
         <v>29</v>
       </c>
       <c r="AE156" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF156" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG156" t="n">
         <v>15</v>
@@ -22827,7 +22831,7 @@
         <v>15</v>
       </c>
       <c r="AL156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM156" t="n">
         <v>34</v>
@@ -22839,16 +22843,16 @@
         <v>34</v>
       </c>
       <c r="AP156" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AR156" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="157">
@@ -22883,16 +22887,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H157" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I157" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J157" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
@@ -22901,13 +22905,13 @@
         <v>5.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N157" t="n">
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P157" t="n">
         <v>3.5</v>
@@ -22922,7 +22926,7 @@
         <v>3.4</v>
       </c>
       <c r="T157" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U157" t="n">
         <v>1.4</v>
@@ -22946,10 +22950,10 @@
         <v>8.5</v>
       </c>
       <c r="AB157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD157" t="n">
         <v>29</v>
@@ -22961,7 +22965,7 @@
         <v>7.5</v>
       </c>
       <c r="AG157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH157" t="n">
         <v>51</v>
@@ -22970,13 +22974,13 @@
         <v>351</v>
       </c>
       <c r="AJ157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL157" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM157" t="n">
         <v>51</v>
@@ -23050,10 +23054,10 @@
         <v>3.25</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N158" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O158" t="n">
         <v>1.25</v>
@@ -23062,10 +23066,10 @@
         <v>3.75</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S158" t="n">
         <v>3</v>
@@ -23074,13 +23078,13 @@
         <v>1.36</v>
       </c>
       <c r="U158" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V158" t="n">
         <v>3</v>
       </c>
       <c r="W158" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X158" t="n">
         <v>2.1</v>
@@ -23137,16 +23141,16 @@
         <v>26</v>
       </c>
       <c r="AP158" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AR158" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS158" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="159">
@@ -23181,7 +23185,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>3.25</v>
@@ -23199,22 +23203,22 @@
         <v>3.6</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O159" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P159" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S159" t="n">
         <v>3.4</v>
@@ -23223,13 +23227,13 @@
         <v>1.3</v>
       </c>
       <c r="U159" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V159" t="n">
         <v>2.75</v>
       </c>
       <c r="W159" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X159" t="n">
         <v>2</v>
@@ -23286,16 +23290,16 @@
         <v>34</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR159" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="160">
@@ -23616,22 +23620,22 @@
         </is>
       </c>
       <c r="G162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.8</v>
       </c>
-      <c r="H162" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I162" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="J162" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K162" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L162" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M162" t="n">
         <v>1.04</v>
@@ -23646,58 +23650,58 @@
         <v>4</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X162" t="n">
         <v>2</v>
-      </c>
-      <c r="S162" t="n">
-        <v>3</v>
-      </c>
-      <c r="T162" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U162" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V162" t="n">
-        <v>3</v>
-      </c>
-      <c r="W162" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X162" t="n">
-        <v>2.05</v>
       </c>
       <c r="Y162" t="n">
         <v>13</v>
       </c>
       <c r="Z162" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA162" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE162" t="n">
         <v>13</v>
       </c>
-      <c r="AB162" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC162" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD162" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE162" t="n">
-        <v>12</v>
-      </c>
       <c r="AF162" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG162" t="n">
         <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI162" t="n">
         <v>201</v>
@@ -23706,16 +23710,16 @@
         <v>8</v>
       </c>
       <c r="AK162" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL162" t="n">
         <v>8.5</v>
       </c>
       <c r="AM162" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN162" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO162" t="n">
         <v>23</v>
@@ -24039,13 +24043,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I165" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="J165" t="n">
         <v>4.5</v>
@@ -24063,16 +24067,16 @@
         <v>11</v>
       </c>
       <c r="O165" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R165" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S165" t="n">
         <v>3.4</v>
@@ -24096,7 +24100,7 @@
         <v>11</v>
       </c>
       <c r="Z165" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA165" t="n">
         <v>13</v>
@@ -24105,13 +24109,13 @@
         <v>41</v>
       </c>
       <c r="AC165" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD165" t="n">
         <v>41</v>
       </c>
       <c r="AE165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF165" t="n">
         <v>7</v>
@@ -24132,7 +24136,7 @@
         <v>9</v>
       </c>
       <c r="AL165" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM165" t="n">
         <v>15</v>
@@ -24325,7 +24329,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H167" t="n">
         <v>8</v>
@@ -24343,13 +24347,13 @@
         <v>15</v>
       </c>
       <c r="M167" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N167" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O167" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P167" t="n">
         <v>6</v>
@@ -24361,10 +24365,10 @@
         <v>2.7</v>
       </c>
       <c r="S167" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T167" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U167" t="n">
         <v>1.22</v>
@@ -24373,13 +24377,13 @@
         <v>4</v>
       </c>
       <c r="W167" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X167" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y167" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z167" t="n">
         <v>6.5</v>
@@ -24406,7 +24410,7 @@
         <v>34</v>
       </c>
       <c r="AH167" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI167" t="n">
         <v>501</v>
@@ -24469,7 +24473,7 @@
         <v>2.1</v>
       </c>
       <c r="H168" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I168" t="n">
         <v>3.4</v>
@@ -24484,40 +24488,40 @@
         <v>4</v>
       </c>
       <c r="M168" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N168" t="n">
         <v>11</v>
       </c>
       <c r="O168" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P168" t="n">
         <v>3.75</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R168" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S168" t="n">
         <v>3.25</v>
       </c>
       <c r="T168" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U168" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V168" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W168" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X168" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y168" t="n">
         <v>8</v>
@@ -24556,7 +24560,7 @@
         <v>11</v>
       </c>
       <c r="AK168" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL168" t="n">
         <v>12</v>
@@ -25171,40 +25175,40 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H173" t="n">
         <v>3.25</v>
       </c>
       <c r="I173" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J173" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K173" t="n">
         <v>2.1</v>
       </c>
       <c r="L173" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M173" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P173" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q173" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R173" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S173" t="n">
         <v>3.75</v>
@@ -25219,16 +25223,16 @@
         <v>2.63</v>
       </c>
       <c r="W173" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X173" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y173" t="n">
         <v>7</v>
       </c>
       <c r="Z173" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA173" t="n">
         <v>9</v>
@@ -25243,7 +25247,7 @@
         <v>29</v>
       </c>
       <c r="AE173" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF173" t="n">
         <v>6.5</v>
@@ -25255,7 +25259,7 @@
         <v>51</v>
       </c>
       <c r="AI173" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ173" t="n">
         <v>10</v>
@@ -25270,7 +25274,7 @@
         <v>41</v>
       </c>
       <c r="AN173" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO173" t="n">
         <v>41</v>
@@ -26017,46 +26021,46 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>3.8</v>
       </c>
       <c r="I179" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J179" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K179" t="n">
         <v>2.5</v>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M179" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N179" t="n">
         <v>12</v>
       </c>
       <c r="O179" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P179" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R179" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S179" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T179" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U179" t="n">
         <v>1.22</v>
@@ -26065,13 +26069,13 @@
         <v>4</v>
       </c>
       <c r="W179" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X179" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y179" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z179" t="n">
         <v>21</v>
@@ -26083,43 +26087,43 @@
         <v>34</v>
       </c>
       <c r="AC179" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD179" t="n">
         <v>21</v>
       </c>
       <c r="AE179" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG179" t="n">
         <v>11</v>
       </c>
       <c r="AH179" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI179" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ179" t="n">
         <v>15</v>
       </c>
       <c r="AK179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL179" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM179" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN179" t="n">
         <v>15</v>
       </c>
       <c r="AO179" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="inlineStr"/>
@@ -30309,10 +30313,10 @@
         <v>2.75</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R209" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S209" t="n">
         <v>4</v>
@@ -30420,46 +30424,46 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H210" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I210" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J210" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K210" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L210" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M210" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N210" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O210" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P210" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q210" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R210" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="S210" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T210" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U210" t="n">
         <v>1.44</v>
@@ -30471,28 +30475,28 @@
         <v>1.8</v>
       </c>
       <c r="X210" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y210" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA210" t="n">
         <v>10</v>
       </c>
       <c r="AB210" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC210" t="n">
         <v>21</v>
       </c>
       <c r="AD210" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE210" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF210" t="n">
         <v>6.5</v>
@@ -30504,7 +30508,7 @@
         <v>51</v>
       </c>
       <c r="AI210" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ210" t="n">
         <v>8.5</v>
@@ -30513,16 +30517,16 @@
         <v>13</v>
       </c>
       <c r="AL210" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM210" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN210" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO210" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP210" t="inlineStr"/>
       <c r="AQ210" t="inlineStr"/>
@@ -30565,16 +30569,16 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H211" t="n">
         <v>3.8</v>
       </c>
       <c r="I211" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J211" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K211" t="n">
         <v>2.25</v>
@@ -30583,10 +30587,10 @@
         <v>5</v>
       </c>
       <c r="M211" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N211" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O211" t="n">
         <v>1.25</v>
@@ -30622,7 +30626,7 @@
         <v>7.5</v>
       </c>
       <c r="Z211" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA211" t="n">
         <v>8.5</v>
@@ -30634,10 +30638,10 @@
         <v>13</v>
       </c>
       <c r="AD211" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE211" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF211" t="n">
         <v>7.5</v>
@@ -30649,13 +30653,13 @@
         <v>51</v>
       </c>
       <c r="AI211" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ211" t="n">
         <v>13</v>
       </c>
       <c r="AK211" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL211" t="n">
         <v>15</v>
@@ -30706,13 +30710,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H212" t="n">
         <v>4.2</v>
       </c>
       <c r="I212" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J212" t="n">
         <v>2.1</v>
@@ -30721,19 +30725,19 @@
         <v>2.3</v>
       </c>
       <c r="L212" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M212" t="n">
         <v>1.04</v>
       </c>
       <c r="N212" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O212" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P212" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q212" t="n">
         <v>1.75</v>
@@ -30742,10 +30746,10 @@
         <v>2.05</v>
       </c>
       <c r="S212" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T212" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U212" t="n">
         <v>1.36</v>
@@ -30760,7 +30764,7 @@
         <v>1.83</v>
       </c>
       <c r="Y212" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z212" t="n">
         <v>7.5</v>
@@ -30847,28 +30851,28 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I213" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="n">
         <v>3.5</v>
       </c>
       <c r="K213" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L213" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M213" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O213" t="n">
         <v>1.14</v>
@@ -30877,34 +30881,34 @@
         <v>5.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R213" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S213" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T213" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U213" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V213" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W213" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X213" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y213" t="n">
         <v>15</v>
       </c>
       <c r="Z213" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA213" t="n">
         <v>12</v>
@@ -30922,7 +30926,7 @@
         <v>19</v>
       </c>
       <c r="AF213" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG213" t="n">
         <v>12</v>
@@ -30943,7 +30947,7 @@
         <v>9</v>
       </c>
       <c r="AM213" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN213" t="n">
         <v>15</v>
@@ -30952,10 +30956,10 @@
         <v>19</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ213" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR213" t="inlineStr"/>
       <c r="AS213" t="inlineStr"/>
@@ -33671,85 +33675,85 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H233" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="I233" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="J233" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K233" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L233" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="M233" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N233" t="n">
+        <v>15</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P233" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>126</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF233" t="n">
         <v>11</v>
       </c>
-      <c r="O233" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P233" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R233" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S233" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T233" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U233" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V233" t="n">
-        <v>3</v>
-      </c>
-      <c r="W233" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X233" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB233" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC233" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD233" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG233" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH233" t="n">
         <v>81</v>
@@ -33758,19 +33762,19 @@
         <v>351</v>
       </c>
       <c r="AJ233" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK233" t="n">
         <v>6</v>
       </c>
       <c r="AL233" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM233" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AN233" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO233" t="n">
         <v>34</v>
@@ -33845,7 +33849,7 @@
         <v>2.5</v>
       </c>
       <c r="R234" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S234" t="n">
         <v>5</v>
@@ -33863,7 +33867,7 @@
         <v>2.2</v>
       </c>
       <c r="X234" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y234" t="n">
         <v>5.5</v>
@@ -33975,10 +33979,10 @@
         <v>4.33</v>
       </c>
       <c r="M235" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N235" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O235" t="n">
         <v>1.2</v>
@@ -34005,7 +34009,7 @@
         <v>3.25</v>
       </c>
       <c r="W235" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X235" t="n">
         <v>2.1</v>
@@ -34150,7 +34154,7 @@
         <v>3.5</v>
       </c>
       <c r="W236" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X236" t="n">
         <v>2.1</v>
@@ -34247,19 +34251,19 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H237" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I237" t="n">
         <v>5.5</v>
       </c>
       <c r="J237" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K237" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L237" t="n">
         <v>5.5</v>
@@ -34268,7 +34272,7 @@
         <v>1.03</v>
       </c>
       <c r="N237" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O237" t="n">
         <v>1.18</v>
@@ -34289,22 +34293,22 @@
         <v>1.5</v>
       </c>
       <c r="U237" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V237" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W237" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X237" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y237" t="n">
         <v>8.5</v>
       </c>
       <c r="Z237" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA237" t="n">
         <v>8.5</v>
@@ -34313,31 +34317,31 @@
         <v>11</v>
       </c>
       <c r="AC237" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD237" t="n">
         <v>21</v>
       </c>
       <c r="AE237" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG237" t="n">
         <v>17</v>
       </c>
-      <c r="AF237" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG237" t="n">
-        <v>15</v>
-      </c>
       <c r="AH237" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI237" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ237" t="n">
         <v>17</v>
       </c>
       <c r="AK237" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL237" t="n">
         <v>17</v>
@@ -34392,46 +34396,46 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H238" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I238" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J238" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K238" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L238" t="n">
         <v>4.33</v>
       </c>
       <c r="M238" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N238" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O238" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P238" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q238" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R238" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="S238" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T238" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U238" t="n">
         <v>1.36</v>
@@ -34440,13 +34444,13 @@
         <v>3</v>
       </c>
       <c r="W238" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X238" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y238" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z238" t="n">
         <v>9.5</v>
@@ -34455,7 +34459,7 @@
         <v>8.5</v>
       </c>
       <c r="AB238" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC238" t="n">
         <v>15</v>
@@ -34464,10 +34468,10 @@
         <v>23</v>
       </c>
       <c r="AE238" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF238" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG238" t="n">
         <v>13</v>
@@ -34476,10 +34480,10 @@
         <v>41</v>
       </c>
       <c r="AI238" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ238" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK238" t="n">
         <v>21</v>
@@ -34537,22 +34541,22 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H239" t="n">
         <v>3.6</v>
       </c>
       <c r="I239" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J239" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K239" t="n">
         <v>2.2</v>
       </c>
       <c r="L239" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M239" t="n">
         <v>1.05</v>
@@ -34567,16 +34571,16 @@
         <v>3.75</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R239" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="S239" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T239" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U239" t="n">
         <v>1.36</v>
@@ -34585,16 +34589,16 @@
         <v>3</v>
       </c>
       <c r="W239" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X239" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y239" t="n">
         <v>8</v>
       </c>
       <c r="Z239" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA239" t="n">
         <v>8.5</v>
@@ -34630,7 +34634,7 @@
         <v>19</v>
       </c>
       <c r="AL239" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM239" t="n">
         <v>41</v>
@@ -34682,10 +34686,10 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H240" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I240" t="n">
         <v>5.25</v>
@@ -34700,28 +34704,28 @@
         <v>5</v>
       </c>
       <c r="M240" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N240" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O240" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P240" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q240" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R240" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S240" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T240" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U240" t="n">
         <v>1.25</v>
@@ -34730,7 +34734,7 @@
         <v>3.75</v>
       </c>
       <c r="W240" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X240" t="n">
         <v>2.25</v>
@@ -34739,13 +34743,13 @@
         <v>10</v>
       </c>
       <c r="Z240" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA240" t="n">
         <v>8.5</v>
       </c>
       <c r="AB240" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC240" t="n">
         <v>11</v>
@@ -34781,16 +34785,16 @@
         <v>51</v>
       </c>
       <c r="AN240" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO240" t="n">
         <v>34</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="AR240" t="inlineStr"/>
       <c r="AS240" t="inlineStr"/>
@@ -34830,10 +34834,10 @@
         <v>1.57</v>
       </c>
       <c r="H241" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I241" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J241" t="n">
         <v>2.1</v>
@@ -34842,13 +34846,13 @@
         <v>2.4</v>
       </c>
       <c r="L241" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M241" t="n">
         <v>1.03</v>
       </c>
       <c r="N241" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O241" t="n">
         <v>1.18</v>
@@ -34869,19 +34873,19 @@
         <v>1.5</v>
       </c>
       <c r="U241" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V241" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W241" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X241" t="n">
         <v>2.05</v>
       </c>
       <c r="Y241" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z241" t="n">
         <v>8.5</v>
@@ -34899,10 +34903,10 @@
         <v>21</v>
       </c>
       <c r="AE241" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF241" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG241" t="n">
         <v>15</v>
@@ -34920,7 +34924,7 @@
         <v>29</v>
       </c>
       <c r="AL241" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM241" t="n">
         <v>51</v>
@@ -34929,13 +34933,13 @@
         <v>41</v>
       </c>
       <c r="AO241" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AR241" t="inlineStr"/>
       <c r="AS241" t="inlineStr"/>
@@ -34972,16 +34976,16 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H242" t="n">
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J242" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K242" t="n">
         <v>2.3</v>
@@ -34996,22 +35000,22 @@
         <v>15</v>
       </c>
       <c r="O242" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P242" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R242" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S242" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T242" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U242" t="n">
         <v>1.33</v>
@@ -35117,13 +35121,13 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H243" t="n">
         <v>3.5</v>
       </c>
       <c r="I243" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J243" t="n">
         <v>2.5</v>
@@ -35165,13 +35169,13 @@
         <v>3</v>
       </c>
       <c r="W243" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X243" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y243" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z243" t="n">
         <v>9.5</v>
@@ -35180,7 +35184,7 @@
         <v>8.5</v>
       </c>
       <c r="AB243" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC243" t="n">
         <v>15</v>
@@ -35192,7 +35196,7 @@
         <v>12</v>
       </c>
       <c r="AF243" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG243" t="n">
         <v>13</v>
@@ -35207,16 +35211,16 @@
         <v>13</v>
       </c>
       <c r="AK243" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL243" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM243" t="n">
         <v>41</v>
       </c>
       <c r="AN243" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO243" t="n">
         <v>34</v>
@@ -35280,13 +35284,13 @@
         <v>4</v>
       </c>
       <c r="M244" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N244" t="n">
         <v>13</v>
       </c>
       <c r="O244" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P244" t="n">
         <v>4.33</v>
@@ -35298,10 +35302,10 @@
         <v>2.1</v>
       </c>
       <c r="S244" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T244" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U244" t="n">
         <v>1.33</v>
@@ -35410,43 +35414,43 @@
         <v>1.85</v>
       </c>
       <c r="H245" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J245" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K245" t="n">
         <v>2.5</v>
       </c>
       <c r="L245" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M245" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N245" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O245" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P245" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q245" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R245" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S245" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T245" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U245" t="n">
         <v>1.25</v>
@@ -35455,19 +35459,19 @@
         <v>3.75</v>
       </c>
       <c r="W245" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X245" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y245" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z245" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA245" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB245" t="n">
         <v>17</v>
@@ -35479,10 +35483,10 @@
         <v>19</v>
       </c>
       <c r="AE245" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF245" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG245" t="n">
         <v>12</v>
@@ -35506,13 +35510,17 @@
         <v>41</v>
       </c>
       <c r="AN245" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO245" t="n">
         <v>26</v>
       </c>
-      <c r="AP245" t="inlineStr"/>
-      <c r="AQ245" t="inlineStr"/>
+      <c r="AP245" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.94</v>
+      </c>
       <c r="AR245" t="inlineStr"/>
       <c r="AS245" t="inlineStr"/>
     </row>
@@ -35548,22 +35556,22 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H246" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I246" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J246" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K246" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L246" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
@@ -35574,7 +35582,7 @@
         <v>2.57</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R246" t="n">
         <v>1.57</v>
@@ -35586,67 +35594,67 @@
         <v>1.21</v>
       </c>
       <c r="U246" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V246" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W246" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X246" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y246" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z246" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA246" t="n">
         <v>11.25</v>
       </c>
       <c r="AB246" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC246" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD246" t="n">
         <v>45</v>
       </c>
       <c r="AE246" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF246" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG246" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH246" t="n">
         <v>90</v>
       </c>
       <c r="AI246" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ246" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AK246" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AL246" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM246" t="n">
         <v>22</v>
       </c>
       <c r="AN246" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO246" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP246" t="inlineStr"/>
       <c r="AQ246" t="inlineStr"/>
@@ -35822,51 +35830,51 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I248" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="J248" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="K248" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L248" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P248" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R248" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S248" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T248" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="U248" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V248" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="W248" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X248" t="n">
         <v>1.65</v>
@@ -35875,52 +35883,52 @@
         <v>5.5</v>
       </c>
       <c r="Z248" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AA248" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB248" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC248" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AD248" t="n">
         <v>35</v>
       </c>
       <c r="AE248" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AF248" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AG248" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH248" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI248" t="n">
         <v>900</v>
       </c>
       <c r="AJ248" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK248" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AL248" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM248" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN248" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO248" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AP248" t="inlineStr"/>
       <c r="AQ248" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
@@ -1991,7 +1991,7 @@
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J11" t="n">
         <v>5.5</v>
@@ -2003,28 +2003,28 @@
         <v>2.05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S11" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U11" t="n">
         <v>1.3</v>
@@ -2033,10 +2033,10 @@
         <v>3.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y11" t="n">
         <v>17</v>
@@ -2066,34 +2066,34 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>201</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL11" t="n">
         <v>8.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -3279,7 +3279,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K20" t="n">
         <v>2.5</v>
@@ -3300,10 +3300,10 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S20" t="n">
         <v>3</v>
@@ -3321,10 +3321,10 @@
         <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
         <v>6</v>
@@ -3333,7 +3333,7 @@
         <v>9.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC20" t="n">
         <v>12</v>
@@ -3994,10 +3994,10 @@
         <v>1.22</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.57</v>
@@ -4009,22 +4009,22 @@
         <v>26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R25" t="n">
         <v>3.5</v>
       </c>
       <c r="S25" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>1.18</v>
@@ -4126,16 +4126,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
@@ -4144,19 +4144,19 @@
         <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
         <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R26" t="n">
         <v>1.44</v>
@@ -4165,7 +4165,7 @@
         <v>5.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U26" t="n">
         <v>1.62</v>
@@ -4183,25 +4183,25 @@
         <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA26" t="n">
         <v>9.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
       </c>
       <c r="AE26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF26" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>23</v>
@@ -4213,13 +4213,13 @@
         <v>101</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>51</v>
@@ -4231,16 +4231,16 @@
         <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AR26" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="27">
@@ -4275,31 +4275,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H27" t="n">
         <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4311,34 +4311,34 @@
         <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
         <v>1.22</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V27" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W27" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="X27" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
         <v>15</v>
@@ -4347,49 +4347,49 @@
         <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF27" t="n">
         <v>7</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI27" t="n">
         <v>501</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO27" t="n">
         <v>51</v>
       </c>
-      <c r="AO27" t="n">
-        <v>67</v>
-      </c>
       <c r="AP27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="28">
@@ -4424,103 +4424,103 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.5</v>
       </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V28" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC28" t="n">
         <v>81</v>
       </c>
-      <c r="AC28" t="n">
-        <v>67</v>
-      </c>
       <c r="AD28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="n">
         <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AL28" t="n">
         <v>9.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>17</v>
@@ -4529,16 +4529,16 @@
         <v>41</v>
       </c>
       <c r="AP28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="29">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
@@ -4594,10 +4594,10 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
         <v>2.5</v>
@@ -4612,10 +4612,10 @@
         <v>5.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V29" t="n">
         <v>2.25</v>
@@ -4645,7 +4645,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
@@ -4660,22 +4660,22 @@
         <v>501</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
         <v>81</v>
       </c>
       <c r="AN29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO29" t="n">
         <v>67</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>81</v>
       </c>
       <c r="AP29" t="n">
         <v>4.3</v>
@@ -4731,7 +4731,7 @@
         <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>1.8</v>
@@ -4755,7 +4755,7 @@
         <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
         <v>8</v>
@@ -4764,7 +4764,7 @@
         <v>1.08</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
         <v>2.03</v>
@@ -4782,7 +4782,7 @@
         <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
@@ -4821,7 +4821,7 @@
         <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO30" t="n">
         <v>51</v>
@@ -4863,22 +4863,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>1.83</v>
       </c>
       <c r="L31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>1.13</v>
@@ -4896,7 +4896,7 @@
         <v>3.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
         <v>6.5</v>
@@ -4920,16 +4920,16 @@
         <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
         <v>41</v>
@@ -4953,13 +4953,13 @@
         <v>7.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>41</v>
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>1.8</v>
@@ -5029,7 +5029,7 @@
         <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O32" t="n">
         <v>1.73</v>
@@ -5041,7 +5041,7 @@
         <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
         <v>8</v>
@@ -5050,7 +5050,7 @@
         <v>1.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V32" t="n">
         <v>2.03</v>
@@ -5062,25 +5062,25 @@
         <v>1.44</v>
       </c>
       <c r="Y32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB32" t="n">
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD32" t="n">
         <v>51</v>
       </c>
       <c r="AE32" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF32" t="n">
         <v>6</v>
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>2.63</v>
       </c>
       <c r="I33" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -5168,13 +5168,13 @@
         <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M33" t="n">
         <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5186,7 +5186,7 @@
         <v>3.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
         <v>7</v>
@@ -5195,22 +5195,22 @@
         <v>1.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V33" t="n">
         <v>2.08</v>
       </c>
       <c r="W33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
         <v>13</v>
@@ -5243,16 +5243,16 @@
         <v>6</v>
       </c>
       <c r="AK33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL33" t="n">
         <v>12</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>13</v>
       </c>
       <c r="AM33" t="n">
         <v>29</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO33" t="n">
         <v>51</v>
@@ -5298,28 +5298,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
@@ -5328,10 +5328,10 @@
         <v>2.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
         <v>6</v>
@@ -5352,16 +5352,16 @@
         <v>1.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>21</v>
@@ -5373,10 +5373,10 @@
         <v>6</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH34" t="n">
         <v>101</v>
@@ -5385,10 +5385,10 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL34" t="n">
         <v>17</v>
@@ -5397,15 +5397,19 @@
         <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5472,7 +5476,7 @@
         <v>3.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
         <v>6.5</v>
@@ -5596,34 +5600,34 @@
         <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L36" t="n">
         <v>4.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N36" t="n">
         <v>4.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S36" t="n">
         <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U36" t="n">
         <v>1.85</v>
@@ -5635,7 +5639,7 @@
         <v>2.75</v>
       </c>
       <c r="X36" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Y36" t="n">
         <v>5.5</v>
@@ -7588,16 +7592,16 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R50" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U50" t="n">
         <v>1.33</v>
@@ -7606,10 +7610,10 @@
         <v>3.25</v>
       </c>
       <c r="W50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y50" t="n">
         <v>8</v>
@@ -8570,37 +8574,37 @@
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
         <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
         <v>3.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U57" t="n">
         <v>1.44</v>
@@ -8615,13 +8619,13 @@
         <v>1.83</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z57" t="n">
         <v>10</v>
       </c>
       <c r="AA57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB57" t="n">
         <v>21</v>
@@ -8630,25 +8634,25 @@
         <v>19</v>
       </c>
       <c r="AD57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE57" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF57" t="n">
         <v>6.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH57" t="n">
         <v>51</v>
       </c>
       <c r="AI57" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK57" t="n">
         <v>15</v>
@@ -8660,22 +8664,22 @@
         <v>34</v>
       </c>
       <c r="AN57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="58">
@@ -8710,13 +8714,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J58" t="n">
         <v>2.75</v>
@@ -8728,28 +8732,28 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
         <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R58" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S58" t="n">
         <v>3.25</v>
       </c>
       <c r="T58" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U58" t="n">
         <v>1.4</v>
@@ -8764,7 +8768,7 @@
         <v>2</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z58" t="n">
         <v>10</v>
@@ -8800,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="AK58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL58" t="n">
         <v>12</v>
@@ -9405,10 +9409,10 @@
         <v>1.2</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="63">
@@ -9443,13 +9447,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J63" t="n">
         <v>2.88</v>
@@ -9458,7 +9462,7 @@
         <v>1.95</v>
       </c>
       <c r="L63" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M63" t="n">
         <v>1.11</v>
@@ -9476,7 +9480,7 @@
         <v>2.5</v>
       </c>
       <c r="R63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -9494,7 +9498,7 @@
         <v>2.1</v>
       </c>
       <c r="X63" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y63" t="n">
         <v>6</v>
@@ -9506,7 +9510,7 @@
         <v>9.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC63" t="n">
         <v>21</v>
@@ -9530,10 +9534,10 @@
         <v>101</v>
       </c>
       <c r="AJ63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL63" t="n">
         <v>15</v>
@@ -9542,16 +9546,16 @@
         <v>41</v>
       </c>
       <c r="AN63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO63" t="n">
         <v>41</v>
       </c>
-      <c r="AO63" t="n">
-        <v>51</v>
-      </c>
       <c r="AP63" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR63" t="n">
         <v>1.88</v>
@@ -9592,10 +9596,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I64" t="n">
         <v>3.7</v>
@@ -9610,10 +9614,10 @@
         <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.53</v>
@@ -9625,7 +9629,7 @@
         <v>2.7</v>
       </c>
       <c r="R64" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S64" t="n">
         <v>5.5</v>
@@ -9643,7 +9647,7 @@
         <v>2.2</v>
       </c>
       <c r="X64" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y64" t="n">
         <v>5.5</v>
@@ -9703,10 +9707,10 @@
         <v>1.2</v>
       </c>
       <c r="AR64" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="65">
@@ -11159,31 +11163,31 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J75" t="n">
         <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O75" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P75" t="n">
         <v>2.75</v>
@@ -11198,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U75" t="n">
         <v>1.5</v>
@@ -11207,7 +11211,7 @@
         <v>2.5</v>
       </c>
       <c r="W75" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X75" t="n">
         <v>1.8</v>
@@ -11237,16 +11241,16 @@
         <v>6</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH75" t="n">
         <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK75" t="n">
         <v>15</v>
@@ -11318,13 +11322,13 @@
         <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O76" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P76" t="n">
         <v>3.25</v>
@@ -11339,7 +11343,7 @@
         <v>3.75</v>
       </c>
       <c r="T76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U76" t="n">
         <v>1.44</v>
@@ -11348,10 +11352,10 @@
         <v>2.63</v>
       </c>
       <c r="W76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -15469,7 +15473,7 @@
         <v>3.5</v>
       </c>
       <c r="I105" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J105" t="n">
         <v>2.75</v>
@@ -15478,13 +15482,13 @@
         <v>2.25</v>
       </c>
       <c r="L105" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M105" t="n">
         <v>1.04</v>
       </c>
       <c r="N105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O105" t="n">
         <v>1.22</v>
@@ -15556,7 +15560,7 @@
         <v>17</v>
       </c>
       <c r="AL105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM105" t="n">
         <v>34</v>
@@ -21054,7 +21058,7 @@
         <v>4</v>
       </c>
       <c r="K144" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L144" t="n">
         <v>2.5</v>
@@ -21072,10 +21076,10 @@
         <v>4.5</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R144" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S144" t="n">
         <v>2.5</v>
@@ -21084,7 +21088,7 @@
         <v>1.5</v>
       </c>
       <c r="U144" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V144" t="n">
         <v>3.4</v>
@@ -21147,10 +21151,10 @@
         <v>21</v>
       </c>
       <c r="AP144" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR144" t="inlineStr"/>
       <c r="AS144" t="inlineStr"/>
@@ -21229,7 +21233,7 @@
         <v>1.33</v>
       </c>
       <c r="U145" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V145" t="n">
         <v>2.75</v>
@@ -21334,10 +21338,10 @@
         <v>4.75</v>
       </c>
       <c r="I146" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J146" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K146" t="n">
         <v>2.5</v>
@@ -21346,13 +21350,13 @@
         <v>6</v>
       </c>
       <c r="M146" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N146" t="n">
         <v>15</v>
       </c>
       <c r="O146" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P146" t="n">
         <v>4.5</v>
@@ -21367,25 +21371,25 @@
         <v>2.5</v>
       </c>
       <c r="T146" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U146" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V146" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W146" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X146" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z146" t="n">
         <v>8</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA146" t="n">
         <v>8.5</v>
@@ -21397,13 +21401,13 @@
         <v>11</v>
       </c>
       <c r="AD146" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE146" t="n">
         <v>15</v>
       </c>
       <c r="AF146" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG146" t="n">
         <v>17</v>
@@ -21433,10 +21437,10 @@
         <v>41</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR146" t="inlineStr"/>
       <c r="AS146" t="inlineStr"/>
@@ -21482,7 +21486,7 @@
         <v>3.2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K147" t="n">
         <v>2.2</v>
@@ -21491,13 +21495,13 @@
         <v>3.75</v>
       </c>
       <c r="M147" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N147" t="n">
         <v>11</v>
       </c>
       <c r="O147" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P147" t="n">
         <v>3.5</v>
@@ -21512,10 +21516,10 @@
         <v>3.25</v>
       </c>
       <c r="T147" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U147" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V147" t="n">
         <v>2.75</v>
@@ -22452,7 +22456,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H154" t="n">
         <v>3.1</v>
@@ -22470,13 +22474,13 @@
         <v>3.5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P154" t="n">
         <v>2.75</v>
@@ -22491,7 +22495,7 @@
         <v>4.33</v>
       </c>
       <c r="T154" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U154" t="n">
         <v>1.5</v>
@@ -22500,10 +22504,10 @@
         <v>2.5</v>
       </c>
       <c r="W154" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X154" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y154" t="n">
         <v>7.5</v>
@@ -22536,7 +22540,7 @@
         <v>51</v>
       </c>
       <c r="AI154" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AJ154" t="n">
         <v>7.5</v>
@@ -22639,10 +22643,10 @@
         <v>1.22</v>
       </c>
       <c r="U155" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V155" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W155" t="n">
         <v>2</v>
@@ -22905,28 +22909,28 @@
         <v>5.5</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N157" t="n">
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P157" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R157" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S157" t="n">
         <v>3.4</v>
       </c>
       <c r="T157" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U157" t="n">
         <v>1.4</v>
@@ -23054,10 +23058,10 @@
         <v>3.25</v>
       </c>
       <c r="M158" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N158" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O158" t="n">
         <v>1.25</v>
@@ -23066,10 +23070,10 @@
         <v>3.75</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R158" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S158" t="n">
         <v>3</v>
@@ -23078,13 +23082,13 @@
         <v>1.36</v>
       </c>
       <c r="U158" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V158" t="n">
         <v>3</v>
       </c>
       <c r="W158" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X158" t="n">
         <v>2.1</v>
@@ -23203,22 +23207,22 @@
         <v>3.6</v>
       </c>
       <c r="M159" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O159" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P159" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q159" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R159" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S159" t="n">
         <v>3.4</v>
@@ -23227,13 +23231,13 @@
         <v>1.3</v>
       </c>
       <c r="U159" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V159" t="n">
         <v>2.75</v>
       </c>
       <c r="W159" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X159" t="n">
         <v>2</v>
@@ -23296,7 +23300,7 @@
         <v>1.44</v>
       </c>
       <c r="AR159" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS159" t="n">
         <v>2.55</v>
@@ -24473,7 +24477,7 @@
         <v>2.1</v>
       </c>
       <c r="H168" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I168" t="n">
         <v>3.4</v>
@@ -24494,34 +24498,34 @@
         <v>11</v>
       </c>
       <c r="O168" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P168" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q168" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R168" t="n">
         <v>1.88</v>
       </c>
-      <c r="R168" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S168" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T168" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U168" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V168" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W168" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X168" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y168" t="n">
         <v>8</v>
@@ -24560,7 +24564,7 @@
         <v>11</v>
       </c>
       <c r="AK168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL168" t="n">
         <v>12</v>
@@ -30424,64 +30428,64 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H210" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I210" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J210" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K210" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L210" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M210" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N210" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O210" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P210" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R210" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="S210" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T210" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U210" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V210" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W210" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X210" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y210" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z210" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA210" t="n">
         <v>10</v>
@@ -30490,28 +30494,28 @@
         <v>23</v>
       </c>
       <c r="AC210" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD210" t="n">
         <v>34</v>
       </c>
       <c r="AE210" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AF210" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG210" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH210" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI210" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ210" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK210" t="n">
         <v>13</v>
@@ -30523,18 +30527,18 @@
         <v>29</v>
       </c>
       <c r="AN210" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO210" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP210" t="inlineStr"/>
       <c r="AQ210" t="inlineStr"/>
       <c r="AR210" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="211">
@@ -33675,22 +33679,22 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H233" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I233" t="n">
         <v>1.27</v>
       </c>
       <c r="J233" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K233" t="n">
         <v>2.5</v>
       </c>
       <c r="L233" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M233" t="n">
         <v>1.03</v>
@@ -33726,7 +33730,7 @@
         <v>2.25</v>
       </c>
       <c r="X233" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y233" t="n">
         <v>21</v>
@@ -33753,7 +33757,7 @@
         <v>11</v>
       </c>
       <c r="AG233" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH233" t="n">
         <v>81</v>
@@ -33828,7 +33832,7 @@
         <v>2.75</v>
       </c>
       <c r="K234" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L234" t="n">
         <v>5</v>
@@ -33849,7 +33853,7 @@
         <v>2.5</v>
       </c>
       <c r="R234" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S234" t="n">
         <v>5</v>
@@ -33867,7 +33871,7 @@
         <v>2.2</v>
       </c>
       <c r="X234" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y234" t="n">
         <v>5.5</v>
@@ -33961,64 +33965,64 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H235" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I235" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J235" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K235" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L235" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M235" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N235" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O235" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P235" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q235" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="R235" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="S235" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="T235" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U235" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V235" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W235" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="X235" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y235" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Z235" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA235" t="n">
         <v>8.5</v>
@@ -34030,40 +34034,40 @@
         <v>13</v>
       </c>
       <c r="AD235" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE235" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ235" t="n">
         <v>13</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG235" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH235" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI235" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ235" t="n">
-        <v>15</v>
       </c>
       <c r="AK235" t="n">
         <v>23</v>
       </c>
       <c r="AL235" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM235" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO235" t="n">
         <v>41</v>
-      </c>
-      <c r="AN235" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO235" t="n">
-        <v>34</v>
       </c>
       <c r="AP235" t="n">
         <v>2.05</v>
@@ -34106,7 +34110,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H236" t="n">
         <v>4.33</v>
@@ -34154,7 +34158,7 @@
         <v>3.5</v>
       </c>
       <c r="W236" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X236" t="n">
         <v>2.1</v>
@@ -34211,10 +34215,10 @@
         <v>41</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AR236" t="inlineStr"/>
       <c r="AS236" t="inlineStr"/>
@@ -34251,7 +34255,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H237" t="n">
         <v>4.5</v>
@@ -34281,10 +34285,10 @@
         <v>4.5</v>
       </c>
       <c r="Q237" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R237" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S237" t="n">
         <v>2.5</v>
@@ -34299,7 +34303,7 @@
         <v>3.4</v>
       </c>
       <c r="W237" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X237" t="n">
         <v>2</v>
@@ -34329,10 +34333,10 @@
         <v>8.5</v>
       </c>
       <c r="AG237" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH237" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI237" t="n">
         <v>201</v>
@@ -34356,10 +34360,10 @@
         <v>41</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AR237" t="inlineStr"/>
       <c r="AS237" t="inlineStr"/>
@@ -34396,7 +34400,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H238" t="n">
         <v>3.5</v>
@@ -34426,10 +34430,10 @@
         <v>3.75</v>
       </c>
       <c r="Q238" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="R238" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S238" t="n">
         <v>3.25</v>
@@ -34444,7 +34448,7 @@
         <v>3</v>
       </c>
       <c r="W238" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X238" t="n">
         <v>2</v>
@@ -34541,7 +34545,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H239" t="n">
         <v>3.6</v>
@@ -34565,16 +34569,16 @@
         <v>11</v>
       </c>
       <c r="O239" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P239" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q239" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="R239" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S239" t="n">
         <v>3.25</v>
@@ -34589,7 +34593,7 @@
         <v>3</v>
       </c>
       <c r="W239" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X239" t="n">
         <v>2</v>
@@ -34686,19 +34690,19 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H240" t="n">
         <v>4.5</v>
       </c>
       <c r="I240" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J240" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K240" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L240" t="n">
         <v>5</v>
@@ -34707,13 +34711,13 @@
         <v>1.02</v>
       </c>
       <c r="N240" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O240" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P240" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q240" t="n">
         <v>1.48</v>
@@ -34734,16 +34738,16 @@
         <v>3.75</v>
       </c>
       <c r="W240" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X240" t="n">
         <v>2.25</v>
       </c>
       <c r="Y240" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z240" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA240" t="n">
         <v>8.5</v>
@@ -34758,10 +34762,10 @@
         <v>19</v>
       </c>
       <c r="AE240" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF240" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG240" t="n">
         <v>13</v>
@@ -34773,10 +34777,10 @@
         <v>126</v>
       </c>
       <c r="AJ240" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK240" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL240" t="n">
         <v>17</v>
@@ -34846,13 +34850,13 @@
         <v>2.4</v>
       </c>
       <c r="L241" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M241" t="n">
         <v>1.03</v>
       </c>
       <c r="N241" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O241" t="n">
         <v>1.18</v>
@@ -34861,10 +34865,10 @@
         <v>4.5</v>
       </c>
       <c r="Q241" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R241" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S241" t="n">
         <v>2.5</v>
@@ -34873,19 +34877,19 @@
         <v>1.5</v>
       </c>
       <c r="U241" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V241" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W241" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X241" t="n">
         <v>2.05</v>
       </c>
       <c r="Y241" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z241" t="n">
         <v>8.5</v>
@@ -34903,7 +34907,7 @@
         <v>21</v>
       </c>
       <c r="AE241" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF241" t="n">
         <v>8.5</v>
@@ -34915,7 +34919,7 @@
         <v>41</v>
       </c>
       <c r="AI241" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ241" t="n">
         <v>17</v>
@@ -34933,13 +34937,13 @@
         <v>41</v>
       </c>
       <c r="AO241" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="AR241" t="inlineStr"/>
       <c r="AS241" t="inlineStr"/>
@@ -34994,10 +34998,10 @@
         <v>4.5</v>
       </c>
       <c r="M242" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N242" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O242" t="n">
         <v>1.22</v>
@@ -35006,10 +35010,10 @@
         <v>4</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R242" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S242" t="n">
         <v>2.75</v>
@@ -35121,46 +35125,46 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H243" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I243" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J243" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K243" t="n">
         <v>2.25</v>
       </c>
       <c r="L243" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M243" t="n">
         <v>1.04</v>
       </c>
       <c r="N243" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O243" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P243" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q243" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R243" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S243" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T243" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U243" t="n">
         <v>1.36</v>
@@ -35178,7 +35182,7 @@
         <v>8.5</v>
       </c>
       <c r="Z243" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA243" t="n">
         <v>8.5</v>
@@ -35193,7 +35197,7 @@
         <v>23</v>
       </c>
       <c r="AE243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF243" t="n">
         <v>6.5</v>
@@ -35269,61 +35273,61 @@
         <v>1.91</v>
       </c>
       <c r="H244" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I244" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J244" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K244" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L244" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M244" t="n">
         <v>1.04</v>
       </c>
       <c r="N244" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O244" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P244" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q244" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S244" t="n">
+        <v>3</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3</v>
+      </c>
+      <c r="W244" t="n">
         <v>1.7</v>
       </c>
-      <c r="R244" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S244" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T244" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U244" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V244" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W244" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X244" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Y244" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z244" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA244" t="n">
         <v>8.5</v>
@@ -35335,10 +35339,10 @@
         <v>15</v>
       </c>
       <c r="AD244" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE244" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF244" t="n">
         <v>7</v>
@@ -35350,10 +35354,10 @@
         <v>41</v>
       </c>
       <c r="AI244" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ244" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK244" t="n">
         <v>21</v>
@@ -35368,7 +35372,7 @@
         <v>29</v>
       </c>
       <c r="AO244" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP244" t="n">
         <v>2.03</v>
@@ -35417,13 +35421,13 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J245" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K245" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L245" t="n">
         <v>4</v>
@@ -35435,37 +35439,37 @@
         <v>17</v>
       </c>
       <c r="O245" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P245" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S245" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T245" t="n">
         <v>1.53</v>
       </c>
-      <c r="R245" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S245" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T245" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U245" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V245" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W245" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X245" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y245" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z245" t="n">
         <v>11</v>
@@ -35483,25 +35487,25 @@
         <v>19</v>
       </c>
       <c r="AE245" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF245" t="n">
         <v>8</v>
       </c>
       <c r="AG245" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH245" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI245" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ245" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK245" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL245" t="n">
         <v>13</v>
@@ -35513,13 +35517,13 @@
         <v>26</v>
       </c>
       <c r="AO245" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AR245" t="inlineStr"/>
       <c r="AS245" t="inlineStr"/>
@@ -35693,36 +35697,36 @@
         </is>
       </c>
       <c r="G247" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H247" t="n">
         <v>2.52</v>
       </c>
-      <c r="H247" t="n">
-        <v>2.85</v>
-      </c>
       <c r="I247" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J247" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K247" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="L247" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P247" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R247" t="n">
         <v>1.45</v>
-      </c>
-      <c r="P247" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q247" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R247" t="n">
-        <v>1.47</v>
       </c>
       <c r="S247" t="n">
         <v>3.95</v>
@@ -35731,67 +35735,67 @@
         <v>1.17</v>
       </c>
       <c r="U247" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V247" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W247" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="X247" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y247" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="Z247" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA247" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB247" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC247" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD247" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE247" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AF247" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AG247" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH247" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI247" t="n">
         <v>800</v>
       </c>
       <c r="AJ247" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AK247" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AL247" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM247" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AN247" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO247" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP247" t="inlineStr"/>
       <c r="AQ247" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-22.xlsx
@@ -4576,10 +4576,10 @@
         <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>2.38</v>
@@ -4591,10 +4591,10 @@
         <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4615,10 +4615,10 @@
         <v>1.17</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
         <v>2.63</v>
@@ -4627,10 +4627,10 @@
         <v>1.44</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA29" t="n">
         <v>9.5</v>
@@ -4639,19 +4639,19 @@
         <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD29" t="n">
         <v>41</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF29" t="n">
         <v>7</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>101</v>
@@ -4669,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN29" t="n">
         <v>51</v>
@@ -4684,10 +4684,10 @@
         <v>1.21</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="30">
@@ -9596,22 +9596,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H64" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J64" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>1.91</v>
       </c>
       <c r="L64" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
@@ -9650,19 +9650,19 @@
         <v>1.62</v>
       </c>
       <c r="Y64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA64" t="n">
         <v>10</v>
       </c>
       <c r="AB64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC64" t="n">
         <v>21</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>23</v>
       </c>
       <c r="AD64" t="n">
         <v>41</v>
@@ -9683,19 +9683,19 @@
         <v>101</v>
       </c>
       <c r="AJ64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL64" t="n">
         <v>15</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>13</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
       </c>
       <c r="AN64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO64" t="n">
         <v>51</v>
@@ -34839,13 +34839,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H241" t="n">
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J241" t="n">
         <v>2.3</v>
@@ -34896,13 +34896,13 @@
         <v>8</v>
       </c>
       <c r="Z241" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA241" t="n">
         <v>8.5</v>
       </c>
       <c r="AB241" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC241" t="n">
         <v>13</v>
@@ -34935,7 +34935,7 @@
         <v>15</v>
       </c>
       <c r="AM241" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN241" t="n">
         <v>34</v>
@@ -34984,28 +34984,28 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H242" t="n">
         <v>3.4</v>
       </c>
       <c r="I242" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J242" t="n">
         <v>2.63</v>
       </c>
       <c r="K242" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L242" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M242" t="n">
         <v>1.04</v>
       </c>
       <c r="N242" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O242" t="n">
         <v>1.22</v>
@@ -35014,10 +35014,10 @@
         <v>4</v>
       </c>
       <c r="Q242" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R242" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S242" t="n">
         <v>2.75</v>
@@ -35026,28 +35026,28 @@
         <v>1.4</v>
       </c>
       <c r="U242" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V242" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W242" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X242" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Y242" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z242" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA242" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB242" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC242" t="n">
         <v>15</v>
@@ -35056,13 +35056,13 @@
         <v>23</v>
       </c>
       <c r="AE242" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF242" t="n">
         <v>6.5</v>
       </c>
       <c r="AG242" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH242" t="n">
         <v>41</v>
@@ -35071,7 +35071,7 @@
         <v>151</v>
       </c>
       <c r="AJ242" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK242" t="n">
         <v>19</v>
@@ -35083,10 +35083,10 @@
         <v>41</v>
       </c>
       <c r="AN242" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO242" t="n">
         <v>29</v>
-      </c>
-      <c r="AO242" t="n">
-        <v>34</v>
       </c>
       <c r="AP242" t="n">
         <v>2</v>
@@ -35129,7 +35129,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H243" t="n">
         <v>3.5</v>
@@ -35177,13 +35177,13 @@
         <v>3</v>
       </c>
       <c r="W243" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X243" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y243" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z243" t="n">
         <v>10</v>
@@ -35201,7 +35201,7 @@
         <v>23</v>
       </c>
       <c r="AE243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF243" t="n">
         <v>6.5</v>
@@ -35213,7 +35213,7 @@
         <v>41</v>
       </c>
       <c r="AI243" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ243" t="n">
         <v>12</v>
@@ -35277,25 +35277,25 @@
         <v>1.91</v>
       </c>
       <c r="H244" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I244" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J244" t="n">
         <v>2.5</v>
       </c>
       <c r="K244" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L244" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M244" t="n">
         <v>1.03</v>
       </c>
       <c r="N244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O244" t="n">
         <v>1.18</v>
@@ -35316,10 +35316,10 @@
         <v>1.5</v>
       </c>
       <c r="U244" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V244" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W244" t="n">
         <v>1.53</v>
@@ -35334,28 +35334,28 @@
         <v>11</v>
       </c>
       <c r="AA244" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB244" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC244" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD244" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE244" t="n">
         <v>17</v>
       </c>
       <c r="AF244" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG244" t="n">
         <v>12</v>
       </c>
       <c r="AH244" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI244" t="n">
         <v>126</v>
@@ -35373,7 +35373,7 @@
         <v>41</v>
       </c>
       <c r="AN244" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO244" t="n">
         <v>26</v>
